--- a/NFL Wins.xlsx
+++ b/NFL Wins.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9660" windowHeight="16100" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12180" windowHeight="16100" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="93">
   <si>
     <t>Arizona Cardinals</t>
   </si>
@@ -269,6 +269,54 @@
   </si>
   <si>
     <t>Output</t>
+  </si>
+  <si>
+    <t>Week 6</t>
+  </si>
+  <si>
+    <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week 8</t>
+  </si>
+  <si>
+    <t>Week 9</t>
+  </si>
+  <si>
+    <t>Week 10</t>
+  </si>
+  <si>
+    <t>Week 11</t>
+  </si>
+  <si>
+    <t>Week 12</t>
+  </si>
+  <si>
+    <t>Week 13</t>
+  </si>
+  <si>
+    <t>Week 14</t>
+  </si>
+  <si>
+    <t>Week 15</t>
+  </si>
+  <si>
+    <t>Week 16</t>
+  </si>
+  <si>
+    <t>Week 17</t>
+  </si>
+  <si>
+    <t>Wildcard</t>
+  </si>
+  <si>
+    <t>Divisonal</t>
+  </si>
+  <si>
+    <t>Conference</t>
+  </si>
+  <si>
+    <t>SuperBowl</t>
   </si>
 </sst>
 </file>
@@ -308,15 +356,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -324,8 +378,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="59">
+  <cellStyleXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -385,15 +448,47 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="59">
+  <cellStyles count="85">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -423,6 +518,19 @@
     <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -452,6 +560,19 @@
     <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -787,7 +908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -1068,62 +1189,116 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:Y38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A33"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="A33" sqref="A2:A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="4" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" customWidth="1"/>
+    <col min="2" max="2" width="0.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="13" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="21" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1">
+    <row r="1" spans="1:25" s="1" customFormat="1" ht="16" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="6" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="str">
-        <f>CONCATENATE("['",$B2,"', ","'",$C2,"' ,",$D2,",",$E2,",",$F2,",",$G2,",",$H2,"],")</f>
-        <v>['49ers', 'Greg' ,1,1,1,1,1],</v>
-      </c>
-      <c r="B2" t="s">
-        <v>69</v>
-      </c>
+      <c r="J1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="A2" s="2" t="str">
+        <f>CONCATENATE("['",$C2,"', ","'",$D2,"' ,",$E2,",",$F2,",",$G2,",",$H2,",",$I2,",",$J2,"],")</f>
+        <v>['Greg', '49ers' ,1,1,1,1,1,1],</v>
+      </c>
+      <c r="B2" s="3"/>
       <c r="C2" t="s">
         <v>33</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1</v>
-      </c>
-      <c r="F2">
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
         <v>1</v>
       </c>
       <c r="G2">
@@ -1132,133 +1307,153 @@
       <c r="H2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="str">
-        <f t="shared" ref="A3:A33" si="0">CONCATENATE("['",$B3,"', ","'",$C3,"' ,",$D3,",",$E3,",",$F3,",",$G3,",",$H3,"],")</f>
-        <v>['Bears', 'Jeff' ,0,0,0,1,0],</v>
-      </c>
-      <c r="B3" t="s">
-        <v>52</v>
-      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" s="2" t="str">
+        <f t="shared" ref="A3:A33" si="0">CONCATENATE("['",$C3,"', ","'",$D3,"' ,",$E3,",",$F3,",",$G3,",",$H3,",",$I3,",",$J3,"],")</f>
+        <v>['Jeff', 'Bears' ,0,0,0,1,1,1],</v>
+      </c>
+      <c r="B3" s="3"/>
       <c r="C3" t="s">
         <v>32</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="str">
-        <f t="shared" si="0"/>
-        <v>['Bengals', 'Tim' ,1,1,1,2,0],</v>
-      </c>
-      <c r="B4" t="s">
-        <v>47</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>['Tim', 'Bengals' ,1,1,1,2,2,2],</v>
+      </c>
+      <c r="B4" s="3"/>
       <c r="C4" t="s">
         <v>34</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4">
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="str">
-        <f t="shared" si="0"/>
-        <v>['Bills', 'Greg' ,0,0,1,2,0],</v>
-      </c>
-      <c r="B5" t="s">
-        <v>54</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="A5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>['Greg', 'Bills' ,0,0,1,2,3,4],</v>
+      </c>
+      <c r="B5" s="3"/>
       <c r="C5" t="s">
         <v>33</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
+      <c r="D5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="str">
-        <f t="shared" si="0"/>
-        <v>['Broncos', 'Zach' ,1,2,3,4,0],</v>
-      </c>
-      <c r="B6" t="s">
-        <v>40</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="A6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>['Zach', 'Broncos' ,1,2,3,4,4,4],</v>
+      </c>
+      <c r="B6" s="3"/>
       <c r="C6" t="s">
         <v>35</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2</v>
       </c>
       <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
         <v>4</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="str">
-        <f t="shared" si="0"/>
-        <v>['Browns', 'Jeff' ,0,0,0,0,0],</v>
-      </c>
-      <c r="B7" t="s">
-        <v>49</v>
-      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="A7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>['Jeff', 'Browns' ,0,0,0,0,0,0],</v>
+      </c>
+      <c r="B7" s="3"/>
       <c r="C7" t="s">
         <v>32</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7">
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
         <v>0</v>
       </c>
       <c r="G7">
@@ -1267,812 +1462,943 @@
       <c r="H7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="str">
-        <f t="shared" si="0"/>
-        <v>['Buccaneers', 'Zach' ,1,1,1,1,0],</v>
-      </c>
-      <c r="B8" t="s">
-        <v>56</v>
-      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="A8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>['Zach', 'Buccaneers' ,1,1,1,1,2,2],</v>
+      </c>
+      <c r="B8" s="3"/>
       <c r="C8" t="s">
         <v>35</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1</v>
-      </c>
-      <c r="F8">
+      <c r="D8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
         <v>1</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="str">
-        <f t="shared" si="0"/>
-        <v>['Cardinals', 'Jeff' ,0,1,1,1,2],</v>
-      </c>
-      <c r="B9" t="s">
-        <v>65</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
+      <c r="A9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>['Jeff', 'Cardinals' ,0,1,1,1,2,3],</v>
+      </c>
+      <c r="B9" s="3"/>
       <c r="C9" t="s">
         <v>32</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1</v>
-      </c>
-      <c r="F9">
+      <c r="D9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
         <v>1</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="str">
-        <f t="shared" si="0"/>
-        <v>['Chargers', 'Jeff' ,0,1,1,1,0],</v>
-      </c>
-      <c r="B10" t="s">
-        <v>43</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="A10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>['Jeff', 'Chargers' ,0,1,1,1,1,2],</v>
+      </c>
+      <c r="B10" s="3"/>
       <c r="C10" t="s">
         <v>32</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1</v>
-      </c>
-      <c r="F10">
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
         <v>1</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="str">
-        <f t="shared" si="0"/>
-        <v>['Chiefs', 'Zach' ,1,1,2,2,0],</v>
-      </c>
-      <c r="B11" t="s">
-        <v>44</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="A11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>['Zach', 'Chiefs' ,1,1,2,2,2,3],</v>
+      </c>
+      <c r="B11" s="3"/>
       <c r="C11" t="s">
         <v>35</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
       </c>
       <c r="G11">
         <v>2</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="str">
-        <f t="shared" si="0"/>
-        <v>['Colts', 'Greg' ,0,0,1,1,0],</v>
-      </c>
-      <c r="B12" t="s">
-        <v>63</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="A12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>['Greg', 'Colts' ,0,0,1,1,2,2],</v>
+      </c>
+      <c r="B12" s="3"/>
       <c r="C12" t="s">
         <v>33</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
+      <c r="D12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="str">
-        <f t="shared" si="0"/>
-        <v>['Cowboys', 'Greg' ,0,1,2,3,0],</v>
-      </c>
-      <c r="B13" t="s">
-        <v>61</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="A13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>['Greg', 'Cowboys' ,0,1,2,3,4,5],</v>
+      </c>
+      <c r="B13" s="3"/>
       <c r="C13" t="s">
         <v>33</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>2</v>
+      <c r="D13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="str">
-        <f t="shared" si="0"/>
-        <v>['Dolphins', 'Tim' ,0,0,1,1,0],</v>
-      </c>
-      <c r="B14" t="s">
-        <v>58</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+      <c r="J13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="A14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>['Tim', 'Dolphins' ,0,0,1,1,1,2],</v>
+      </c>
+      <c r="B14" s="3"/>
       <c r="C14" t="s">
         <v>34</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
+      <c r="D14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="str">
-        <f t="shared" si="0"/>
-        <v>['Eagles', 'Zach' ,1,2,3,3,0],</v>
-      </c>
-      <c r="B15" t="s">
-        <v>50</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
+      <c r="A15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>['Zach', 'Eagles' ,1,2,3,3,3,3],</v>
+      </c>
+      <c r="B15" s="3"/>
       <c r="C15" t="s">
         <v>35</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>3</v>
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2</v>
       </c>
       <c r="G15">
         <v>3</v>
       </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="str">
-        <f t="shared" si="0"/>
-        <v>['Falcons', 'Greg' ,0,1,2,3,0],</v>
-      </c>
-      <c r="B16" t="s">
-        <v>57</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
+      <c r="A16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>['Greg', 'Falcons' ,0,1,2,3,4,4],</v>
+      </c>
+      <c r="B16" s="3"/>
       <c r="C16" t="s">
         <v>33</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" s="2">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>2</v>
+      <c r="D16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" t="str">
-        <f t="shared" si="0"/>
-        <v>['Giants', 'Jeff' ,1,2,2,2,0],</v>
-      </c>
-      <c r="B17" t="s">
-        <v>60</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>4</v>
+      </c>
+      <c r="J16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>['Jeff', 'Giants' ,1,2,2,2,2,3],</v>
+      </c>
+      <c r="B17" s="3"/>
       <c r="C17" t="s">
         <v>32</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" s="2">
-        <v>2</v>
-      </c>
-      <c r="F17">
+      <c r="D17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
         <v>2</v>
       </c>
       <c r="G17">
         <v>2</v>
       </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" t="str">
-        <f t="shared" si="0"/>
-        <v>['Jaguars', 'Tim' ,0,0,0,1,0],</v>
-      </c>
-      <c r="B18" t="s">
-        <v>42</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>['Tim', 'Jaguars' ,0,0,0,1,1,2],</v>
+      </c>
+      <c r="B18" s="3"/>
       <c r="C18" t="s">
         <v>34</v>
       </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0</v>
-      </c>
-      <c r="F18">
+      <c r="D18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" t="str">
-        <f t="shared" si="0"/>
-        <v>['Jets', 'Tim' ,0,1,1,1,0],</v>
-      </c>
-      <c r="B19" t="s">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>['Tim', 'Jets' ,0,1,1,1,1,1],</v>
+      </c>
+      <c r="B19" s="3"/>
       <c r="C19" t="s">
         <v>34</v>
       </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19" s="2">
-        <v>1</v>
-      </c>
-      <c r="F19">
+      <c r="D19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
         <v>1</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="H19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" t="str">
-        <f t="shared" si="0"/>
-        <v>['Lions', 'Jeff' ,1,1,1,1,0],</v>
-      </c>
-      <c r="B20" t="s">
-        <v>62</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>['Jeff', 'Lions' ,1,1,1,1,2,3],</v>
+      </c>
+      <c r="B20" s="3"/>
       <c r="C20" t="s">
         <v>32</v>
       </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20" s="2">
-        <v>1</v>
-      </c>
-      <c r="F20">
+      <c r="D20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2">
         <v>1</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="H20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" t="str">
-        <f t="shared" si="0"/>
-        <v>['Packers', 'Tim' ,1,1,2,2,0],</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>['Tim', 'Packers' ,1,1,2,2,3,3],</v>
+      </c>
+      <c r="B21" s="3"/>
       <c r="C21" t="s">
         <v>34</v>
       </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21" s="2">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>2</v>
+      <c r="D21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1</v>
       </c>
       <c r="G21">
         <v>2</v>
       </c>
       <c r="H21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" t="str">
-        <f t="shared" si="0"/>
-        <v>['Panthers', 'Greg' ,0,1,1,1,0],</v>
-      </c>
-      <c r="B22" t="s">
-        <v>39</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <v>3</v>
+      </c>
+      <c r="J21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>['Greg', 'Panthers' ,0,1,1,1,1,1],</v>
+      </c>
+      <c r="B22" s="3"/>
       <c r="C22" t="s">
         <v>33</v>
       </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22" s="2">
-        <v>1</v>
-      </c>
-      <c r="F22">
+      <c r="D22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
         <v>1</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="H22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" t="str">
-        <f t="shared" si="0"/>
-        <v>['Patriots', 'Greg' ,1,2,3,3,0],</v>
-      </c>
-      <c r="B23" t="s">
-        <v>64</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>['Greg', 'Patriots' ,1,2,3,3,4,5],</v>
+      </c>
+      <c r="B23" s="3"/>
       <c r="C23" t="s">
         <v>33</v>
       </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23" s="2">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>3</v>
+      <c r="D23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2">
+        <v>2</v>
       </c>
       <c r="G23">
         <v>3</v>
       </c>
       <c r="H23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" t="str">
-        <f t="shared" si="0"/>
-        <v>['Raiders', 'Tim' ,1,1,2,3,0],</v>
-      </c>
-      <c r="B24" t="s">
-        <v>45</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I23">
+        <v>4</v>
+      </c>
+      <c r="J23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>['Tim', 'Raiders' ,1,1,2,3,4,4],</v>
+      </c>
+      <c r="B24" s="3"/>
       <c r="C24" t="s">
         <v>34</v>
       </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24" s="2">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>2</v>
+      <c r="D24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" t="str">
-        <f t="shared" si="0"/>
-        <v>['Rams', 'Zach' ,0,1,2,3,0],</v>
-      </c>
-      <c r="B25" t="s">
-        <v>68</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I24">
+        <v>4</v>
+      </c>
+      <c r="J24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>['Zach', 'Rams' ,0,1,2,3,3,3],</v>
+      </c>
+      <c r="B25" s="3"/>
       <c r="C25" t="s">
         <v>35</v>
       </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25" s="2">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>2</v>
+      <c r="D25" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" t="str">
-        <f t="shared" si="0"/>
-        <v>['Ravens', 'Jeff' ,1,2,3,3,0],</v>
-      </c>
-      <c r="B26" t="s">
-        <v>55</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I25">
+        <v>3</v>
+      </c>
+      <c r="J25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>['Jeff', 'Ravens' ,1,2,3,3,3,3],</v>
+      </c>
+      <c r="B26" s="3"/>
       <c r="C26" t="s">
         <v>32</v>
       </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26" s="2">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>3</v>
+      <c r="D26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2">
+        <v>2</v>
       </c>
       <c r="G26">
         <v>3</v>
       </c>
       <c r="H26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" t="str">
-        <f t="shared" si="0"/>
-        <v>['Redskins', 'Greg' ,0,0,1,2,0],</v>
-      </c>
-      <c r="B27" t="s">
-        <v>67</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I26">
+        <v>3</v>
+      </c>
+      <c r="J26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>['Greg', 'Redskins' ,0,0,1,2,3,4],</v>
+      </c>
+      <c r="B27" s="3"/>
       <c r="C27" t="s">
         <v>33</v>
       </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27" s="2">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
+      <c r="D27" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" t="str">
-        <f t="shared" si="0"/>
-        <v>['Saints', 'Zach' ,0,0,0,1,0],</v>
-      </c>
-      <c r="B28" t="s">
-        <v>46</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I27">
+        <v>3</v>
+      </c>
+      <c r="J27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>['Zach', 'Saints' ,0,0,0,1,1,2],</v>
+      </c>
+      <c r="B28" s="3"/>
       <c r="C28" t="s">
         <v>35</v>
       </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28" s="2">
-        <v>0</v>
-      </c>
-      <c r="F28">
+      <c r="D28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" t="str">
-        <f t="shared" si="0"/>
-        <v>['Seahawks', 'Zach' ,1,1,2,3,0],</v>
-      </c>
-      <c r="B29" t="s">
-        <v>59</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>['Zach', 'Seahawks' ,1,1,2,3,3,4],</v>
+      </c>
+      <c r="B29" s="3"/>
       <c r="C29" t="s">
         <v>35</v>
       </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29" s="2">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>2</v>
+      <c r="D29" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" t="str">
-        <f t="shared" si="0"/>
-        <v>['Steelers', 'Tim' ,1,2,2,3,0],</v>
-      </c>
-      <c r="B30" t="s">
-        <v>66</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I29">
+        <v>3</v>
+      </c>
+      <c r="J29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>['Tim', 'Steelers' ,1,2,2,3,4,4],</v>
+      </c>
+      <c r="B30" s="3"/>
       <c r="C30" t="s">
         <v>34</v>
       </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30" s="2">
-        <v>2</v>
-      </c>
-      <c r="F30">
+      <c r="D30" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2">
         <v>2</v>
       </c>
       <c r="G30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" t="str">
-        <f t="shared" si="0"/>
-        <v>['Texans', 'Jeff' ,1,2,2,3,0],</v>
-      </c>
-      <c r="B31" t="s">
-        <v>53</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I30">
+        <v>4</v>
+      </c>
+      <c r="J30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>['Jeff', 'Texans' ,1,2,2,3,3,4],</v>
+      </c>
+      <c r="B31" s="3"/>
       <c r="C31" t="s">
         <v>32</v>
       </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31" s="2">
-        <v>2</v>
-      </c>
-      <c r="F31">
+      <c r="D31" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" s="2">
         <v>2</v>
       </c>
       <c r="G31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" t="str">
-        <f t="shared" si="0"/>
-        <v>['Titans', 'Zach' ,0,1,1,1,0],</v>
-      </c>
-      <c r="B32" t="s">
-        <v>51</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I31">
+        <v>3</v>
+      </c>
+      <c r="J31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>['Zach', 'Titans' ,0,1,1,1,2,3],</v>
+      </c>
+      <c r="B32" s="3"/>
       <c r="C32" t="s">
         <v>35</v>
       </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32" s="2">
-        <v>1</v>
-      </c>
-      <c r="F32">
+      <c r="D32" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" s="2">
         <v>1</v>
       </c>
       <c r="G32">
         <v>1</v>
       </c>
       <c r="H32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" t="str">
-        <f t="shared" si="0"/>
-        <v>['Vikings', 'Tim' ,1,2,3,4,0],</v>
-      </c>
-      <c r="B33" t="s">
-        <v>74</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+      <c r="J32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>['Tim', 'Vikings' ,1,2,3,4,5,5],</v>
+      </c>
+      <c r="B33" s="3"/>
       <c r="C33" t="s">
         <v>34</v>
       </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33" s="2">
-        <v>2</v>
-      </c>
-      <c r="F33">
-        <v>3</v>
+      <c r="D33" t="s">
+        <v>74</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" s="2">
+        <v>2</v>
       </c>
       <c r="G33">
+        <v>3</v>
+      </c>
+      <c r="H33">
         <v>4</v>
       </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="B34" t="s">
+      <c r="I33">
+        <v>5</v>
+      </c>
+      <c r="J33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="4" customFormat="1" ht="4" customHeight="1">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="D35" t="s">
         <v>32</v>
       </c>
-      <c r="D34">
-        <f>SUMIF($C$2:$C$33,$B34,D$2:D$33)</f>
+      <c r="E35">
+        <f t="shared" ref="E35:J37" si="1">SUMIF($C$2:$C$33,$D35,E$2:E$33)</f>
         <v>4</v>
       </c>
-      <c r="E34" s="2">
-        <f>SUMIF($C$2:$C$33,$B34,E$2:E$33)</f>
+      <c r="F35" s="2">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="F34" s="2">
-        <f>SUMIF($C$2:$C$33,$B34,F$2:F$33)</f>
+      <c r="G35" s="2">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="G34" s="2">
-        <f>SUMIF($C$2:$C$33,$B34,G$2:G$33)</f>
+      <c r="H35" s="2">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="H34" s="2">
-        <f>SUMIF($C$2:$C$33,$B34,H$2:H$33)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="B35" t="s">
+      <c r="I35" s="2">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="J35" s="2">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="D36" t="s">
         <v>33</v>
       </c>
-      <c r="D35">
-        <f>SUMIF($C$2:$C$33,$B35,D$2:D$33)</f>
-        <v>2</v>
-      </c>
-      <c r="E35" s="2">
-        <f>SUMIF($C$2:$C$33,$B35,E$2:E$33)</f>
+      <c r="E36">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F36" s="2">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="F35" s="2">
-        <f>SUMIF($C$2:$C$33,$B35,F$2:F$33)</f>
+      <c r="G36" s="2">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="G35" s="2">
-        <f>SUMIF($C$2:$C$33,$B35,G$2:G$33)</f>
+      <c r="H36" s="2">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="H35" s="2">
-        <f>SUMIF($C$2:$C$33,$B35,H$2:H$33)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="B36" t="s">
+      <c r="I36" s="2">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="J36" s="2">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="D37" t="s">
         <v>34</v>
       </c>
-      <c r="D36">
-        <f>SUMIF($C$2:$C$33,$B36,D$2:D$33)</f>
+      <c r="E37">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="E36" s="2">
-        <f>SUMIF($C$2:$C$33,$B36,E$2:E$33)</f>
+      <c r="F37" s="2">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="F36" s="2">
-        <f>SUMIF($C$2:$C$33,$B36,F$2:F$33)</f>
+      <c r="G37" s="2">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="G36" s="2">
-        <f>SUMIF($C$2:$C$33,$B36,G$2:G$33)</f>
+      <c r="H37" s="2">
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="H36" s="2">
-        <f>SUMIF($C$2:$C$33,$B36,H$2:H$33)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="B37" t="s">
+      <c r="I37" s="2">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="J37" s="2">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="D38" t="s">
         <v>35</v>
       </c>
-      <c r="D37">
-        <f>SUMIF($C$2:$C$33,$B$37,D$2:D$33)</f>
+      <c r="E38">
+        <f t="shared" ref="E38:J38" si="2">SUMIF($C$2:$C$33,$D$38,E$2:E$33)</f>
         <v>5</v>
       </c>
-      <c r="E37" s="2">
-        <f>SUMIF($C$2:$C$33,$B$37,E$2:E$33)</f>
+      <c r="F38" s="2">
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="F37" s="2">
-        <f>SUMIF($C$2:$C$33,$B$37,F$2:F$33)</f>
+      <c r="G38" s="2">
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="G37" s="2">
-        <f>SUMIF($C$2:$C$33,$B$37,G$2:G$33)</f>
+      <c r="H38" s="2">
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="H37" s="2">
-        <f>SUMIF($C$2:$C$33,$B$37,H$2:H$33)</f>
-        <v>0</v>
+      <c r="I38" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="J38" s="2">
+        <f t="shared" si="2"/>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B2:C34">
-    <sortCondition ref="B34"/>
+  <sortState ref="D2:E34">
+    <sortCondition ref="D34"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/NFL Wins.xlsx
+++ b/NFL Wins.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12180" windowHeight="16100" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9780" windowHeight="16100" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
@@ -388,7 +388,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="85">
+  <cellStyleXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -474,8 +474,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -487,8 +495,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="85">
+  <cellStyles count="93">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -531,6 +540,10 @@
     <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -573,6 +586,10 @@
     <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1189,10 +1206,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y38"/>
+  <dimension ref="A1:Y39"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A33" sqref="A2:A33"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A2" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="K1" activePane="topRight" state="frozenSplit"/>
+      <selection pane="topRight" activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1201,139 +1219,139 @@
     <col min="2" max="2" width="0.6640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="13" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="7.5" bestFit="1" customWidth="1"/>
     <col min="14" max="21" width="8.5" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" ht="16" thickBot="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:25">
+      <c r="E1" s="7">
+        <f t="shared" ref="E1:I1" si="0">F1-7</f>
+        <v>42626</v>
+      </c>
+      <c r="F1" s="7">
+        <f t="shared" si="0"/>
+        <v>42633</v>
+      </c>
+      <c r="G1" s="7">
+        <f t="shared" si="0"/>
+        <v>42640</v>
+      </c>
+      <c r="H1" s="7">
+        <f t="shared" si="0"/>
+        <v>42647</v>
+      </c>
+      <c r="I1" s="7">
+        <f t="shared" si="0"/>
+        <v>42654</v>
+      </c>
+      <c r="J1" s="7">
+        <f>K1-7</f>
+        <v>42661</v>
+      </c>
+      <c r="K1" s="7">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" s="1" customFormat="1" ht="16" thickBot="1">
+      <c r="A2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="6" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S2" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V2" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="W2" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="X2" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Y2" s="6" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25">
-      <c r="A2" s="2" t="str">
-        <f>CONCATENATE("['",$C2,"', ","'",$D2,"' ,",$E2,",",$F2,",",$G2,",",$H2,",",$I2,",",$J2,"],")</f>
-        <v>['Greg', '49ers' ,1,1,1,1,1,1],</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="2" t="str">
-        <f t="shared" ref="A3:A33" si="0">CONCATENATE("['",$C3,"', ","'",$D3,"' ,",$E3,",",$F3,",",$G3,",",$H3,",",$I3,",",$J3,"],")</f>
-        <v>['Jeff', 'Bears' ,0,0,0,1,1,1],</v>
+        <f>CONCATENATE("['",$C3,"', ","'",$D3,"' ,",$E3,",",$F3,",",$G3,",",$H3,",",$I3,",",$J3,",",$K3,",",$L3,"],")</f>
+        <v>['Greg', '49ers' ,1,1,1,1,1,1,1,1],</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -1342,57 +1360,69 @@
         <v>1</v>
       </c>
       <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>['Tim', 'Bengals' ,1,1,1,2,2,2],</v>
+        <f t="shared" ref="A4:A34" si="1">CONCATENATE("['",$C4,"', ","'",$D4,"' ,",$E4,",",$F4,",",$G4,",",$H4,",",$I4,",",$J4,",",$K4,",",$L4,"],")</f>
+        <v>['Jeff', 'Bears' ,0,0,0,1,1,1,1,2],</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>['Greg', 'Bills' ,0,0,1,2,3,4],</v>
+        <f t="shared" si="1"/>
+        <v>['Tim', 'Bengals' ,1,1,1,2,2,2,3,3],</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -1401,119 +1431,143 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J5">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>['Zach', 'Broncos' ,1,2,3,4,4,4],</v>
+        <f t="shared" si="1"/>
+        <v>['Greg', 'Bills' ,0,0,1,2,3,4,4,4],</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+      <c r="L6">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>['Jeff', 'Browns' ,0,0,0,0,0,0],</v>
+        <f t="shared" si="1"/>
+        <v>['Zach', 'Broncos' ,1,2,3,4,4,4,5,6],</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>['Zach', 'Buccaneers' ,1,1,1,1,2,2],</v>
+        <f t="shared" si="1"/>
+        <v>['Jeff', 'Browns' ,0,0,0,0,0,0,0,0],</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>['Jeff', 'Cardinals' ,0,1,1,1,2,3],</v>
+        <f t="shared" si="1"/>
+        <v>['Zach', 'Buccaneers' ,1,1,1,1,2,2,3,3],</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="2">
         <v>1</v>
@@ -1528,20 +1582,26 @@
         <v>2</v>
       </c>
       <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>['Jeff', 'Chargers' ,0,1,1,1,1,2],</v>
+        <f t="shared" si="1"/>
+        <v>['Jeff', 'Cardinals' ,0,1,1,1,2,3,3,3],</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" t="s">
         <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1556,280 +1616,334 @@
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>['Zach', 'Chiefs' ,1,1,2,2,2,3],</v>
+        <f t="shared" si="1"/>
+        <v>['Jeff', 'Chargers' ,0,1,1,1,1,2,3,4],</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="2">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>['Greg', 'Colts' ,0,0,1,1,2,2],</v>
+        <f t="shared" si="1"/>
+        <v>['Zach', 'Chiefs' ,1,1,2,2,2,3,4,5],</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12">
         <v>2</v>
       </c>
       <c r="J12">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="K12">
+        <v>4</v>
+      </c>
+      <c r="L12">
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>['Greg', 'Cowboys' ,0,1,2,3,4,5],</v>
+        <f t="shared" si="1"/>
+        <v>['Greg', 'Colts' ,0,0,1,1,2,2,3,3],</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" t="s">
         <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J13">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>['Tim', 'Dolphins' ,0,0,1,1,1,2],</v>
+        <f t="shared" si="1"/>
+        <v>['Greg', 'Cowboys' ,0,1,2,3,4,5,5,6],</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J14">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="K14">
+        <v>5</v>
+      </c>
+      <c r="L14">
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>['Zach', 'Eagles' ,1,2,3,3,3,3],</v>
+        <f t="shared" si="1"/>
+        <v>['Tim', 'Dolphins' ,0,0,1,1,1,2,3,3],</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>['Greg', 'Falcons' ,0,1,2,3,4,4],</v>
+        <f t="shared" si="1"/>
+        <v>['Zach', 'Eagles' ,1,2,3,3,3,3,4,4],</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H16">
         <v>3</v>
       </c>
       <c r="I16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>3</v>
+      </c>
+      <c r="K16">
+        <v>4</v>
+      </c>
+      <c r="L16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>['Jeff', 'Giants' ,1,2,2,2,2,3],</v>
+        <f t="shared" si="1"/>
+        <v>['Greg', 'Falcons' ,0,1,2,3,4,4,4,5],</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G17">
         <v>2</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>4</v>
+      </c>
+      <c r="K17">
+        <v>4</v>
+      </c>
+      <c r="L17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>['Tim', 'Jaguars' ,0,0,0,1,1,2],</v>
+        <f t="shared" si="1"/>
+        <v>['Jeff', 'Giants' ,1,2,2,2,2,3,4,4],</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>3</v>
+      </c>
+      <c r="K18">
+        <v>4</v>
+      </c>
+      <c r="L18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>['Tim', 'Jets' ,0,1,1,1,1,1],</v>
+        <f t="shared" si="1"/>
+        <v>['Tim', 'Jaguars' ,0,0,0,1,1,2,2,2],</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" t="s">
         <v>34</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -1838,23 +1952,29 @@
         <v>1</v>
       </c>
       <c r="J19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>2</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>['Jeff', 'Lions' ,1,1,1,1,2,3],</v>
+        <f t="shared" si="1"/>
+        <v>['Tim', 'Jets' ,0,1,1,1,1,1,2,3],</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D20" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" s="2">
         <v>1</v>
@@ -1866,23 +1986,29 @@
         <v>1</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>['Tim', 'Packers' ,1,1,2,2,3,3],</v>
+        <f t="shared" si="1"/>
+        <v>['Jeff', 'Lions' ,1,1,1,1,2,3,4,4],</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1891,100 +2017,118 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J21">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21">
+        <v>4</v>
+      </c>
+      <c r="L21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>['Greg', 'Panthers' ,0,1,1,1,1,1],</v>
+        <f t="shared" si="1"/>
+        <v>['Tim', 'Packers' ,1,1,2,2,3,3,4,4],</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D22" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" s="2">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>3</v>
+      </c>
+      <c r="K22">
+        <v>4</v>
+      </c>
+      <c r="L22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>['Greg', 'Patriots' ,1,2,3,3,4,5],</v>
+        <f t="shared" si="1"/>
+        <v>['Greg', 'Panthers' ,0,1,1,1,1,1,1,2],</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" t="s">
         <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>['Tim', 'Raiders' ,1,1,2,3,4,4],</v>
+        <f t="shared" si="1"/>
+        <v>['Greg', 'Patriots' ,1,2,3,3,4,5,6,7],</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H24">
         <v>3</v>
@@ -1993,23 +2137,29 @@
         <v>4</v>
       </c>
       <c r="J24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>5</v>
+      </c>
+      <c r="K24">
+        <v>6</v>
+      </c>
+      <c r="L24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>['Zach', 'Rams' ,0,1,2,3,3,3],</v>
+        <f t="shared" si="1"/>
+        <v>['Tim', 'Raiders' ,1,1,2,3,4,4,5,6],</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D25" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="2">
         <v>1</v>
@@ -2021,32 +2171,38 @@
         <v>3</v>
       </c>
       <c r="I25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>4</v>
+      </c>
+      <c r="K25">
+        <v>5</v>
+      </c>
+      <c r="L25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>['Jeff', 'Ravens' ,1,2,3,3,3,3],</v>
+        <f t="shared" si="1"/>
+        <v>['Zach', 'Rams' ,0,1,2,3,3,3,3,3],</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D26" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H26">
         <v>3</v>
@@ -2057,49 +2213,61 @@
       <c r="J26">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>['Greg', 'Redskins' ,0,0,1,2,3,4],</v>
+        <f t="shared" si="1"/>
+        <v>['Jeff', 'Ravens' ,1,2,3,3,3,3,3,3],</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D27" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I27">
         <v>3</v>
       </c>
       <c r="J27">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v>3</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>['Zach', 'Saints' ,0,0,0,1,1,2],</v>
+        <f t="shared" si="1"/>
+        <v>['Greg', 'Redskins' ,0,0,1,2,3,4,4,4],</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2108,66 +2276,78 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <v>4</v>
+      </c>
+      <c r="K28">
+        <v>4</v>
+      </c>
+      <c r="L28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>['Zach', 'Seahawks' ,1,1,2,3,3,4],</v>
+        <f t="shared" si="1"/>
+        <v>['Zach', 'Saints' ,0,0,0,1,1,2,2,3],</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" t="s">
         <v>35</v>
       </c>
       <c r="D29" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <v>2</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>['Tim', 'Steelers' ,1,2,2,3,4,4],</v>
+        <f t="shared" si="1"/>
+        <v>['Zach', 'Seahawks' ,1,1,2,3,3,4,4,4],</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D30" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E30">
         <v>1</v>
       </c>
       <c r="F30" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -2176,23 +2356,29 @@
         <v>3</v>
       </c>
       <c r="I30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J30">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="K30">
+        <v>4</v>
+      </c>
+      <c r="L30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>['Jeff', 'Texans' ,1,2,2,3,3,4],</v>
+        <f t="shared" si="1"/>
+        <v>['Tim', 'Steelers' ,1,2,2,3,4,4,4,4],</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D31" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2207,193 +2393,280 @@
         <v>3</v>
       </c>
       <c r="I31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J31">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="K31">
+        <v>4</v>
+      </c>
+      <c r="L31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>['Zach', 'Titans' ,0,1,1,1,2,3],</v>
+        <f t="shared" si="1"/>
+        <v>['Jeff', 'Texans' ,1,2,2,3,3,4,4,5],</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D32" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+        <v>4</v>
+      </c>
+      <c r="K32">
+        <v>4</v>
+      </c>
+      <c r="L32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>['Tim', 'Vikings' ,1,2,3,4,5,5],</v>
+        <f t="shared" si="1"/>
+        <v>['Zach', 'Titans' ,0,1,1,1,2,3,3,4],</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33" s="2">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>2</v>
+      </c>
+      <c r="J33">
+        <v>3</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>['Tim', 'Vikings' ,1,2,3,4,5,5,5,5],</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" t="s">
         <v>34</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D34" t="s">
         <v>74</v>
       </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33" s="2">
-        <v>2</v>
-      </c>
-      <c r="G33">
-        <v>3</v>
-      </c>
-      <c r="H33">
-        <v>4</v>
-      </c>
-      <c r="I33">
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" s="2">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>3</v>
+      </c>
+      <c r="H34">
+        <v>4</v>
+      </c>
+      <c r="I34">
         <v>5</v>
       </c>
-      <c r="J33">
+      <c r="J34">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" s="4" customFormat="1" ht="4" customHeight="1">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="D35" t="s">
+      <c r="K34">
+        <v>5</v>
+      </c>
+      <c r="L34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" s="4" customFormat="1" ht="4" customHeight="1">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="D36" t="s">
         <v>32</v>
       </c>
-      <c r="E35">
-        <f t="shared" ref="E35:J37" si="1">SUMIF($C$2:$C$33,$D35,E$2:E$33)</f>
-        <v>4</v>
-      </c>
-      <c r="F35" s="2">
-        <f t="shared" si="1"/>
+      <c r="E36">
+        <f t="shared" ref="E36:L38" si="2">SUMIF($C$3:$C$34,$D36,E$3:E$34)</f>
+        <v>4</v>
+      </c>
+      <c r="F36" s="2">
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="G35" s="2">
-        <f t="shared" si="1"/>
+      <c r="G36" s="2">
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="H35" s="2">
-        <f t="shared" si="1"/>
+      <c r="H36" s="2">
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="I35" s="2">
-        <f t="shared" si="1"/>
+      <c r="I36" s="2">
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="J35" s="2">
-        <f t="shared" si="1"/>
+      <c r="J36" s="2">
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="D36" t="s">
+      <c r="K36" s="2">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="L36" s="2">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="D37" t="s">
         <v>33</v>
       </c>
-      <c r="E36">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F36" s="2">
-        <f t="shared" si="1"/>
+      <c r="E37">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F37" s="2">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="G36" s="2">
-        <f t="shared" si="1"/>
+      <c r="G37" s="2">
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="H36" s="2">
-        <f t="shared" si="1"/>
+      <c r="H37" s="2">
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="I36" s="2">
-        <f t="shared" si="1"/>
+      <c r="I37" s="2">
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="J36" s="2">
-        <f t="shared" si="1"/>
+      <c r="J37" s="2">
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="D37" t="s">
+      <c r="K37" s="2">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="L37" s="2">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="D38" t="s">
         <v>34</v>
       </c>
-      <c r="E37">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F37" s="2">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="G37" s="2">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="H37" s="2">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="I37" s="2">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="J37" s="2">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="D38" t="s">
-        <v>35</v>
-      </c>
       <c r="E38">
-        <f t="shared" ref="E38:J38" si="2">SUMIF($C$2:$C$33,$D$38,E$2:E$33)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="F38" s="2">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G38" s="2">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H38" s="2">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I38" s="2">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J38" s="2">
         <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="K38" s="2">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="L38" s="2">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="D39" t="s">
+        <v>35</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ref="E39:L39" si="3">SUMIF($C$3:$C$34,$D$39,E$3:E$34)</f>
+        <v>5</v>
+      </c>
+      <c r="F39" s="2">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="G39" s="2">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="H39" s="2">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="I39" s="2">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="J39" s="2">
+        <f t="shared" si="3"/>
         <v>24</v>
+      </c>
+      <c r="K39" s="2">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="L39" s="2">
+        <f t="shared" si="3"/>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/NFL Wins.xlsx
+++ b/NFL Wins.xlsx
@@ -388,8 +388,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="93">
+  <cellStyleXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -497,7 +499,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="93">
+  <cellStyles count="95">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -544,6 +546,7 @@
     <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -590,6 +593,7 @@
     <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1209,8 +1213,8 @@
   <dimension ref="A1:Y39"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="K1" activePane="topRight" state="frozenSplit"/>
-      <selection pane="topRight" activeCell="M34" sqref="M34"/>
+      <pane xSplit="4" topLeftCell="L1" activePane="topRight" state="frozenSplit"/>
+      <selection pane="topRight" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1334,8 +1338,8 @@
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="2" t="str">
-        <f>CONCATENATE("['",$C3,"', ","'",$D3,"' ,",$E3,",",$F3,",",$G3,",",$H3,",",$I3,",",$J3,",",$K3,",",$L3,"],")</f>
-        <v>['Greg', '49ers' ,1,1,1,1,1,1,1,1],</v>
+        <f>CONCATENATE("['",$C3,"', ","'",$D3,"' ,",$E3,",",$F3,",",$G3,",",$H3,",",$I3,",",$J3,",",$K3,",",$L3,",",$M3,"],")</f>
+        <v>['Greg', '49ers' ,1,1,1,1,1,1,1,1,1],</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" t="s">
@@ -1368,11 +1372,14 @@
       <c r="L3">
         <v>1</v>
       </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="2" t="str">
-        <f t="shared" ref="A4:A34" si="1">CONCATENATE("['",$C4,"', ","'",$D4,"' ,",$E4,",",$F4,",",$G4,",",$H4,",",$I4,",",$J4,",",$K4,",",$L4,"],")</f>
-        <v>['Jeff', 'Bears' ,0,0,0,1,1,1,1,2],</v>
+        <f t="shared" ref="A4:A34" si="1">CONCATENATE("['",$C4,"', ","'",$D4,"' ,",$E4,",",$F4,",",$G4,",",$H4,",",$I4,",",$J4,",",$K4,",",$L4,",",$M4,"],")</f>
+        <v>['Jeff', 'Bears' ,0,0,0,1,1,1,1,2,2],</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" t="s">
@@ -1405,11 +1412,14 @@
       <c r="L4">
         <v>2</v>
       </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Bengals' ,1,1,1,2,2,2,3,3],</v>
+        <v>['Tim', 'Bengals' ,1,1,1,2,2,2,3,3,3],</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" t="s">
@@ -1442,11 +1452,14 @@
       <c r="L5">
         <v>3</v>
       </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Bills' ,0,0,1,2,3,4,4,4],</v>
+        <v>['Greg', 'Bills' ,0,0,1,2,3,4,4,4,4],</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" t="s">
@@ -1479,11 +1492,14 @@
       <c r="L6">
         <v>4</v>
       </c>
+      <c r="M6">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Broncos' ,1,2,3,4,4,4,5,6],</v>
+        <v>['Zach', 'Broncos' ,1,2,3,4,4,4,5,6,6],</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" t="s">
@@ -1516,11 +1532,14 @@
       <c r="L7">
         <v>6</v>
       </c>
+      <c r="M7">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Browns' ,0,0,0,0,0,0,0,0],</v>
+        <v>['Jeff', 'Browns' ,0,0,0,0,0,0,0,0,0],</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" t="s">
@@ -1553,11 +1572,14 @@
       <c r="L8">
         <v>0</v>
       </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Buccaneers' ,1,1,1,1,2,2,3,3],</v>
+        <v>['Zach', 'Buccaneers' ,1,1,1,1,2,2,3,3,3],</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" t="s">
@@ -1590,11 +1612,14 @@
       <c r="L9">
         <v>3</v>
       </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Cardinals' ,0,1,1,1,2,3,3,3],</v>
+        <v>['Jeff', 'Cardinals' ,0,1,1,1,2,3,3,3,3],</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" t="s">
@@ -1627,11 +1652,14 @@
       <c r="L10">
         <v>3</v>
       </c>
+      <c r="M10">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Chargers' ,0,1,1,1,1,2,3,4],</v>
+        <v>['Jeff', 'Chargers' ,0,1,1,1,1,2,3,3,4],</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" t="s">
@@ -1662,13 +1690,16 @@
         <v>3</v>
       </c>
       <c r="L11">
+        <v>3</v>
+      </c>
+      <c r="M11">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Chiefs' ,1,1,2,2,2,3,4,5],</v>
+        <v>['Zach', 'Chiefs' ,1,1,2,2,2,3,4,5,6],</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" t="s">
@@ -1701,11 +1732,14 @@
       <c r="L12">
         <v>5</v>
       </c>
+      <c r="M12">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Colts' ,0,0,1,1,2,2,3,3],</v>
+        <v>['Greg', 'Colts' ,0,0,1,1,2,2,3,3,4],</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" t="s">
@@ -1738,11 +1772,14 @@
       <c r="L13">
         <v>3</v>
       </c>
+      <c r="M13">
+        <v>4</v>
+      </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Cowboys' ,0,1,2,3,4,5,5,6],</v>
+        <v>['Greg', 'Cowboys' ,0,1,2,3,4,5,5,6,7],</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" t="s">
@@ -1775,11 +1812,14 @@
       <c r="L14">
         <v>6</v>
       </c>
+      <c r="M14">
+        <v>7</v>
+      </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Dolphins' ,0,0,1,1,1,2,3,3],</v>
+        <v>['Tim', 'Dolphins' ,0,0,1,1,1,2,3,3,4],</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" t="s">
@@ -1812,11 +1852,14 @@
       <c r="L15">
         <v>3</v>
       </c>
+      <c r="M15">
+        <v>4</v>
+      </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Eagles' ,1,2,3,3,3,3,4,4],</v>
+        <v>['Zach', 'Eagles' ,1,2,3,3,3,3,4,4,4],</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" t="s">
@@ -1849,11 +1892,14 @@
       <c r="L16">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Falcons' ,0,1,2,3,4,4,4,5],</v>
+        <v>['Greg', 'Falcons' ,0,1,2,3,4,4,4,5,6],</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" t="s">
@@ -1886,11 +1932,14 @@
       <c r="L17">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Giants' ,1,2,2,2,2,3,4,4],</v>
+        <v>['Jeff', 'Giants' ,1,2,2,2,2,3,4,4,5],</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" t="s">
@@ -1923,11 +1972,14 @@
       <c r="L18">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Jaguars' ,0,0,0,1,1,2,2,2],</v>
+        <v>['Tim', 'Jaguars' ,0,0,0,1,1,2,2,2,2],</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" t="s">
@@ -1960,11 +2012,14 @@
       <c r="L19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Jets' ,0,1,1,1,1,1,2,3],</v>
+        <v>['Tim', 'Jets' ,0,1,1,1,1,1,2,3,3],</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" t="s">
@@ -1997,11 +2052,14 @@
       <c r="L20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Lions' ,1,1,1,1,2,3,4,4],</v>
+        <v>['Jeff', 'Lions' ,1,1,1,1,2,3,4,4,5],</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" t="s">
@@ -2034,11 +2092,14 @@
       <c r="L21">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Packers' ,1,1,2,2,3,3,4,4],</v>
+        <v>['Tim', 'Packers' ,1,1,2,2,3,3,4,4,4],</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" t="s">
@@ -2071,11 +2132,14 @@
       <c r="L22">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Panthers' ,0,1,1,1,1,1,1,2],</v>
+        <v>['Greg', 'Panthers' ,0,1,1,1,1,1,1,2,3],</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" t="s">
@@ -2108,11 +2172,14 @@
       <c r="L23">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Patriots' ,1,2,3,3,4,5,6,7],</v>
+        <v>['Greg', 'Patriots' ,1,2,3,3,4,5,6,7,7],</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" t="s">
@@ -2145,11 +2212,14 @@
       <c r="L24">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Raiders' ,1,1,2,3,4,4,5,6],</v>
+        <v>['Tim', 'Raiders' ,1,1,2,3,4,4,5,6,7],</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" t="s">
@@ -2182,11 +2252,14 @@
       <c r="L25">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="M25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Rams' ,0,1,2,3,3,3,3,3],</v>
+        <v>['Zach', 'Rams' ,0,1,2,3,3,3,3,3,3],</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" t="s">
@@ -2219,11 +2292,14 @@
       <c r="L26">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="M26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Ravens' ,1,2,3,3,3,3,3,3],</v>
+        <v>['Jeff', 'Ravens' ,1,2,3,3,3,3,3,3,4],</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" t="s">
@@ -2256,11 +2332,14 @@
       <c r="L27">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="M27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Redskins' ,0,0,1,2,3,4,4,4],</v>
+        <v>['Greg', 'Redskins' ,0,0,1,2,3,4,4,4,4],</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" t="s">
@@ -2293,11 +2372,14 @@
       <c r="L28">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="M28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Saints' ,0,0,0,1,1,2,2,3],</v>
+        <v>['Zach', 'Saints' ,0,0,0,1,1,2,2,3,4],</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" t="s">
@@ -2330,11 +2412,14 @@
       <c r="L29">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="M29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Seahawks' ,1,1,2,3,3,4,4,4],</v>
+        <v>['Zach', 'Seahawks' ,1,1,2,3,3,4,4,4,5],</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" t="s">
@@ -2367,11 +2452,14 @@
       <c r="L30">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="M30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Steelers' ,1,2,2,3,4,4,4,4],</v>
+        <v>['Tim', 'Steelers' ,1,2,2,3,4,4,4,4,4],</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" t="s">
@@ -2404,11 +2492,14 @@
       <c r="L31">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="M31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Texans' ,1,2,2,3,3,4,4,5],</v>
+        <v>['Jeff', 'Texans' ,1,2,2,3,3,4,4,5,5],</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" t="s">
@@ -2441,11 +2532,14 @@
       <c r="L32">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:12">
+      <c r="M32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Titans' ,0,1,1,1,2,3,3,4],</v>
+        <v>['Zach', 'Titans' ,0,1,1,1,2,3,3,4,4],</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" t="s">
@@ -2478,11 +2572,14 @@
       <c r="L33">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:12">
+      <c r="M33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Vikings' ,1,2,3,4,5,5,5,5],</v>
+        <v>['Tim', 'Vikings' ,1,2,3,4,5,5,5,5,5],</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" t="s">
@@ -2515,18 +2612,21 @@
       <c r="L34">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" s="4" customFormat="1" ht="4" customHeight="1">
+      <c r="M34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" s="4" customFormat="1" ht="4" customHeight="1">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:13">
       <c r="D36" t="s">
         <v>32</v>
       </c>
       <c r="E36">
-        <f t="shared" ref="E36:L38" si="2">SUMIF($C$3:$C$34,$D36,E$3:E$34)</f>
+        <f t="shared" ref="E36:M38" si="2">SUMIF($C$3:$C$34,$D36,E$3:E$34)</f>
         <v>4</v>
       </c>
       <c r="F36" s="2">
@@ -2555,10 +2655,14 @@
       </c>
       <c r="L36" s="2">
         <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
+        <v>24</v>
+      </c>
+      <c r="M36" s="2">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="D37" t="s">
         <v>33</v>
       </c>
@@ -2594,8 +2698,12 @@
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="38" spans="1:12">
+      <c r="M37" s="2">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="D38" t="s">
         <v>34</v>
       </c>
@@ -2631,13 +2739,17 @@
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="39" spans="1:12">
+      <c r="M38" s="2">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="D39" t="s">
         <v>35</v>
       </c>
       <c r="E39">
-        <f t="shared" ref="E39:L39" si="3">SUMIF($C$3:$C$34,$D$39,E$3:E$34)</f>
+        <f t="shared" ref="E39:M39" si="3">SUMIF($C$3:$C$34,$D$39,E$3:E$34)</f>
         <v>5</v>
       </c>
       <c r="F39" s="2">
@@ -2667,6 +2779,10 @@
       <c r="L39" s="2">
         <f t="shared" si="3"/>
         <v>32</v>
+      </c>
+      <c r="M39" s="2">
+        <f t="shared" si="3"/>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/NFL Wins.xlsx
+++ b/NFL Wins.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9780" windowHeight="16100" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20720" windowHeight="16100" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
-    <sheet name="Auto" sheetId="2" r:id="rId2"/>
+    <sheet name="NFL" sheetId="2" r:id="rId2"/>
+    <sheet name="NBA" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="teams" localSheetId="0">Original!$A$2:$G$9</definedName>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="123">
   <si>
     <t>Arizona Cardinals</t>
   </si>
@@ -317,6 +318,96 @@
   </si>
   <si>
     <t>SuperBowl</t>
+  </si>
+  <si>
+    <t>Charlotte</t>
+  </si>
+  <si>
+    <t>Cleveland</t>
+  </si>
+  <si>
+    <t>Atlanta</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>Boston</t>
+  </si>
+  <si>
+    <t>Brooklyn</t>
+  </si>
+  <si>
+    <t>Detroit</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>Toronto</t>
+  </si>
+  <si>
+    <t>Orlando</t>
+  </si>
+  <si>
+    <t>Milwaukee</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>Philadelphia</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>Oklahoma City</t>
+  </si>
+  <si>
+    <t>San Antonio</t>
+  </si>
+  <si>
+    <t>Denver</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
+    <t>Memphis</t>
+  </si>
+  <si>
+    <t>Golden State</t>
+  </si>
+  <si>
+    <t>Houston</t>
+  </si>
+  <si>
+    <t>L.A. Lakers</t>
+  </si>
+  <si>
+    <t>Portland</t>
+  </si>
+  <si>
+    <t>Sacramento</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>Dallas</t>
+  </si>
+  <si>
+    <t>New Orleans</t>
+  </si>
+  <si>
+    <t>Phoenix</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
   </si>
 </sst>
 </file>
@@ -388,7 +479,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="95">
+  <cellStyleXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -484,8 +575,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -498,8 +593,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="95">
+  <cellStyles count="99">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -547,6 +643,10 @@
     <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1214,7 +1314,7 @@
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A2" workbookViewId="0">
       <pane xSplit="4" topLeftCell="L1" activePane="topRight" state="frozenSplit"/>
-      <selection pane="topRight" activeCell="M2" sqref="M2"/>
+      <selection pane="topRight" activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1338,8 +1438,8 @@
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="2" t="str">
-        <f>CONCATENATE("['",$C3,"', ","'",$D3,"' ,",$E3,",",$F3,",",$G3,",",$H3,",",$I3,",",$J3,",",$K3,",",$L3,",",$M3,"],")</f>
-        <v>['Greg', '49ers' ,1,1,1,1,1,1,1,1,1],</v>
+        <f>CONCATENATE("['",$C3,"', ","'",$D3,"' ,",$E3,",",$F3,",",$G3,",",$H3,",",$I3,",",$J3,",",$K3,",",$L3,",",$M3,",",$N3,"],")</f>
+        <v>['Greg', '49ers' ,1,1,1,1,1,1,1,1,1,],</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" t="s">
@@ -1378,8 +1478,8 @@
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="2" t="str">
-        <f t="shared" ref="A4:A34" si="1">CONCATENATE("['",$C4,"', ","'",$D4,"' ,",$E4,",",$F4,",",$G4,",",$H4,",",$I4,",",$J4,",",$K4,",",$L4,",",$M4,"],")</f>
-        <v>['Jeff', 'Bears' ,0,0,0,1,1,1,1,2,2],</v>
+        <f t="shared" ref="A4:A34" si="1">CONCATENATE("['",$C4,"', ","'",$D4,"' ,",$E4,",",$F4,",",$G4,",",$H4,",",$I4,",",$J4,",",$K4,",",$L4,",",$M4,",",$N4,"],")</f>
+        <v>['Jeff', 'Bears' ,0,0,0,1,1,1,1,2,2,2],</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" t="s">
@@ -1415,11 +1515,14 @@
       <c r="M4">
         <v>2</v>
       </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Bengals' ,1,1,1,2,2,2,3,3,3],</v>
+        <v>['Tim', 'Bengals' ,1,1,1,2,2,2,3,3,3,],</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" t="s">
@@ -1459,7 +1562,7 @@
     <row r="6" spans="1:25">
       <c r="A6" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Bills' ,0,0,1,2,3,4,4,4,4],</v>
+        <v>['Greg', 'Bills' ,0,0,1,2,3,4,4,4,4,4],</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" t="s">
@@ -1495,11 +1598,14 @@
       <c r="M6">
         <v>4</v>
       </c>
+      <c r="N6">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Broncos' ,1,2,3,4,4,4,5,6,6],</v>
+        <v>['Zach', 'Broncos' ,1,2,3,4,4,4,5,6,6,7],</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" t="s">
@@ -1535,11 +1641,14 @@
       <c r="M7">
         <v>6</v>
       </c>
+      <c r="N7">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Browns' ,0,0,0,0,0,0,0,0,0],</v>
+        <v>['Jeff', 'Browns' ,0,0,0,0,0,0,0,0,0,0],</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" t="s">
@@ -1575,11 +1684,14 @@
       <c r="M8">
         <v>0</v>
       </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Buccaneers' ,1,1,1,1,2,2,3,3,3],</v>
+        <v>['Zach', 'Buccaneers' ,1,1,1,1,2,2,3,3,3,4],</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" t="s">
@@ -1615,11 +1727,14 @@
       <c r="M9">
         <v>3</v>
       </c>
+      <c r="N9">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Cardinals' ,0,1,1,1,2,3,3,3,3],</v>
+        <v>['Jeff', 'Cardinals' ,0,1,1,1,2,3,3,3,3,],</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" t="s">
@@ -1659,7 +1774,7 @@
     <row r="11" spans="1:25">
       <c r="A11" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Chargers' ,0,1,1,1,1,2,3,3,4],</v>
+        <v>['Jeff', 'Chargers' ,0,1,1,1,1,2,3,3,4,],</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" t="s">
@@ -1699,7 +1814,7 @@
     <row r="12" spans="1:25">
       <c r="A12" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Chiefs' ,1,1,2,2,2,3,4,5,6],</v>
+        <v>['Zach', 'Chiefs' ,1,1,2,2,2,3,4,5,6,7],</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" t="s">
@@ -1735,11 +1850,14 @@
       <c r="M12">
         <v>6</v>
       </c>
+      <c r="N12">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Colts' ,0,0,1,1,2,2,3,3,4],</v>
+        <v>['Greg', 'Colts' ,0,0,1,1,2,2,3,3,4,4],</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" t="s">
@@ -1775,11 +1893,14 @@
       <c r="M13">
         <v>4</v>
       </c>
+      <c r="N13">
+        <v>4</v>
+      </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Cowboys' ,0,1,2,3,4,5,5,6,7],</v>
+        <v>['Greg', 'Cowboys' ,0,1,2,3,4,5,5,6,7,],</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" t="s">
@@ -1819,7 +1940,7 @@
     <row r="15" spans="1:25">
       <c r="A15" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Dolphins' ,0,0,1,1,1,2,3,3,4],</v>
+        <v>['Tim', 'Dolphins' ,0,0,1,1,1,2,3,3,4,],</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" t="s">
@@ -1859,7 +1980,7 @@
     <row r="16" spans="1:25">
       <c r="A16" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Eagles' ,1,2,3,3,3,3,4,4,4],</v>
+        <v>['Zach', 'Eagles' ,1,2,3,3,3,3,4,4,4,5],</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" t="s">
@@ -1895,11 +2016,14 @@
       <c r="M16">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Falcons' ,0,1,2,3,4,4,4,5,6],</v>
+        <v>['Greg', 'Falcons' ,0,1,2,3,4,4,4,5,6,6],</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" t="s">
@@ -1935,11 +2059,14 @@
       <c r="M17">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Giants' ,1,2,2,2,2,3,4,4,5],</v>
+        <v>['Jeff', 'Giants' ,1,2,2,2,2,3,4,4,5,],</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" t="s">
@@ -1976,10 +2103,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:14">
       <c r="A19" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Jaguars' ,0,0,0,1,1,2,2,2,2],</v>
+        <v>['Tim', 'Jaguars' ,0,0,0,1,1,2,2,2,2,2],</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" t="s">
@@ -2015,11 +2142,14 @@
       <c r="M19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Jets' ,0,1,1,1,1,1,2,3,3],</v>
+        <v>['Tim', 'Jets' ,0,1,1,1,1,1,2,3,3,3],</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" t="s">
@@ -2055,11 +2185,14 @@
       <c r="M20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Lions' ,1,1,1,1,2,3,4,4,5],</v>
+        <v>['Jeff', 'Lions' ,1,1,1,1,2,3,4,4,5,5],</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" t="s">
@@ -2095,11 +2228,14 @@
       <c r="M21">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Packers' ,1,1,2,2,3,3,4,4,4],</v>
+        <v>['Tim', 'Packers' ,1,1,2,2,3,3,4,4,4,4],</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" t="s">
@@ -2135,11 +2271,14 @@
       <c r="M22">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Panthers' ,0,1,1,1,1,1,1,2,3],</v>
+        <v>['Greg', 'Panthers' ,0,1,1,1,1,1,1,2,3,3],</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" t="s">
@@ -2175,11 +2314,14 @@
       <c r="M23">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Patriots' ,1,2,3,3,4,5,6,7,7],</v>
+        <v>['Greg', 'Patriots' ,1,2,3,3,4,5,6,7,7,],</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" t="s">
@@ -2216,10 +2358,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:14">
       <c r="A25" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Raiders' ,1,1,2,3,4,4,5,6,7],</v>
+        <v>['Tim', 'Raiders' ,1,1,2,3,4,4,5,6,7,7],</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" t="s">
@@ -2255,11 +2397,14 @@
       <c r="M25">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="N25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Rams' ,0,1,2,3,3,3,3,3,3],</v>
+        <v>['Zach', 'Rams' ,0,1,2,3,3,3,3,3,3,4],</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" t="s">
@@ -2295,11 +2440,14 @@
       <c r="M26">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Ravens' ,1,2,3,3,3,3,3,3,4],</v>
+        <v>['Jeff', 'Ravens' ,1,2,3,3,3,3,3,3,4,5],</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" t="s">
@@ -2335,11 +2483,14 @@
       <c r="M27">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Redskins' ,0,0,1,2,3,4,4,4,4],</v>
+        <v>['Greg', 'Redskins' ,0,0,1,2,3,4,4,4,4,5],</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" t="s">
@@ -2375,11 +2526,14 @@
       <c r="M28">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="N28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Saints' ,0,0,0,1,1,2,2,3,4],</v>
+        <v>['Zach', 'Saints' ,0,0,0,1,1,2,2,3,4,4],</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" t="s">
@@ -2415,11 +2569,14 @@
       <c r="M29">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Seahawks' ,1,1,2,3,3,4,4,4,5],</v>
+        <v>['Zach', 'Seahawks' ,1,1,2,3,3,4,4,4,5,],</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" t="s">
@@ -2456,10 +2613,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:14">
       <c r="A31" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Steelers' ,1,2,2,3,4,4,4,4,4],</v>
+        <v>['Tim', 'Steelers' ,1,2,2,3,4,4,4,4,4,],</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" t="s">
@@ -2496,10 +2653,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:14">
       <c r="A32" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Texans' ,1,2,2,3,3,4,4,5,5],</v>
+        <v>['Jeff', 'Texans' ,1,2,2,3,3,4,4,5,5,6],</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" t="s">
@@ -2535,11 +2692,14 @@
       <c r="M32">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="N32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Titans' ,0,1,1,1,2,3,3,4,4],</v>
+        <v>['Zach', 'Titans' ,0,1,1,1,2,3,3,4,4,5],</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" t="s">
@@ -2575,11 +2735,14 @@
       <c r="M33">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Vikings' ,1,2,3,4,5,5,5,5,5],</v>
+        <v>['Tim', 'Vikings' ,1,2,3,4,5,5,5,5,5,5],</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" t="s">
@@ -2615,18 +2778,21 @@
       <c r="M34">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" s="4" customFormat="1" ht="4" customHeight="1">
+      <c r="N34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" s="4" customFormat="1" ht="4" customHeight="1">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:14">
       <c r="D36" t="s">
         <v>32</v>
       </c>
       <c r="E36">
-        <f t="shared" ref="E36:M38" si="2">SUMIF($C$3:$C$34,$D36,E$3:E$34)</f>
+        <f t="shared" ref="E36:N38" si="2">SUMIF($C$3:$C$34,$D36,E$3:E$34)</f>
         <v>4</v>
       </c>
       <c r="F36" s="2">
@@ -2661,8 +2827,12 @@
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="N36" s="2">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="D37" t="s">
         <v>33</v>
       </c>
@@ -2702,8 +2872,12 @@
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="2">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="D38" t="s">
         <v>34</v>
       </c>
@@ -2743,13 +2917,17 @@
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="2">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="D39" t="s">
         <v>35</v>
       </c>
       <c r="E39">
-        <f t="shared" ref="E39:M39" si="3">SUMIF($C$3:$C$34,$D$39,E$3:E$34)</f>
+        <f t="shared" ref="E39:N39" si="3">SUMIF($C$3:$C$34,$D$39,E$3:E$34)</f>
         <v>5</v>
       </c>
       <c r="F39" s="2">
@@ -2783,6 +2961,10 @@
       <c r="M39" s="2">
         <f t="shared" si="3"/>
         <v>35</v>
+      </c>
+      <c r="N39" s="2">
+        <f t="shared" si="3"/>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -2797,4 +2979,967 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y36"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozenSplit"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2:A31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="8.33203125" customWidth="1"/>
+    <col min="2" max="2" width="0.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="25" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" s="1" customFormat="1" ht="16" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="8">
+        <v>42671</v>
+      </c>
+      <c r="F1" s="8">
+        <f>E1+7</f>
+        <v>42678</v>
+      </c>
+      <c r="G1" s="8">
+        <f t="shared" ref="G1:Y1" si="0">F1+7</f>
+        <v>42685</v>
+      </c>
+      <c r="H1" s="8">
+        <f t="shared" si="0"/>
+        <v>42692</v>
+      </c>
+      <c r="I1" s="8">
+        <f t="shared" si="0"/>
+        <v>42699</v>
+      </c>
+      <c r="J1" s="8">
+        <f t="shared" si="0"/>
+        <v>42706</v>
+      </c>
+      <c r="K1" s="8">
+        <f t="shared" si="0"/>
+        <v>42713</v>
+      </c>
+      <c r="L1" s="8">
+        <f t="shared" si="0"/>
+        <v>42720</v>
+      </c>
+      <c r="M1" s="8">
+        <f t="shared" si="0"/>
+        <v>42727</v>
+      </c>
+      <c r="N1" s="8">
+        <f t="shared" si="0"/>
+        <v>42734</v>
+      </c>
+      <c r="O1" s="8">
+        <f t="shared" si="0"/>
+        <v>42741</v>
+      </c>
+      <c r="P1" s="8">
+        <f t="shared" si="0"/>
+        <v>42748</v>
+      </c>
+      <c r="Q1" s="8">
+        <f t="shared" si="0"/>
+        <v>42755</v>
+      </c>
+      <c r="R1" s="8">
+        <f>Q1+7</f>
+        <v>42762</v>
+      </c>
+      <c r="S1" s="8">
+        <f t="shared" si="0"/>
+        <v>42769</v>
+      </c>
+      <c r="T1" s="8">
+        <f t="shared" si="0"/>
+        <v>42776</v>
+      </c>
+      <c r="U1" s="8">
+        <f t="shared" si="0"/>
+        <v>42783</v>
+      </c>
+      <c r="V1" s="8">
+        <f t="shared" si="0"/>
+        <v>42790</v>
+      </c>
+      <c r="W1" s="8">
+        <f t="shared" si="0"/>
+        <v>42797</v>
+      </c>
+      <c r="X1" s="8">
+        <f t="shared" si="0"/>
+        <v>42804</v>
+      </c>
+      <c r="Y1" s="8">
+        <f t="shared" si="0"/>
+        <v>42811</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="A2" s="2" t="str">
+        <f>CONCATENATE("['",$C2,"', ","'",$D2,"' ,",$E2,",",$F2,",",$G2,"],")</f>
+        <v>['Zach', 'Atlanta' ,1,3,6],</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" s="2" t="str">
+        <f t="shared" ref="A3:A31" si="1">CONCATENATE("['",$C3,"', ","'",$D3,"' ,",$E3,",",$F3,",",$G3,"],")</f>
+        <v>['Jeff', 'Boston' ,1,3,4],</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>['Zach', 'Brooklyn' ,1,2,3],</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="A5" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>['Jeff', 'Charlotte' ,2,4,6],</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="A6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>['Greg', 'Chicago' ,1,3,5],</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="A7" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>['Tim', 'Cleveland' ,2,5,7],</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="A8" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>['Tim', 'Dallas' ,0,0,2],</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
+      <c r="A9" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>['Tim', 'Denver' ,1,2,3],</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="A10" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>['Greg', 'Detroit' ,1,3,4],</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="A11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>['Zach', 'Golden State' ,1,4,7],</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="A12" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>['Jeff', 'Houston' ,1,3,5],</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="A13" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>['Tim', 'Indiana' ,1,2,4],</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="A14" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>['Tim', 'L.A. Lakers' ,1,3,5],</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
+      <c r="A15" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>['Greg', 'LA Clippers' ,1,4,8],</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
+      <c r="A16" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>['Tim', 'Memphis' ,1,3,4],</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>['Zach', 'Miami' ,1,2,2],</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>['Greg', 'Milwaukee' ,0,3,4],</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>['Jeff', 'Minnesota' ,0,1,2],</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" t="s">
+        <v>122</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>['Zach', 'New Orleans' ,0,0,1],</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" t="s">
+        <v>120</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>['Zach', 'New York' ,0,2,3],</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>['Jeff', 'Oklahoma City' ,2,4,6],</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22" s="2">
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>['Greg', 'Orlando' ,0,2,3],</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" t="s">
+        <v>103</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>['', 'Philadelphia' ,0,0,1],</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="D24" t="s">
+        <v>106</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>['', 'Phoenix' ,0,2,3],</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="D25" t="s">
+        <v>121</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>['Greg', 'Portland' ,1,3,6],</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" t="s">
+        <v>116</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>['Jeff', 'Sacramento' ,1,2,4],</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" t="s">
+        <v>117</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>['Jeff', 'San Antonio' ,2,5,6],</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" t="s">
+        <v>109</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28" s="2">
+        <v>5</v>
+      </c>
+      <c r="G28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>['Greg', 'Toronto' ,1,4,6],</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" t="s">
+        <v>102</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2">
+        <v>4</v>
+      </c>
+      <c r="G29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>['Zach', 'Utah' ,1,3,6],</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" t="s">
+        <v>118</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2">
+        <v>3</v>
+      </c>
+      <c r="G30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>['Tim', 'Washington' ,0,1,2],</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="4" customFormat="1" ht="4" customHeight="1">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="4:14">
+      <c r="D33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33">
+        <f>SUMIF($C$2:$C$31,$D33,E$2:E$31)</f>
+        <v>9</v>
+      </c>
+      <c r="F33" s="2">
+        <f>SUMIF($C$2:$C$31,$D33,F$2:F$31)</f>
+        <v>22</v>
+      </c>
+      <c r="G33" s="2">
+        <f>SUMIF($C$2:$C$31,$D33,G$2:G$31)</f>
+        <v>33</v>
+      </c>
+      <c r="H33" s="2">
+        <f>SUMIF($C$2:$C$31,$D33,H$2:H$31)</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="2">
+        <f>SUMIF($C$2:$C$31,$D33,I$2:I$31)</f>
+        <v>0</v>
+      </c>
+      <c r="J33" s="2">
+        <f>SUMIF($C$2:$C$31,$D33,J$2:J$31)</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="2">
+        <f>SUMIF($C$2:$C$31,$D33,K$2:K$31)</f>
+        <v>0</v>
+      </c>
+      <c r="L33" s="2">
+        <f>SUMIF($C$2:$C$31,$D33,L$2:L$31)</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="2">
+        <f>SUMIF($C$2:$C$31,$D33,M$2:M$31)</f>
+        <v>0</v>
+      </c>
+      <c r="N33" s="2">
+        <f>SUMIF($C$2:$C$31,$D33,N$2:N$31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="4:14">
+      <c r="D34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34">
+        <f>SUMIF($C$2:$C$31,$D34,E$2:E$31)</f>
+        <v>5</v>
+      </c>
+      <c r="F34" s="2">
+        <f>SUMIF($C$2:$C$31,$D34,F$2:F$31)</f>
+        <v>22</v>
+      </c>
+      <c r="G34" s="2">
+        <f>SUMIF($C$2:$C$31,$D34,G$2:G$31)</f>
+        <v>36</v>
+      </c>
+      <c r="H34" s="2">
+        <f>SUMIF($C$2:$C$31,$D34,H$2:H$31)</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="2">
+        <f>SUMIF($C$2:$C$31,$D34,I$2:I$31)</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="2">
+        <f>SUMIF($C$2:$C$31,$D34,J$2:J$31)</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="2">
+        <f>SUMIF($C$2:$C$31,$D34,K$2:K$31)</f>
+        <v>0</v>
+      </c>
+      <c r="L34" s="2">
+        <f>SUMIF($C$2:$C$31,$D34,L$2:L$31)</f>
+        <v>0</v>
+      </c>
+      <c r="M34" s="2">
+        <f>SUMIF($C$2:$C$31,$D34,M$2:M$31)</f>
+        <v>0</v>
+      </c>
+      <c r="N34" s="2">
+        <f>SUMIF($C$2:$C$31,$D34,N$2:N$31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="4:14">
+      <c r="D35" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35">
+        <f>SUMIF($C$2:$C$31,$D35,E$2:E$31)</f>
+        <v>6</v>
+      </c>
+      <c r="F35" s="2">
+        <f>SUMIF($C$2:$C$31,$D35,F$2:F$31)</f>
+        <v>16</v>
+      </c>
+      <c r="G35" s="2">
+        <f>SUMIF($C$2:$C$31,$D35,G$2:G$31)</f>
+        <v>27</v>
+      </c>
+      <c r="H35" s="2">
+        <f>SUMIF($C$2:$C$31,$D35,H$2:H$31)</f>
+        <v>0</v>
+      </c>
+      <c r="I35" s="2">
+        <f>SUMIF($C$2:$C$31,$D35,I$2:I$31)</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="2">
+        <f>SUMIF($C$2:$C$31,$D35,J$2:J$31)</f>
+        <v>0</v>
+      </c>
+      <c r="K35" s="2">
+        <f>SUMIF($C$2:$C$31,$D35,K$2:K$31)</f>
+        <v>0</v>
+      </c>
+      <c r="L35" s="2">
+        <f>SUMIF($C$2:$C$31,$D35,L$2:L$31)</f>
+        <v>0</v>
+      </c>
+      <c r="M35" s="2">
+        <f>SUMIF($C$2:$C$31,$D35,M$2:M$31)</f>
+        <v>0</v>
+      </c>
+      <c r="N35" s="2">
+        <f>SUMIF($C$2:$C$31,$D35,N$2:N$31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="4:14">
+      <c r="D36" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36">
+        <f>SUMIF($C$2:$C$31,$D$36,E$2:E$31)</f>
+        <v>5</v>
+      </c>
+      <c r="F36" s="2">
+        <f>SUMIF($C$2:$C$31,$D$36,F$2:F$31)</f>
+        <v>16</v>
+      </c>
+      <c r="G36" s="2">
+        <f>SUMIF($C$2:$C$31,$D$36,G$2:G$31)</f>
+        <v>28</v>
+      </c>
+      <c r="H36" s="2">
+        <f>SUMIF($C$2:$C$31,$D$36,H$2:H$31)</f>
+        <v>0</v>
+      </c>
+      <c r="I36" s="2">
+        <f>SUMIF($C$2:$C$31,$D$36,I$2:I$31)</f>
+        <v>0</v>
+      </c>
+      <c r="J36" s="2">
+        <f>SUMIF($C$2:$C$31,$D$36,J$2:J$31)</f>
+        <v>0</v>
+      </c>
+      <c r="K36" s="2">
+        <f>SUMIF($C$2:$C$31,$D$36,K$2:K$31)</f>
+        <v>0</v>
+      </c>
+      <c r="L36" s="2">
+        <f>SUMIF($C$2:$C$31,$D$36,L$2:L$31)</f>
+        <v>0</v>
+      </c>
+      <c r="M36" s="2">
+        <f>SUMIF($C$2:$C$31,$D$36,M$2:M$31)</f>
+        <v>0</v>
+      </c>
+      <c r="N36" s="2">
+        <f>SUMIF($C$2:$C$31,$D$36,N$2:N$31)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/NFL Wins.xlsx
+++ b/NFL Wins.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20720" windowHeight="16100" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8980" windowHeight="16100" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
@@ -479,7 +479,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="99">
+  <cellStyleXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -578,6 +578,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
@@ -595,7 +599,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="99">
+  <cellStyles count="103">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -647,6 +651,8 @@
     <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -694,6 +700,8 @@
     <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1313,8 +1321,8 @@
   <dimension ref="A1:Y39"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="L1" activePane="topRight" state="frozenSplit"/>
-      <selection pane="topRight" activeCell="N36" sqref="N36"/>
+      <pane xSplit="4" topLeftCell="K1" activePane="topRight" state="frozenSplit"/>
+      <selection pane="topRight" activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1439,7 +1447,7 @@
     <row r="3" spans="1:25">
       <c r="A3" s="2" t="str">
         <f>CONCATENATE("['",$C3,"', ","'",$D3,"' ,",$E3,",",$F3,",",$G3,",",$H3,",",$I3,",",$J3,",",$K3,",",$L3,",",$M3,",",$N3,"],")</f>
-        <v>['Greg', '49ers' ,1,1,1,1,1,1,1,1,1,],</v>
+        <v>['Greg', '49ers' ,1,1,1,1,1,1,1,1,1,1],</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" t="s">
@@ -1473,6 +1481,9 @@
         <v>1</v>
       </c>
       <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
         <v>1</v>
       </c>
     </row>
@@ -1522,7 +1533,7 @@
     <row r="5" spans="1:25">
       <c r="A5" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Bengals' ,1,1,1,2,2,2,3,3,3,],</v>
+        <v>['Tim', 'Bengals' ,1,1,1,2,2,2,3,3,3,3],</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" t="s">
@@ -1558,6 +1569,9 @@
       <c r="M5">
         <v>3</v>
       </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="2" t="str">
@@ -1734,7 +1748,7 @@
     <row r="10" spans="1:25">
       <c r="A10" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Cardinals' ,0,1,1,1,2,3,3,3,3,],</v>
+        <v>['Jeff', 'Cardinals' ,0,1,1,1,2,3,3,3,3,4],</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" t="s">
@@ -1770,11 +1784,14 @@
       <c r="M10">
         <v>3</v>
       </c>
+      <c r="N10">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Chargers' ,0,1,1,1,1,2,3,3,4,],</v>
+        <v>['Jeff', 'Chargers' ,0,1,1,1,1,2,3,3,4,4],</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" t="s">
@@ -1810,6 +1827,9 @@
       <c r="M11">
         <v>4</v>
       </c>
+      <c r="N11">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="2" t="str">
@@ -1900,7 +1920,7 @@
     <row r="14" spans="1:25">
       <c r="A14" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Cowboys' ,0,1,2,3,4,5,5,6,7,],</v>
+        <v>['Greg', 'Cowboys' ,0,1,2,3,4,5,5,6,7,8],</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" t="s">
@@ -1936,11 +1956,14 @@
       <c r="M14">
         <v>7</v>
       </c>
+      <c r="N14">
+        <v>8</v>
+      </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Dolphins' ,0,0,1,1,1,2,3,3,4,],</v>
+        <v>['Tim', 'Dolphins' ,0,0,1,1,1,2,3,3,4,5],</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" t="s">
@@ -1976,6 +1999,9 @@
       <c r="M15">
         <v>4</v>
       </c>
+      <c r="N15">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" s="2" t="str">
@@ -2066,7 +2092,7 @@
     <row r="18" spans="1:14">
       <c r="A18" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Giants' ,1,2,2,2,2,3,4,4,5,],</v>
+        <v>['Jeff', 'Giants' ,1,2,2,2,2,3,4,4,5,6],</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" t="s">
@@ -2102,6 +2128,9 @@
       <c r="M18">
         <v>5</v>
       </c>
+      <c r="N18">
+        <v>6</v>
+      </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="2" t="str">
@@ -2321,7 +2350,7 @@
     <row r="24" spans="1:14">
       <c r="A24" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Patriots' ,1,2,3,3,4,5,6,7,7,],</v>
+        <v>['Greg', 'Patriots' ,1,2,3,3,4,5,6,7,7,7],</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" t="s">
@@ -2357,6 +2386,9 @@
       <c r="M24">
         <v>7</v>
       </c>
+      <c r="N24">
+        <v>7</v>
+      </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="2" t="str">
@@ -2576,7 +2608,7 @@
     <row r="30" spans="1:14">
       <c r="A30" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Seahawks' ,1,1,2,3,3,4,4,4,5,],</v>
+        <v>['Zach', 'Seahawks' ,1,1,2,3,3,4,4,4,5,6],</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" t="s">
@@ -2612,11 +2644,14 @@
       <c r="M30">
         <v>5</v>
       </c>
+      <c r="N30">
+        <v>6</v>
+      </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Steelers' ,1,2,2,3,4,4,4,4,4,],</v>
+        <v>['Tim', 'Steelers' ,1,2,2,3,4,4,4,4,4,4],</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" t="s">
@@ -2650,6 +2685,9 @@
         <v>4</v>
       </c>
       <c r="M31">
+        <v>4</v>
+      </c>
+      <c r="N31">
         <v>4</v>
       </c>
     </row>
@@ -2829,7 +2867,7 @@
       </c>
       <c r="N36" s="2">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -2874,7 +2912,7 @@
       </c>
       <c r="N37" s="2">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2919,7 +2957,7 @@
       </c>
       <c r="N38" s="2">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2964,7 +3002,7 @@
       </c>
       <c r="N39" s="2">
         <f t="shared" si="3"/>
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2987,7 +3025,7 @@
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozenSplit"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2:A31"/>
+      <selection pane="topRight" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3758,43 +3796,43 @@
         <v>32</v>
       </c>
       <c r="E33">
-        <f>SUMIF($C$2:$C$31,$D33,E$2:E$31)</f>
+        <f t="shared" ref="E33:N35" si="2">SUMIF($C$2:$C$31,$D33,E$2:E$31)</f>
         <v>9</v>
       </c>
       <c r="F33" s="2">
-        <f>SUMIF($C$2:$C$31,$D33,F$2:F$31)</f>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="G33" s="2">
-        <f>SUMIF($C$2:$C$31,$D33,G$2:G$31)</f>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="H33" s="2">
-        <f>SUMIF($C$2:$C$31,$D33,H$2:H$31)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I33" s="2">
-        <f>SUMIF($C$2:$C$31,$D33,I$2:I$31)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J33" s="2">
-        <f>SUMIF($C$2:$C$31,$D33,J$2:J$31)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K33" s="2">
-        <f>SUMIF($C$2:$C$31,$D33,K$2:K$31)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L33" s="2">
-        <f>SUMIF($C$2:$C$31,$D33,L$2:L$31)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M33" s="2">
-        <f>SUMIF($C$2:$C$31,$D33,M$2:M$31)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N33" s="2">
-        <f>SUMIF($C$2:$C$31,$D33,N$2:N$31)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3803,43 +3841,43 @@
         <v>33</v>
       </c>
       <c r="E34">
-        <f>SUMIF($C$2:$C$31,$D34,E$2:E$31)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="F34" s="2">
-        <f>SUMIF($C$2:$C$31,$D34,F$2:F$31)</f>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="G34" s="2">
-        <f>SUMIF($C$2:$C$31,$D34,G$2:G$31)</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="H34" s="2">
-        <f>SUMIF($C$2:$C$31,$D34,H$2:H$31)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I34" s="2">
-        <f>SUMIF($C$2:$C$31,$D34,I$2:I$31)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J34" s="2">
-        <f>SUMIF($C$2:$C$31,$D34,J$2:J$31)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K34" s="2">
-        <f>SUMIF($C$2:$C$31,$D34,K$2:K$31)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L34" s="2">
-        <f>SUMIF($C$2:$C$31,$D34,L$2:L$31)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M34" s="2">
-        <f>SUMIF($C$2:$C$31,$D34,M$2:M$31)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N34" s="2">
-        <f>SUMIF($C$2:$C$31,$D34,N$2:N$31)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3848,43 +3886,43 @@
         <v>34</v>
       </c>
       <c r="E35">
-        <f>SUMIF($C$2:$C$31,$D35,E$2:E$31)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="F35" s="2">
-        <f>SUMIF($C$2:$C$31,$D35,F$2:F$31)</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="G35" s="2">
-        <f>SUMIF($C$2:$C$31,$D35,G$2:G$31)</f>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="H35" s="2">
-        <f>SUMIF($C$2:$C$31,$D35,H$2:H$31)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I35" s="2">
-        <f>SUMIF($C$2:$C$31,$D35,I$2:I$31)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J35" s="2">
-        <f>SUMIF($C$2:$C$31,$D35,J$2:J$31)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K35" s="2">
-        <f>SUMIF($C$2:$C$31,$D35,K$2:K$31)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L35" s="2">
-        <f>SUMIF($C$2:$C$31,$D35,L$2:L$31)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M35" s="2">
-        <f>SUMIF($C$2:$C$31,$D35,M$2:M$31)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N35" s="2">
-        <f>SUMIF($C$2:$C$31,$D35,N$2:N$31)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3893,43 +3931,43 @@
         <v>35</v>
       </c>
       <c r="E36">
-        <f>SUMIF($C$2:$C$31,$D$36,E$2:E$31)</f>
+        <f t="shared" ref="E36:N36" si="3">SUMIF($C$2:$C$31,$D$36,E$2:E$31)</f>
         <v>5</v>
       </c>
       <c r="F36" s="2">
-        <f>SUMIF($C$2:$C$31,$D$36,F$2:F$31)</f>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="G36" s="2">
-        <f>SUMIF($C$2:$C$31,$D$36,G$2:G$31)</f>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="H36" s="2">
-        <f>SUMIF($C$2:$C$31,$D$36,H$2:H$31)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I36" s="2">
-        <f>SUMIF($C$2:$C$31,$D$36,I$2:I$31)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J36" s="2">
-        <f>SUMIF($C$2:$C$31,$D$36,J$2:J$31)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K36" s="2">
-        <f>SUMIF($C$2:$C$31,$D$36,K$2:K$31)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L36" s="2">
-        <f>SUMIF($C$2:$C$31,$D$36,L$2:L$31)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M36" s="2">
-        <f>SUMIF($C$2:$C$31,$D$36,M$2:M$31)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N36" s="2">
-        <f>SUMIF($C$2:$C$31,$D$36,N$2:N$31)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>

--- a/NFL Wins.xlsx
+++ b/NFL Wins.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8980" windowHeight="16100" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8980" windowHeight="16100" tabRatio="500" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
@@ -479,7 +479,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="103">
+  <cellStyleXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -578,6 +578,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -599,7 +601,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="103">
+  <cellStyles count="105">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -653,6 +655,7 @@
     <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -702,6 +705,7 @@
     <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1320,9 +1324,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y39"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="K1" activePane="topRight" state="frozenSplit"/>
-      <selection pane="topRight" activeCell="N24" sqref="N24"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="L1" activePane="topRight" state="frozenSplit"/>
+      <selection pane="topRight" activeCell="A3" sqref="A3:A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1446,8 +1450,8 @@
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="2" t="str">
-        <f>CONCATENATE("['",$C3,"', ","'",$D3,"' ,",$E3,",",$F3,",",$G3,",",$H3,",",$I3,",",$J3,",",$K3,",",$L3,",",$M3,",",$N3,"],")</f>
-        <v>['Greg', '49ers' ,1,1,1,1,1,1,1,1,1,1],</v>
+        <f>CONCATENATE("['",$C3,"', ","'",$D3,"' ,",$E3,",",$F3,",",$G3,",",$H3,",",$I3,",",$J3,",",$K3,",",$L3,",",$M3,",",$N3,",",$O3,"],")</f>
+        <v>['Greg', '49ers' ,1,1,1,1,1,1,1,1,1,1,],</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" t="s">
@@ -1489,8 +1493,8 @@
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="2" t="str">
-        <f t="shared" ref="A4:A34" si="1">CONCATENATE("['",$C4,"', ","'",$D4,"' ,",$E4,",",$F4,",",$G4,",",$H4,",",$I4,",",$J4,",",$K4,",",$L4,",",$M4,",",$N4,"],")</f>
-        <v>['Jeff', 'Bears' ,0,0,0,1,1,1,1,2,2,2],</v>
+        <f t="shared" ref="A4:A34" si="1">CONCATENATE("['",$C4,"', ","'",$D4,"' ,",$E4,",",$F4,",",$G4,",",$H4,",",$I4,",",$J4,",",$K4,",",$L4,",",$M4,",",$N4,",",$O4,"],")</f>
+        <v>['Jeff', 'Bears' ,0,0,0,1,1,1,1,2,2,2,],</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" t="s">
@@ -1533,7 +1537,7 @@
     <row r="5" spans="1:25">
       <c r="A5" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Bengals' ,1,1,1,2,2,2,3,3,3,3],</v>
+        <v>['Tim', 'Bengals' ,1,1,1,2,2,2,3,3,3,3,],</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" t="s">
@@ -1576,7 +1580,7 @@
     <row r="6" spans="1:25">
       <c r="A6" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Bills' ,0,0,1,2,3,4,4,4,4,4],</v>
+        <v>['Greg', 'Bills' ,0,0,1,2,3,4,4,4,4,4,],</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" t="s">
@@ -1619,7 +1623,7 @@
     <row r="7" spans="1:25">
       <c r="A7" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Broncos' ,1,2,3,4,4,4,5,6,6,7],</v>
+        <v>['Zach', 'Broncos' ,1,2,3,4,4,4,5,6,6,7,],</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" t="s">
@@ -1662,7 +1666,7 @@
     <row r="8" spans="1:25">
       <c r="A8" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Browns' ,0,0,0,0,0,0,0,0,0,0],</v>
+        <v>['Jeff', 'Browns' ,0,0,0,0,0,0,0,0,0,0,],</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" t="s">
@@ -1705,7 +1709,7 @@
     <row r="9" spans="1:25">
       <c r="A9" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Buccaneers' ,1,1,1,1,2,2,3,3,3,4],</v>
+        <v>['Zach', 'Buccaneers' ,1,1,1,1,2,2,3,3,3,4,],</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" t="s">
@@ -1748,7 +1752,7 @@
     <row r="10" spans="1:25">
       <c r="A10" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Cardinals' ,0,1,1,1,2,3,3,3,3,4],</v>
+        <v>['Jeff', 'Cardinals' ,0,1,1,1,2,3,3,3,3,4,],</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" t="s">
@@ -1791,7 +1795,7 @@
     <row r="11" spans="1:25">
       <c r="A11" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Chargers' ,0,1,1,1,1,2,3,3,4,4],</v>
+        <v>['Jeff', 'Chargers' ,0,1,1,1,1,2,3,3,4,4,],</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" t="s">
@@ -1834,7 +1838,7 @@
     <row r="12" spans="1:25">
       <c r="A12" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Chiefs' ,1,1,2,2,2,3,4,5,6,7],</v>
+        <v>['Zach', 'Chiefs' ,1,1,2,2,2,3,4,5,6,7,],</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" t="s">
@@ -1877,7 +1881,7 @@
     <row r="13" spans="1:25">
       <c r="A13" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Colts' ,0,0,1,1,2,2,3,3,4,4],</v>
+        <v>['Greg', 'Colts' ,0,0,1,1,2,2,3,3,4,4,],</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" t="s">
@@ -1920,7 +1924,7 @@
     <row r="14" spans="1:25">
       <c r="A14" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Cowboys' ,0,1,2,3,4,5,5,6,7,8],</v>
+        <v>['Greg', 'Cowboys' ,0,1,2,3,4,5,5,6,7,8,],</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" t="s">
@@ -1963,7 +1967,7 @@
     <row r="15" spans="1:25">
       <c r="A15" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Dolphins' ,0,0,1,1,1,2,3,3,4,5],</v>
+        <v>['Tim', 'Dolphins' ,0,0,1,1,1,2,3,3,4,5,],</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" t="s">
@@ -2006,7 +2010,7 @@
     <row r="16" spans="1:25">
       <c r="A16" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Eagles' ,1,2,3,3,3,3,4,4,4,5],</v>
+        <v>['Zach', 'Eagles' ,1,2,3,3,3,3,4,4,4,5,],</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" t="s">
@@ -2046,10 +2050,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:15">
       <c r="A17" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Falcons' ,0,1,2,3,4,4,4,5,6,6],</v>
+        <v>['Greg', 'Falcons' ,0,1,2,3,4,4,4,5,6,6,],</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" t="s">
@@ -2089,10 +2093,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:15">
       <c r="A18" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Giants' ,1,2,2,2,2,3,4,4,5,6],</v>
+        <v>['Jeff', 'Giants' ,1,2,2,2,2,3,4,4,5,6,],</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" t="s">
@@ -2132,10 +2136,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:15">
       <c r="A19" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Jaguars' ,0,0,0,1,1,2,2,2,2,2],</v>
+        <v>['Tim', 'Jaguars' ,0,0,0,1,1,2,2,2,2,2,],</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" t="s">
@@ -2175,10 +2179,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:15">
       <c r="A20" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Jets' ,0,1,1,1,1,1,2,3,3,3],</v>
+        <v>['Tim', 'Jets' ,0,1,1,1,1,1,2,3,3,3,],</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" t="s">
@@ -2218,10 +2222,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:15">
       <c r="A21" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Lions' ,1,1,1,1,2,3,4,4,5,5],</v>
+        <v>['Jeff', 'Lions' ,1,1,1,1,2,3,4,4,5,5,],</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" t="s">
@@ -2261,10 +2265,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:15">
       <c r="A22" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Packers' ,1,1,2,2,3,3,4,4,4,4],</v>
+        <v>['Tim', 'Packers' ,1,1,2,2,3,3,4,4,4,4,],</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" t="s">
@@ -2304,10 +2308,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:15">
       <c r="A23" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Panthers' ,0,1,1,1,1,1,1,2,3,3],</v>
+        <v>['Greg', 'Panthers' ,0,1,1,1,1,1,1,2,3,3,4],</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" t="s">
@@ -2346,11 +2350,14 @@
       <c r="N23">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Patriots' ,1,2,3,3,4,5,6,7,7,7],</v>
+        <v>['Greg', 'Patriots' ,1,2,3,3,4,5,6,7,7,7,],</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" t="s">
@@ -2390,10 +2397,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:15">
       <c r="A25" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Raiders' ,1,1,2,3,4,4,5,6,7,7],</v>
+        <v>['Tim', 'Raiders' ,1,1,2,3,4,4,5,6,7,7,],</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" t="s">
@@ -2433,10 +2440,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:15">
       <c r="A26" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Rams' ,0,1,2,3,3,3,3,3,3,4],</v>
+        <v>['Zach', 'Rams' ,0,1,2,3,3,3,3,3,3,4,],</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" t="s">
@@ -2476,10 +2483,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:15">
       <c r="A27" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Ravens' ,1,2,3,3,3,3,3,3,4,5],</v>
+        <v>['Jeff', 'Ravens' ,1,2,3,3,3,3,3,3,4,5,],</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" t="s">
@@ -2519,10 +2526,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:15">
       <c r="A28" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Redskins' ,0,0,1,2,3,4,4,4,4,5],</v>
+        <v>['Greg', 'Redskins' ,0,0,1,2,3,4,4,4,4,5,],</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" t="s">
@@ -2562,10 +2569,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:15">
       <c r="A29" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Saints' ,0,0,0,1,1,2,2,3,4,4],</v>
+        <v>['Zach', 'Saints' ,0,0,0,1,1,2,2,3,4,4,4],</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" t="s">
@@ -2604,11 +2611,14 @@
       <c r="N29">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:14">
+      <c r="O29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Seahawks' ,1,1,2,3,3,4,4,4,5,6],</v>
+        <v>['Zach', 'Seahawks' ,1,1,2,3,3,4,4,4,5,6,],</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" t="s">
@@ -2648,10 +2658,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:15">
       <c r="A31" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Steelers' ,1,2,2,3,4,4,4,4,4,4],</v>
+        <v>['Tim', 'Steelers' ,1,2,2,3,4,4,4,4,4,4,],</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" t="s">
@@ -2691,10 +2701,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:15">
       <c r="A32" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Texans' ,1,2,2,3,3,4,4,5,5,6],</v>
+        <v>['Jeff', 'Texans' ,1,2,2,3,3,4,4,5,5,6,],</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" t="s">
@@ -2734,10 +2744,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:15">
       <c r="A33" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Titans' ,0,1,1,1,2,3,3,4,4,5],</v>
+        <v>['Zach', 'Titans' ,0,1,1,1,2,3,3,4,4,5,],</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" t="s">
@@ -2777,10 +2787,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:15">
       <c r="A34" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Vikings' ,1,2,3,4,5,5,5,5,5,5],</v>
+        <v>['Tim', 'Vikings' ,1,2,3,4,5,5,5,5,5,5,],</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" t="s">
@@ -2820,17 +2830,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:14" s="4" customFormat="1" ht="4" customHeight="1">
+    <row r="35" spans="1:15" s="4" customFormat="1" ht="4" customHeight="1">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:15">
       <c r="D36" t="s">
         <v>32</v>
       </c>
       <c r="E36">
-        <f t="shared" ref="E36:N38" si="2">SUMIF($C$3:$C$34,$D36,E$3:E$34)</f>
+        <f t="shared" ref="E36:O38" si="2">SUMIF($C$3:$C$34,$D36,E$3:E$34)</f>
         <v>4</v>
       </c>
       <c r="F36" s="2">
@@ -2869,8 +2879,12 @@
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="37" spans="1:14">
+      <c r="O36" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="D37" t="s">
         <v>33</v>
       </c>
@@ -2914,8 +2928,12 @@
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-    </row>
-    <row r="38" spans="1:14">
+      <c r="O37" s="2">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="D38" t="s">
         <v>34</v>
       </c>
@@ -2959,13 +2977,17 @@
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-    </row>
-    <row r="39" spans="1:14">
+      <c r="O38" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="D39" t="s">
         <v>35</v>
       </c>
       <c r="E39">
-        <f t="shared" ref="E39:N39" si="3">SUMIF($C$3:$C$34,$D$39,E$3:E$34)</f>
+        <f t="shared" ref="E39:O39" si="3">SUMIF($C$3:$C$34,$D$39,E$3:E$34)</f>
         <v>5</v>
       </c>
       <c r="F39" s="2">
@@ -3003,6 +3025,10 @@
       <c r="N39" s="2">
         <f t="shared" si="3"/>
         <v>42</v>
+      </c>
+      <c r="O39" s="2">
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -3023,9 +3049,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y36"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozenSplit"/>
-      <selection pane="topRight" activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="F1" activePane="topRight" state="frozenSplit"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3134,8 +3160,8 @@
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="2" t="str">
-        <f>CONCATENATE("['",$C2,"', ","'",$D2,"' ,",$E2,",",$F2,",",$G2,"],")</f>
-        <v>['Zach', 'Atlanta' ,1,3,6],</v>
+        <f>CONCATENATE("['",$C2,"', ","'",$D2,"' ,",$E2,",",$F2,",",$G2,",",$H2,"],")</f>
+        <v>['Zach', 'Atlanta' ,1,3,6,9],</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" t="s">
@@ -3153,11 +3179,14 @@
       <c r="G2">
         <v>6</v>
       </c>
+      <c r="H2">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="2" t="str">
-        <f t="shared" ref="A3:A31" si="1">CONCATENATE("['",$C3,"', ","'",$D3,"' ,",$E3,",",$F3,",",$G3,"],")</f>
-        <v>['Jeff', 'Boston' ,1,3,4],</v>
+        <f t="shared" ref="A3:A31" si="1">CONCATENATE("['",$C3,"', ","'",$D3,"' ,",$E3,",",$F3,",",$G3,",",$H3,"],")</f>
+        <v>['Jeff', 'Boston' ,1,3,4,6],</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" t="s">
@@ -3175,11 +3204,14 @@
       <c r="G3">
         <v>4</v>
       </c>
+      <c r="H3">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Brooklyn' ,1,2,3],</v>
+        <v>['Zach', 'Brooklyn' ,1,2,3,4],</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" t="s">
@@ -3197,11 +3229,14 @@
       <c r="G4">
         <v>3</v>
       </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Charlotte' ,2,4,6],</v>
+        <v>['Jeff', 'Charlotte' ,2,4,6,8],</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" t="s">
@@ -3219,11 +3254,14 @@
       <c r="G5">
         <v>6</v>
       </c>
+      <c r="H5">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Chicago' ,1,3,5],</v>
+        <v>['Greg', 'Chicago' ,1,3,5,8],</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" t="s">
@@ -3241,11 +3279,14 @@
       <c r="G6">
         <v>5</v>
       </c>
+      <c r="H6">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Cleveland' ,2,5,7],</v>
+        <v>['Tim', 'Cleveland' ,2,5,7,10],</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" t="s">
@@ -3263,11 +3304,14 @@
       <c r="G7">
         <v>7</v>
       </c>
+      <c r="H7">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Dallas' ,0,0,2],</v>
+        <v>['Tim', 'Dallas' ,0,0,2,2],</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" t="s">
@@ -3285,11 +3329,14 @@
       <c r="G8">
         <v>2</v>
       </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Denver' ,1,2,3],</v>
+        <v>['Tim', 'Denver' ,1,2,3,4],</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" t="s">
@@ -3307,11 +3354,14 @@
       <c r="G9">
         <v>3</v>
       </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Detroit' ,1,3,4],</v>
+        <v>['Greg', 'Detroit' ,1,3,4,6],</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" t="s">
@@ -3329,11 +3379,14 @@
       <c r="G10">
         <v>4</v>
       </c>
+      <c r="H10">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Golden State' ,1,4,7],</v>
+        <v>['Zach', 'Golden State' ,1,4,7,9],</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" t="s">
@@ -3351,11 +3404,14 @@
       <c r="G11">
         <v>7</v>
       </c>
+      <c r="H11">
+        <v>9</v>
+      </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Houston' ,1,3,5],</v>
+        <v>['Jeff', 'Houston' ,1,3,5,7],</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" t="s">
@@ -3373,11 +3429,14 @@
       <c r="G12">
         <v>5</v>
       </c>
+      <c r="H12">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Indiana' ,1,2,4],</v>
+        <v>['Tim', 'Indiana' ,1,2,4,6],</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" t="s">
@@ -3395,11 +3454,14 @@
       <c r="G13">
         <v>4</v>
       </c>
+      <c r="H13">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'L.A. Lakers' ,1,3,5],</v>
+        <v>['Tim', 'L.A. Lakers' ,1,3,5,7],</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" t="s">
@@ -3417,11 +3479,14 @@
       <c r="G14">
         <v>5</v>
       </c>
+      <c r="H14">
+        <v>7</v>
+      </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'LA Clippers' ,1,4,8],</v>
+        <v>['Greg', 'LA Clippers' ,1,4,8,11],</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" t="s">
@@ -3439,11 +3504,14 @@
       <c r="G15">
         <v>8</v>
       </c>
+      <c r="H15">
+        <v>11</v>
+      </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Memphis' ,1,3,4],</v>
+        <v>['Tim', 'Memphis' ,1,3,4,7],</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" t="s">
@@ -3461,11 +3529,14 @@
       <c r="G16">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Miami' ,1,2,2],</v>
+        <v>['Zach', 'Miami' ,1,2,2,3],</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" t="s">
@@ -3483,11 +3554,14 @@
       <c r="G17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Milwaukee' ,0,3,4],</v>
+        <v>['Greg', 'Milwaukee' ,0,3,4,5],</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" t="s">
@@ -3505,11 +3579,14 @@
       <c r="G18">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Minnesota' ,0,1,2],</v>
+        <v>['Jeff', 'Minnesota' ,0,1,2,4],</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" t="s">
@@ -3527,11 +3604,14 @@
       <c r="G19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'New Orleans' ,0,0,1],</v>
+        <v>['Zach', 'New Orleans' ,0,0,1,2],</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" t="s">
@@ -3549,11 +3629,14 @@
       <c r="G20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'New York' ,0,2,3],</v>
+        <v>['Zach', 'New York' ,0,2,3,5],</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" t="s">
@@ -3571,11 +3654,14 @@
       <c r="G21">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Oklahoma City' ,2,4,6],</v>
+        <v>['Jeff', 'Oklahoma City' ,2,4,6,7],</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" t="s">
@@ -3593,11 +3679,14 @@
       <c r="G22">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Orlando' ,0,2,3],</v>
+        <v>['Greg', 'Orlando' ,0,2,3,5],</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" t="s">
@@ -3615,11 +3704,14 @@
       <c r="G23">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['', 'Philadelphia' ,0,0,1],</v>
+        <v>['', 'Philadelphia' ,0,0,1,2],</v>
       </c>
       <c r="B24" s="3"/>
       <c r="D24" t="s">
@@ -3634,11 +3726,14 @@
       <c r="G24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['', 'Phoenix' ,0,2,3],</v>
+        <v>['', 'Phoenix' ,0,2,3,3],</v>
       </c>
       <c r="B25" s="3"/>
       <c r="D25" t="s">
@@ -3653,11 +3748,14 @@
       <c r="G25">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Portland' ,1,3,6],</v>
+        <v>['Greg', 'Portland' ,1,3,6,7],</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" t="s">
@@ -3675,11 +3773,14 @@
       <c r="G26">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Sacramento' ,1,2,4],</v>
+        <v>['Jeff', 'Sacramento' ,1,2,4,4],</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" t="s">
@@ -3697,11 +3798,14 @@
       <c r="G27">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'San Antonio' ,2,5,6],</v>
+        <v>['Jeff', 'San Antonio' ,2,5,6,10],</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" t="s">
@@ -3719,11 +3823,14 @@
       <c r="G28">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Toronto' ,1,4,6],</v>
+        <v>['Greg', 'Toronto' ,1,4,6,8],</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" t="s">
@@ -3741,11 +3848,14 @@
       <c r="G29">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Utah' ,1,3,6],</v>
+        <v>['Zach', 'Utah' ,1,3,6,7],</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" t="s">
@@ -3763,11 +3873,14 @@
       <c r="G30">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Washington' ,0,1,2],</v>
+        <v>['Tim', 'Washington' ,0,1,2,3],</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" t="s">
@@ -3785,8 +3898,11 @@
       <c r="G31">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" s="4" customFormat="1" ht="4" customHeight="1">
+      <c r="H31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="4" customFormat="1" ht="4" customHeight="1">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="F32" s="3"/>
@@ -3809,7 +3925,7 @@
       </c>
       <c r="H33" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="I33" s="2">
         <f t="shared" si="2"/>
@@ -3854,7 +3970,7 @@
       </c>
       <c r="H34" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I34" s="2">
         <f t="shared" si="2"/>
@@ -3899,7 +4015,7 @@
       </c>
       <c r="H35" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="I35" s="2">
         <f t="shared" si="2"/>
@@ -3944,7 +4060,7 @@
       </c>
       <c r="H36" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="I36" s="2">
         <f t="shared" si="3"/>

--- a/NFL Wins.xlsx
+++ b/NFL Wins.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8980" windowHeight="16100" tabRatio="500" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8980" windowHeight="16100" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
@@ -479,7 +479,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="105">
+  <cellStyleXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -578,6 +578,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -601,7 +605,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="105">
+  <cellStyles count="109">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -656,6 +660,8 @@
     <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -706,6 +712,8 @@
     <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1324,9 +1332,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y39"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="L1" activePane="topRight" state="frozenSplit"/>
-      <selection pane="topRight" activeCell="A3" sqref="A3:A34"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="N8" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="topRight" activeCell="L1" sqref="L1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1450,8 +1460,8 @@
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="2" t="str">
-        <f>CONCATENATE("['",$C3,"', ","'",$D3,"' ,",$E3,",",$F3,",",$G3,",",$H3,",",$I3,",",$J3,",",$K3,",",$L3,",",$M3,",",$N3,",",$O3,"],")</f>
-        <v>['Greg', '49ers' ,1,1,1,1,1,1,1,1,1,1,],</v>
+        <f>CONCATENATE("['",$C3,"', ","'",$D3,"' ,",$E3,",",$F3,",",$G3,",",$H3,",",$I3,",",$J3,",",$K3,",",$L3,",",$M3,",",$N3,",",$O3,",",$P3,"],")</f>
+        <v>['Greg', '49ers' ,1,1,1,1,1,1,1,1,1,1,1,],</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" t="s">
@@ -1490,11 +1500,14 @@
       <c r="N3">
         <v>1</v>
       </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="2" t="str">
-        <f t="shared" ref="A4:A34" si="1">CONCATENATE("['",$C4,"', ","'",$D4,"' ,",$E4,",",$F4,",",$G4,",",$H4,",",$I4,",",$J4,",",$K4,",",$L4,",",$M4,",",$N4,",",$O4,"],")</f>
-        <v>['Jeff', 'Bears' ,0,0,0,1,1,1,1,2,2,2,],</v>
+        <f t="shared" ref="A4:A7" si="1">CONCATENATE("['",$C4,"', ","'",$D4,"' ,",$E4,",",$F4,",",$G4,",",$H4,",",$I4,",",$J4,",",$K4,",",$L4,",",$M4,",",$N4,",",$O4,",",$P4,"],")</f>
+        <v>['Jeff', 'Bears' ,0,0,0,1,1,1,1,2,2,2,2,],</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" t="s">
@@ -1533,11 +1546,14 @@
       <c r="N4">
         <v>2</v>
       </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Bengals' ,1,1,1,2,2,2,3,3,3,3,],</v>
+        <v>['Tim', 'Bengals' ,1,1,1,2,2,2,3,3,3,3,3,],</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" t="s">
@@ -1576,11 +1592,14 @@
       <c r="N5">
         <v>3</v>
       </c>
+      <c r="O5">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Bills' ,0,0,1,2,3,4,4,4,4,4,],</v>
+        <v>['Greg', 'Bills' ,0,0,1,2,3,4,4,4,4,4,5,],</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" t="s">
@@ -1619,11 +1638,14 @@
       <c r="N6">
         <v>4</v>
       </c>
+      <c r="O6">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Broncos' ,1,2,3,4,4,4,5,6,6,7,],</v>
+        <v>['Zach', 'Broncos' ,1,2,3,4,4,4,5,6,6,7,7,],</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" t="s">
@@ -1662,11 +1684,14 @@
       <c r="N7">
         <v>7</v>
       </c>
+      <c r="O7">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Jeff', 'Browns' ,0,0,0,0,0,0,0,0,0,0,],</v>
+        <f>CONCATENATE("['",$C8,"', ","'",$D8,"' ,",$E8,",",$F8,",",$G8,",",$H8,",",$I8,",",$J8,",",$K8,",",$L8,",",$M8,",",$N8,",",$O8,",",$P8,",",$Q8,"],")</f>
+        <v>['Jeff', 'Browns' ,0,0,0,0,0,0,0,0,0,0,0,,],</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" t="s">
@@ -1705,11 +1730,14 @@
       <c r="N8">
         <v>0</v>
       </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Zach', 'Buccaneers' ,1,1,1,1,2,2,3,3,3,4,],</v>
+        <f t="shared" ref="A9:A34" si="2">CONCATENATE("['",$C9,"', ","'",$D9,"' ,",$E9,",",$F9,",",$G9,",",$H9,",",$I9,",",$J9,",",$K9,",",$L9,",",$M9,",",$N9,",",$O9,",",$P9,",",$Q9,"],")</f>
+        <v>['Zach', 'Buccaneers' ,1,1,1,1,2,2,3,3,3,4,5,,],</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" t="s">
@@ -1748,11 +1776,14 @@
       <c r="N9">
         <v>4</v>
       </c>
+      <c r="O9">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Jeff', 'Cardinals' ,0,1,1,1,2,3,3,3,3,4,],</v>
+        <f t="shared" si="2"/>
+        <v>['Jeff', 'Cardinals' ,0,1,1,1,2,3,3,3,3,4,4,,],</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" t="s">
@@ -1791,11 +1822,14 @@
       <c r="N10">
         <v>4</v>
       </c>
+      <c r="O10">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Jeff', 'Chargers' ,0,1,1,1,1,2,3,3,4,4,],</v>
+        <f t="shared" si="2"/>
+        <v>['Jeff', 'Chargers' ,0,1,1,1,1,2,3,3,4,4,4,,],</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" t="s">
@@ -1834,11 +1868,14 @@
       <c r="N11">
         <v>4</v>
       </c>
+      <c r="O11">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Zach', 'Chiefs' ,1,1,2,2,2,3,4,5,6,7,],</v>
+        <f t="shared" si="2"/>
+        <v>['Zach', 'Chiefs' ,1,1,2,2,2,3,4,5,6,7,7,,],</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" t="s">
@@ -1877,11 +1914,14 @@
       <c r="N12">
         <v>7</v>
       </c>
+      <c r="O12">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Greg', 'Colts' ,0,0,1,1,2,2,3,3,4,4,],</v>
+        <f t="shared" si="2"/>
+        <v>['Greg', 'Colts' ,0,0,1,1,2,2,3,3,4,4,5,5,],</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" t="s">
@@ -1920,11 +1960,17 @@
       <c r="N13">
         <v>4</v>
       </c>
+      <c r="O13">
+        <v>5</v>
+      </c>
+      <c r="P13">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Greg', 'Cowboys' ,0,1,2,3,4,5,5,6,7,8,],</v>
+        <f t="shared" si="2"/>
+        <v>['Greg', 'Cowboys' ,0,1,2,3,4,5,5,6,7,8,9,10,],</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" t="s">
@@ -1963,11 +2009,17 @@
       <c r="N14">
         <v>8</v>
       </c>
+      <c r="O14">
+        <v>9</v>
+      </c>
+      <c r="P14">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Tim', 'Dolphins' ,0,0,1,1,1,2,3,3,4,5,],</v>
+        <f t="shared" si="2"/>
+        <v>['Tim', 'Dolphins' ,0,0,1,1,1,2,3,3,4,5,6,,],</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" t="s">
@@ -2006,11 +2058,14 @@
       <c r="N15">
         <v>5</v>
       </c>
+      <c r="O15">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Zach', 'Eagles' ,1,2,3,3,3,3,4,4,4,5,],</v>
+        <f t="shared" si="2"/>
+        <v>['Zach', 'Eagles' ,1,2,3,3,3,3,4,4,4,5,5,,],</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" t="s">
@@ -2049,11 +2104,14 @@
       <c r="N16">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="O16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Greg', 'Falcons' ,0,1,2,3,4,4,4,5,6,6,],</v>
+        <f t="shared" si="2"/>
+        <v>['Greg', 'Falcons' ,0,1,2,3,4,4,4,5,6,6,6,,],</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" t="s">
@@ -2092,11 +2150,14 @@
       <c r="N17">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="O17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Jeff', 'Giants' ,1,2,2,2,2,3,4,4,5,6,],</v>
+        <f t="shared" si="2"/>
+        <v>['Jeff', 'Giants' ,1,2,2,2,2,3,4,4,5,6,7,,],</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" t="s">
@@ -2135,11 +2196,14 @@
       <c r="N18">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="O18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Tim', 'Jaguars' ,0,0,0,1,1,2,2,2,2,2,],</v>
+        <f t="shared" si="2"/>
+        <v>['Tim', 'Jaguars' ,0,0,0,1,1,2,2,2,2,2,2,,],</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" t="s">
@@ -2178,11 +2242,14 @@
       <c r="N19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="O19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Tim', 'Jets' ,0,1,1,1,1,1,2,3,3,3,],</v>
+        <f t="shared" si="2"/>
+        <v>['Tim', 'Jets' ,0,1,1,1,1,1,2,3,3,3,3,,],</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" t="s">
@@ -2221,11 +2288,14 @@
       <c r="N20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="O20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Jeff', 'Lions' ,1,1,1,1,2,3,4,4,5,5,],</v>
+        <f t="shared" si="2"/>
+        <v>['Jeff', 'Lions' ,1,1,1,1,2,3,4,4,5,5,6,7,],</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" t="s">
@@ -2264,11 +2334,17 @@
       <c r="N21">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="O21">
+        <v>6</v>
+      </c>
+      <c r="P21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Tim', 'Packers' ,1,1,2,2,3,3,4,4,4,4,],</v>
+        <f t="shared" si="2"/>
+        <v>['Tim', 'Packers' ,1,1,2,2,3,3,4,4,4,4,4,,],</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" t="s">
@@ -2307,11 +2383,14 @@
       <c r="N22">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="O22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Greg', 'Panthers' ,0,1,1,1,1,1,1,2,3,3,4],</v>
+        <f t="shared" si="2"/>
+        <v>['Greg', 'Panthers' ,0,1,1,1,1,1,1,2,3,3,4,,],</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" t="s">
@@ -2354,10 +2433,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:16">
       <c r="A24" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Greg', 'Patriots' ,1,2,3,3,4,5,6,7,7,7,],</v>
+        <f t="shared" si="2"/>
+        <v>['Greg', 'Patriots' ,1,2,3,3,4,5,6,7,7,7,8,,],</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" t="s">
@@ -2396,11 +2475,14 @@
       <c r="N24">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="O24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Tim', 'Raiders' ,1,1,2,3,4,4,5,6,7,7,],</v>
+        <f t="shared" si="2"/>
+        <v>['Tim', 'Raiders' ,1,1,2,3,4,4,5,6,7,7,8,,],</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" t="s">
@@ -2439,11 +2521,14 @@
       <c r="N25">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="1:15">
+      <c r="O25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Zach', 'Rams' ,0,1,2,3,3,3,3,3,3,4,],</v>
+        <f t="shared" si="2"/>
+        <v>['Zach', 'Rams' ,0,1,2,3,3,3,3,3,3,4,4,,],</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" t="s">
@@ -2482,11 +2567,14 @@
       <c r="N26">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:15">
+      <c r="O26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Jeff', 'Ravens' ,1,2,3,3,3,3,3,3,4,5,],</v>
+        <f t="shared" si="2"/>
+        <v>['Jeff', 'Ravens' ,1,2,3,3,3,3,3,3,4,5,5,,],</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" t="s">
@@ -2525,11 +2613,14 @@
       <c r="N27">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:15">
+      <c r="O27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Greg', 'Redskins' ,0,0,1,2,3,4,4,4,4,5,],</v>
+        <f t="shared" si="2"/>
+        <v>['Greg', 'Redskins' ,0,0,1,2,3,4,4,4,4,5,6,6,],</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" t="s">
@@ -2568,11 +2659,17 @@
       <c r="N28">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:15">
+      <c r="O28">
+        <v>6</v>
+      </c>
+      <c r="P28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Zach', 'Saints' ,0,0,0,1,1,2,2,3,4,4,4],</v>
+        <f t="shared" si="2"/>
+        <v>['Zach', 'Saints' ,0,0,0,1,1,2,2,3,4,4,4,,],</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" t="s">
@@ -2615,10 +2712,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:16">
       <c r="A30" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Zach', 'Seahawks' ,1,1,2,3,3,4,4,4,5,6,],</v>
+        <f t="shared" si="2"/>
+        <v>['Zach', 'Seahawks' ,1,1,2,3,3,4,4,4,5,6,7,,],</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" t="s">
@@ -2657,11 +2754,14 @@
       <c r="N30">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="1:15">
+      <c r="O30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Tim', 'Steelers' ,1,2,2,3,4,4,4,4,4,4,],</v>
+        <f t="shared" si="2"/>
+        <v>['Tim', 'Steelers' ,1,2,2,3,4,4,4,4,4,4,5,6,],</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" t="s">
@@ -2700,11 +2800,17 @@
       <c r="N31">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:15">
+      <c r="O31">
+        <v>5</v>
+      </c>
+      <c r="P31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Jeff', 'Texans' ,1,2,2,3,3,4,4,5,5,6,],</v>
+        <f t="shared" si="2"/>
+        <v>['Jeff', 'Texans' ,1,2,2,3,3,4,4,5,5,6,6,,],</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" t="s">
@@ -2743,11 +2849,14 @@
       <c r="N32">
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="1:15">
+      <c r="O32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Zach', 'Titans' ,0,1,1,1,2,3,3,4,4,5,],</v>
+        <f t="shared" si="2"/>
+        <v>['Zach', 'Titans' ,0,1,1,1,2,3,3,4,4,5,5,,],</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" t="s">
@@ -2786,11 +2895,14 @@
       <c r="N33">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:15">
+      <c r="O33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
       <c r="A34" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Tim', 'Vikings' ,1,2,3,4,5,5,5,5,5,5,],</v>
+        <f t="shared" si="2"/>
+        <v>['Tim', 'Vikings' ,1,2,3,4,5,5,5,5,5,5,6,6,],</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" t="s">
@@ -2829,206 +2941,228 @@
       <c r="N34">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" s="4" customFormat="1" ht="4" customHeight="1">
+      <c r="O34">
+        <v>6</v>
+      </c>
+      <c r="P34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" s="4" customFormat="1" ht="4" customHeight="1">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:16">
       <c r="D36" t="s">
         <v>32</v>
       </c>
       <c r="E36">
-        <f t="shared" ref="E36:O38" si="2">SUMIF($C$3:$C$34,$D36,E$3:E$34)</f>
+        <f t="shared" ref="E36:P38" si="3">SUMIF($C$3:$C$34,$D36,E$3:E$34)</f>
         <v>4</v>
       </c>
       <c r="F36" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="G36" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="H36" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="I36" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="J36" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="K36" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="L36" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="M36" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="N36" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="O36" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="P36" s="2">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
       <c r="D37" t="s">
         <v>33</v>
       </c>
       <c r="E37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="F37" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="G37" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="H37" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="I37" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="J37" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="K37" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="L37" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="M37" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="N37" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="O37" s="2">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="P37" s="2">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
       <c r="D38" t="s">
         <v>34</v>
       </c>
       <c r="E38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="G38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="H38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="I38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="J38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="K38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="L38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="M38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="N38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="O38" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="P38" s="2">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
       <c r="D39" t="s">
         <v>35</v>
       </c>
       <c r="E39">
-        <f t="shared" ref="E39:O39" si="3">SUMIF($C$3:$C$34,$D$39,E$3:E$34)</f>
+        <f t="shared" ref="E39:P39" si="4">SUMIF($C$3:$C$34,$D$39,E$3:E$34)</f>
         <v>5</v>
       </c>
       <c r="F39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="G39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="H39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="I39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="J39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="K39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="L39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="M39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="N39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
       <c r="O39" s="2">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>44</v>
+      </c>
+      <c r="P39" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3049,9 +3183,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y36"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <pane xSplit="4" topLeftCell="F1" activePane="topRight" state="frozenSplit"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2:A31"/>
+      <selection pane="topRight" activeCell="A31" sqref="A2:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3160,8 +3294,8 @@
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="2" t="str">
-        <f>CONCATENATE("['",$C2,"', ","'",$D2,"' ,",$E2,",",$F2,",",$G2,",",$H2,"],")</f>
-        <v>['Zach', 'Atlanta' ,1,3,6,9],</v>
+        <f>CONCATENATE("['",$C2,"', ","'",$D2,"' ,",$E2,",",$F2,",",$G2,",",$H2,",",$I2,"],")</f>
+        <v>['Zach', 'Atlanta' ,1,3,6,9,10],</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" t="s">
@@ -3182,11 +3316,14 @@
       <c r="H2">
         <v>9</v>
       </c>
+      <c r="I2">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="2" t="str">
-        <f t="shared" ref="A3:A31" si="1">CONCATENATE("['",$C3,"', ","'",$D3,"' ,",$E3,",",$F3,",",$G3,",",$H3,"],")</f>
-        <v>['Jeff', 'Boston' ,1,3,4,6],</v>
+        <f t="shared" ref="A3:A32" si="1">CONCATENATE("['",$C3,"', ","'",$D3,"' ,",$E3,",",$F3,",",$G3,",",$H3,",",$I3,"],")</f>
+        <v>['Jeff', 'Boston' ,1,3,4,6,9],</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" t="s">
@@ -3207,11 +3344,14 @@
       <c r="H3">
         <v>6</v>
       </c>
+      <c r="I3">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Brooklyn' ,1,2,3,4],</v>
+        <v>['Zach', 'Brooklyn' ,1,2,3,4,4],</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" t="s">
@@ -3232,11 +3372,14 @@
       <c r="H4">
         <v>4</v>
       </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Charlotte' ,2,4,6,8],</v>
+        <v>['Jeff', 'Charlotte' ,2,4,6,8,8],</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" t="s">
@@ -3257,11 +3400,14 @@
       <c r="H5">
         <v>8</v>
       </c>
+      <c r="I5">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Chicago' ,1,3,5,8],</v>
+        <v>['Greg', 'Chicago' ,1,3,5,8,10],</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" t="s">
@@ -3282,11 +3428,14 @@
       <c r="H6">
         <v>8</v>
       </c>
+      <c r="I6">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Cleveland' ,2,5,7,10],</v>
+        <v>['Tim', 'Cleveland' ,2,5,7,10,12],</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" t="s">
@@ -3307,11 +3456,14 @@
       <c r="H7">
         <v>10</v>
       </c>
+      <c r="I7">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Dallas' ,0,0,2,2],</v>
+        <v>['Tim', 'Dallas' ,0,0,2,2,2],</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" t="s">
@@ -3332,11 +3484,14 @@
       <c r="H8">
         <v>2</v>
       </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Denver' ,1,2,3,4],</v>
+        <v>['Tim', 'Denver' ,1,2,3,4,6],</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" t="s">
@@ -3357,11 +3512,14 @@
       <c r="H9">
         <v>4</v>
       </c>
+      <c r="I9">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Detroit' ,1,3,4,6],</v>
+        <v>['Greg', 'Detroit' ,1,3,4,6,8],</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" t="s">
@@ -3382,11 +3540,14 @@
       <c r="H10">
         <v>6</v>
       </c>
+      <c r="I10">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Golden State' ,1,4,7,9],</v>
+        <v>['Zach', 'Golden State' ,1,4,7,9,14],</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" t="s">
@@ -3407,11 +3568,14 @@
       <c r="H11">
         <v>9</v>
       </c>
+      <c r="I11">
+        <v>14</v>
+      </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Houston' ,1,3,5,7],</v>
+        <v>['Jeff', 'Houston' ,1,3,5,7,10],</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" t="s">
@@ -3432,11 +3596,14 @@
       <c r="H12">
         <v>7</v>
       </c>
+      <c r="I12">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Indiana' ,1,2,4,6],</v>
+        <v>['Tim', 'Indiana' ,1,2,4,6,8],</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" t="s">
@@ -3457,11 +3624,14 @@
       <c r="H13">
         <v>6</v>
       </c>
+      <c r="I13">
+        <v>8</v>
+      </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'L.A. Lakers' ,1,3,5,7],</v>
+        <v>['Tim', 'L.A. Lakers' ,1,3,5,7,8],</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" t="s">
@@ -3482,11 +3652,14 @@
       <c r="H14">
         <v>7</v>
       </c>
+      <c r="I14">
+        <v>8</v>
+      </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'LA Clippers' ,1,4,8,11],</v>
+        <v>['Greg', 'LA Clippers' ,1,4,8,11,14],</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" t="s">
@@ -3507,11 +3680,14 @@
       <c r="H15">
         <v>11</v>
       </c>
+      <c r="I15">
+        <v>14</v>
+      </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Memphis' ,1,3,4,7],</v>
+        <v>['Tim', 'Memphis' ,1,3,4,7,10],</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" t="s">
@@ -3532,11 +3708,14 @@
       <c r="H16">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Miami' ,1,2,2,3],</v>
+        <v>['Zach', 'Miami' ,1,2,2,3,5],</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" t="s">
@@ -3557,11 +3736,14 @@
       <c r="H17">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Milwaukee' ,0,3,4,5],</v>
+        <v>['Greg', 'Milwaukee' ,0,3,4,5,6],</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" t="s">
@@ -3582,11 +3764,14 @@
       <c r="H18">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Minnesota' ,0,1,2,4],</v>
+        <v>['Jeff', 'Minnesota' ,0,1,2,4,5],</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" t="s">
@@ -3607,11 +3792,14 @@
       <c r="H19">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'New Orleans' ,0,0,1,2],</v>
+        <v>['Zach', 'New Orleans' ,0,0,1,2,6],</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" t="s">
@@ -3632,11 +3820,14 @@
       <c r="H20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'New York' ,0,2,3,5],</v>
+        <v>['Zach', 'New York' ,0,2,3,5,8],</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" t="s">
@@ -3657,11 +3848,14 @@
       <c r="H21">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Oklahoma City' ,2,4,6,7],</v>
+        <v>['Jeff', 'Oklahoma City' ,2,4,6,7,9],</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" t="s">
@@ -3682,11 +3876,14 @@
       <c r="H22">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Orlando' ,0,2,3,5],</v>
+        <v>['Greg', 'Orlando' ,0,2,3,5,6],</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" t="s">
@@ -3707,11 +3904,14 @@
       <c r="H23">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['', 'Philadelphia' ,0,0,1,2],</v>
+        <v>['', 'Philadelphia' ,0,0,1,2,4],</v>
       </c>
       <c r="B24" s="3"/>
       <c r="D24" t="s">
@@ -3729,11 +3929,14 @@
       <c r="H24">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['', 'Phoenix' ,0,2,3,3],</v>
+        <v>['', 'Phoenix' ,0,2,3,3,5],</v>
       </c>
       <c r="B25" s="3"/>
       <c r="D25" t="s">
@@ -3751,11 +3954,14 @@
       <c r="H25">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Portland' ,1,3,6,7],</v>
+        <v>['Greg', 'Portland' ,1,3,6,7,9],</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" t="s">
@@ -3776,11 +3982,14 @@
       <c r="H26">
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Sacramento' ,1,2,4,4],</v>
+        <v>['Jeff', 'Sacramento' ,1,2,4,4,6],</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" t="s">
@@ -3801,11 +4010,14 @@
       <c r="H27">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'San Antonio' ,2,5,6,10],</v>
+        <v>['Jeff', 'San Antonio' ,2,5,6,10,13],</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" t="s">
@@ -3826,11 +4038,14 @@
       <c r="H28">
         <v>10</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="I28">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Toronto' ,1,4,6,8],</v>
+        <v>['Greg', 'Toronto' ,1,4,6,8,10],</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" t="s">
@@ -3851,11 +4066,14 @@
       <c r="H29">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="I29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Utah' ,1,3,6,7],</v>
+        <v>['Zach', 'Utah' ,1,3,6,7,9],</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" t="s">
@@ -3876,11 +4094,14 @@
       <c r="H30">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Washington' ,0,1,2,3],</v>
+        <v>['Tim', 'Washington' ,0,1,2,3,5],</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" t="s">
@@ -3901,9 +4122,12 @@
       <c r="H31">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" s="4" customFormat="1" ht="4" customHeight="1">
-      <c r="A32" s="3"/>
+      <c r="I31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="4" customFormat="1" ht="4" customHeight="1">
+      <c r="A32" s="2"/>
       <c r="B32" s="3"/>
       <c r="F32" s="3"/>
     </row>
@@ -3929,7 +4153,7 @@
       </c>
       <c r="I33" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J33" s="2">
         <f t="shared" si="2"/>
@@ -3974,7 +4198,7 @@
       </c>
       <c r="I34" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="J34" s="2">
         <f t="shared" si="2"/>
@@ -4019,7 +4243,7 @@
       </c>
       <c r="I35" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="J35" s="2">
         <f t="shared" si="2"/>
@@ -4064,7 +4288,7 @@
       </c>
       <c r="I36" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="J36" s="2">
         <f t="shared" si="3"/>

--- a/NFL Wins.xlsx
+++ b/NFL Wins.xlsx
@@ -479,7 +479,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="109">
+  <cellStyleXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -578,6 +578,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -605,7 +611,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="109">
+  <cellStyles count="115">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -662,6 +668,9 @@
     <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -714,6 +723,9 @@
     <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1333,10 +1345,10 @@
   <dimension ref="A1:Y39"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="N8" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="O6" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P8" sqref="P8"/>
+      <selection pane="bottomRight" activeCell="A34" sqref="A3:A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1461,7 +1473,7 @@
     <row r="3" spans="1:25">
       <c r="A3" s="2" t="str">
         <f>CONCATENATE("['",$C3,"', ","'",$D3,"' ,",$E3,",",$F3,",",$G3,",",$H3,",",$I3,",",$J3,",",$K3,",",$L3,",",$M3,",",$N3,",",$O3,",",$P3,"],")</f>
-        <v>['Greg', '49ers' ,1,1,1,1,1,1,1,1,1,1,1,],</v>
+        <v>['Greg', '49ers' ,1,1,1,1,1,1,1,1,1,1,1,1],</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" t="s">
@@ -1503,11 +1515,14 @@
       <c r="O3">
         <v>1</v>
       </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="2" t="str">
         <f t="shared" ref="A4:A7" si="1">CONCATENATE("['",$C4,"', ","'",$D4,"' ,",$E4,",",$F4,",",$G4,",",$H4,",",$I4,",",$J4,",",$K4,",",$L4,",",$M4,",",$N4,",",$O4,",",$P4,"],")</f>
-        <v>['Jeff', 'Bears' ,0,0,0,1,1,1,1,2,2,2,2,],</v>
+        <v>['Jeff', 'Bears' ,0,0,0,1,1,1,1,2,2,2,2,2],</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" t="s">
@@ -1549,11 +1564,14 @@
       <c r="O4">
         <v>2</v>
       </c>
+      <c r="P4">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Bengals' ,1,1,1,2,2,2,3,3,3,3,3,],</v>
+        <v>['Tim', 'Bengals' ,1,1,1,2,2,2,3,3,3,3,3,3],</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" t="s">
@@ -1595,11 +1613,14 @@
       <c r="O5">
         <v>3</v>
       </c>
+      <c r="P5">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Bills' ,0,0,1,2,3,4,4,4,4,4,5,],</v>
+        <v>['Greg', 'Bills' ,0,0,1,2,3,4,4,4,4,4,5,6],</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" t="s">
@@ -1641,11 +1662,14 @@
       <c r="O6">
         <v>5</v>
       </c>
+      <c r="P6">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Broncos' ,1,2,3,4,4,4,5,6,6,7,7,],</v>
+        <v>['Zach', 'Broncos' ,1,2,3,4,4,4,5,6,6,7,7,7],</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" t="s">
@@ -1687,11 +1711,14 @@
       <c r="O7">
         <v>7</v>
       </c>
+      <c r="P7">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="2" t="str">
         <f>CONCATENATE("['",$C8,"', ","'",$D8,"' ,",$E8,",",$F8,",",$G8,",",$H8,",",$I8,",",$J8,",",$K8,",",$L8,",",$M8,",",$N8,",",$O8,",",$P8,",",$Q8,"],")</f>
-        <v>['Jeff', 'Browns' ,0,0,0,0,0,0,0,0,0,0,0,,],</v>
+        <v>['Jeff', 'Browns' ,0,0,0,0,0,0,0,0,0,0,0,0,],</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" t="s">
@@ -1733,11 +1760,14 @@
       <c r="O8">
         <v>0</v>
       </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="2" t="str">
         <f t="shared" ref="A9:A34" si="2">CONCATENATE("['",$C9,"', ","'",$D9,"' ,",$E9,",",$F9,",",$G9,",",$H9,",",$I9,",",$J9,",",$K9,",",$L9,",",$M9,",",$N9,",",$O9,",",$P9,",",$Q9,"],")</f>
-        <v>['Zach', 'Buccaneers' ,1,1,1,1,2,2,3,3,3,4,5,,],</v>
+        <v>['Zach', 'Buccaneers' ,1,1,1,1,2,2,3,3,3,4,5,6,],</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" t="s">
@@ -1779,11 +1809,14 @@
       <c r="O9">
         <v>5</v>
       </c>
+      <c r="P9">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>['Jeff', 'Cardinals' ,0,1,1,1,2,3,3,3,3,4,4,,],</v>
+        <v>['Jeff', 'Cardinals' ,0,1,1,1,2,3,3,3,3,4,4,4,],</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" t="s">
@@ -1825,11 +1858,14 @@
       <c r="O10">
         <v>4</v>
       </c>
+      <c r="P10">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>['Jeff', 'Chargers' ,0,1,1,1,1,2,3,3,4,4,4,,],</v>
+        <v>['Jeff', 'Chargers' ,0,1,1,1,1,2,3,3,4,4,4,5,],</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" t="s">
@@ -1871,11 +1907,14 @@
       <c r="O11">
         <v>4</v>
       </c>
+      <c r="P11">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>['Zach', 'Chiefs' ,1,1,2,2,2,3,4,5,6,7,7,,],</v>
+        <v>['Zach', 'Chiefs' ,1,1,2,2,2,3,4,5,6,7,7,8,],</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" t="s">
@@ -1917,6 +1956,9 @@
       <c r="O12">
         <v>7</v>
       </c>
+      <c r="P12">
+        <v>8</v>
+      </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="2" t="str">
@@ -2019,7 +2061,7 @@
     <row r="15" spans="1:25">
       <c r="A15" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>['Tim', 'Dolphins' ,0,0,1,1,1,2,3,3,4,5,6,,],</v>
+        <v>['Tim', 'Dolphins' ,0,0,1,1,1,2,3,3,4,5,6,7,],</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" t="s">
@@ -2061,11 +2103,14 @@
       <c r="O15">
         <v>6</v>
       </c>
+      <c r="P15">
+        <v>7</v>
+      </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>['Zach', 'Eagles' ,1,2,3,3,3,3,4,4,4,5,5,,],</v>
+        <v>['Zach', 'Eagles' ,1,2,3,3,3,3,4,4,4,5,5,5,],</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" t="s">
@@ -2107,11 +2152,14 @@
       <c r="O16">
         <v>5</v>
       </c>
+      <c r="P16">
+        <v>5</v>
+      </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>['Greg', 'Falcons' ,0,1,2,3,4,4,4,5,6,6,6,,],</v>
+        <v>['Greg', 'Falcons' ,0,1,2,3,4,4,4,5,6,6,6,7,],</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" t="s">
@@ -2153,11 +2201,14 @@
       <c r="O17">
         <v>6</v>
       </c>
+      <c r="P17">
+        <v>7</v>
+      </c>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>['Jeff', 'Giants' ,1,2,2,2,2,3,4,4,5,6,7,,],</v>
+        <v>['Jeff', 'Giants' ,1,2,2,2,2,3,4,4,5,6,7,8,],</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" t="s">
@@ -2199,11 +2250,14 @@
       <c r="O18">
         <v>7</v>
       </c>
+      <c r="P18">
+        <v>8</v>
+      </c>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>['Tim', 'Jaguars' ,0,0,0,1,1,2,2,2,2,2,2,,],</v>
+        <v>['Tim', 'Jaguars' ,0,0,0,1,1,2,2,2,2,2,2,2,],</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" t="s">
@@ -2245,11 +2299,14 @@
       <c r="O19">
         <v>2</v>
       </c>
+      <c r="P19">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>['Tim', 'Jets' ,0,1,1,1,1,1,2,3,3,3,3,,],</v>
+        <v>['Tim', 'Jets' ,0,1,1,1,1,1,2,3,3,3,3,3,],</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" t="s">
@@ -2291,6 +2348,9 @@
       <c r="O20">
         <v>3</v>
       </c>
+      <c r="P20">
+        <v>3</v>
+      </c>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="2" t="str">
@@ -2344,7 +2404,7 @@
     <row r="22" spans="1:16">
       <c r="A22" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>['Tim', 'Packers' ,1,1,2,2,3,3,4,4,4,4,4,,],</v>
+        <v>['Tim', 'Packers' ,1,1,2,2,3,3,4,4,4,4,4,5,],</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" t="s">
@@ -2386,11 +2446,14 @@
       <c r="O22">
         <v>4</v>
       </c>
+      <c r="P22">
+        <v>5</v>
+      </c>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>['Greg', 'Panthers' ,0,1,1,1,1,1,1,2,3,3,4,,],</v>
+        <v>['Greg', 'Panthers' ,0,1,1,1,1,1,1,2,3,3,4,4,],</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" t="s">
@@ -2432,11 +2495,14 @@
       <c r="O23">
         <v>4</v>
       </c>
+      <c r="P23">
+        <v>4</v>
+      </c>
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>['Greg', 'Patriots' ,1,2,3,3,4,5,6,7,7,7,8,,],</v>
+        <v>['Greg', 'Patriots' ,1,2,3,3,4,5,6,7,7,7,8,9,],</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" t="s">
@@ -2478,11 +2544,14 @@
       <c r="O24">
         <v>8</v>
       </c>
+      <c r="P24">
+        <v>9</v>
+      </c>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>['Tim', 'Raiders' ,1,1,2,3,4,4,5,6,7,7,8,,],</v>
+        <v>['Tim', 'Raiders' ,1,1,2,3,4,4,5,6,7,7,8,9,],</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" t="s">
@@ -2524,11 +2593,14 @@
       <c r="O25">
         <v>8</v>
       </c>
+      <c r="P25">
+        <v>9</v>
+      </c>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>['Zach', 'Rams' ,0,1,2,3,3,3,3,3,3,4,4,,],</v>
+        <v>['Zach', 'Rams' ,0,1,2,3,3,3,3,3,3,4,4,4,],</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" t="s">
@@ -2570,11 +2642,14 @@
       <c r="O26">
         <v>4</v>
       </c>
+      <c r="P26">
+        <v>4</v>
+      </c>
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>['Jeff', 'Ravens' ,1,2,3,3,3,3,3,3,4,5,5,,],</v>
+        <v>['Jeff', 'Ravens' ,1,2,3,3,3,3,3,3,4,5,5,6,],</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" t="s">
@@ -2616,6 +2691,9 @@
       <c r="O27">
         <v>5</v>
       </c>
+      <c r="P27">
+        <v>6</v>
+      </c>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="2" t="str">
@@ -2669,7 +2747,7 @@
     <row r="29" spans="1:16">
       <c r="A29" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>['Zach', 'Saints' ,0,0,0,1,1,2,2,3,4,4,4,,],</v>
+        <v>['Zach', 'Saints' ,0,0,0,1,1,2,2,3,4,4,4,5,],</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" t="s">
@@ -2711,11 +2789,14 @@
       <c r="O29">
         <v>4</v>
       </c>
+      <c r="P29">
+        <v>5</v>
+      </c>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>['Zach', 'Seahawks' ,1,1,2,3,3,4,4,4,5,6,7,,],</v>
+        <v>['Zach', 'Seahawks' ,1,1,2,3,3,4,4,4,5,6,7,7,],</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" t="s">
@@ -2757,6 +2838,9 @@
       <c r="O30">
         <v>7</v>
       </c>
+      <c r="P30">
+        <v>7</v>
+      </c>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="2" t="str">
@@ -2810,7 +2894,7 @@
     <row r="32" spans="1:16">
       <c r="A32" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>['Jeff', 'Texans' ,1,2,2,3,3,4,4,5,5,6,6,,],</v>
+        <v>['Jeff', 'Texans' ,1,2,2,3,3,4,4,5,5,6,6,6,],</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" t="s">
@@ -2852,11 +2936,14 @@
       <c r="O32">
         <v>6</v>
       </c>
+      <c r="P32">
+        <v>6</v>
+      </c>
     </row>
     <row r="33" spans="1:16">
       <c r="A33" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>['Zach', 'Titans' ,0,1,1,1,2,3,3,4,4,5,5,,],</v>
+        <v>['Zach', 'Titans' ,0,1,1,1,2,3,3,4,4,5,5,6,],</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" t="s">
@@ -2897,6 +2984,9 @@
       </c>
       <c r="O33">
         <v>5</v>
+      </c>
+      <c r="P33">
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -3003,7 +3093,7 @@
       </c>
       <c r="P36" s="2">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -3056,7 +3146,7 @@
       </c>
       <c r="P37" s="2">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -3109,7 +3199,7 @@
       </c>
       <c r="P38" s="2">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -3162,7 +3252,7 @@
       </c>
       <c r="P39" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -3322,7 +3412,7 @@
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="2" t="str">
-        <f t="shared" ref="A3:A32" si="1">CONCATENATE("['",$C3,"', ","'",$D3,"' ,",$E3,",",$F3,",",$G3,",",$H3,",",$I3,"],")</f>
+        <f t="shared" ref="A3:A31" si="1">CONCATENATE("['",$C3,"', ","'",$D3,"' ,",$E3,",",$F3,",",$G3,",",$H3,",",$I3,"],")</f>
         <v>['Jeff', 'Boston' ,1,3,4,6,9],</v>
       </c>
       <c r="B3" s="3"/>

--- a/NFL Wins.xlsx
+++ b/NFL Wins.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8980" windowHeight="16100" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8980" windowHeight="16100" tabRatio="500" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
@@ -479,7 +479,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="115">
+  <cellStyleXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -578,6 +578,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -611,7 +613,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="115">
+  <cellStyles count="117">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -671,6 +673,7 @@
     <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -726,6 +729,7 @@
     <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1344,7 +1348,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y39"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="O6" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -3273,9 +3277,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y36"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="F1" activePane="topRight" state="frozenSplit"/>
-      <selection pane="topRight" activeCell="A31" sqref="A2:A31"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="H1" activePane="topRight" state="frozenSplit"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3384,8 +3388,8 @@
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="2" t="str">
-        <f>CONCATENATE("['",$C2,"', ","'",$D2,"' ,",$E2,",",$F2,",",$G2,",",$H2,",",$I2,"],")</f>
-        <v>['Zach', 'Atlanta' ,1,3,6,9,10],</v>
+        <f>CONCATENATE("['",$C2,"', ","'",$D2,"' ,",$E2,",",$F2,",",$G2,",",$H2,",",$I2,",",$J2,"],")</f>
+        <v>['Zach', 'Atlanta' ,1,3,6,9,10,10],</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" t="s">
@@ -3409,11 +3413,14 @@
       <c r="I2">
         <v>10</v>
       </c>
+      <c r="J2">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="2" t="str">
-        <f t="shared" ref="A3:A31" si="1">CONCATENATE("['",$C3,"', ","'",$D3,"' ,",$E3,",",$F3,",",$G3,",",$H3,",",$I3,"],")</f>
-        <v>['Jeff', 'Boston' ,1,3,4,6,9],</v>
+        <f t="shared" ref="A3:A31" si="1">CONCATENATE("['",$C3,"', ","'",$D3,"' ,",$E3,",",$F3,",",$G3,",",$H3,",",$I3,",",$J3,"],")</f>
+        <v>['Jeff', 'Boston' ,1,3,4,6,9,11],</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" t="s">
@@ -3437,11 +3444,14 @@
       <c r="I3">
         <v>9</v>
       </c>
+      <c r="J3">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Brooklyn' ,1,2,3,4,4],</v>
+        <v>['Zach', 'Brooklyn' ,1,2,3,4,4,5],</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" t="s">
@@ -3465,11 +3475,14 @@
       <c r="I4">
         <v>4</v>
       </c>
+      <c r="J4">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Charlotte' ,2,4,6,8,8],</v>
+        <v>['Jeff', 'Charlotte' ,2,4,6,8,8,11],</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" t="s">
@@ -3493,11 +3506,14 @@
       <c r="I5">
         <v>8</v>
       </c>
+      <c r="J5">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Chicago' ,1,3,5,8,10],</v>
+        <v>['Greg', 'Chicago' ,1,3,5,8,10,11],</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" t="s">
@@ -3521,11 +3537,14 @@
       <c r="I6">
         <v>10</v>
       </c>
+      <c r="J6">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Cleveland' ,2,5,7,10,12],</v>
+        <v>['Tim', 'Cleveland' ,2,5,7,10,12,13],</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" t="s">
@@ -3549,11 +3568,14 @@
       <c r="I7">
         <v>12</v>
       </c>
+      <c r="J7">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Dallas' ,0,0,2,2,2],</v>
+        <v>['Tim', 'Dallas' ,0,0,2,2,2,3],</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" t="s">
@@ -3577,11 +3599,14 @@
       <c r="I8">
         <v>2</v>
       </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Denver' ,1,2,3,4,6],</v>
+        <v>['Tim', 'Denver' ,1,2,3,4,6,7],</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" t="s">
@@ -3605,11 +3630,14 @@
       <c r="I9">
         <v>6</v>
       </c>
+      <c r="J9">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Detroit' ,1,3,4,6,8],</v>
+        <v>['Greg', 'Detroit' ,1,3,4,6,8,11],</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" t="s">
@@ -3633,11 +3661,14 @@
       <c r="I10">
         <v>8</v>
       </c>
+      <c r="J10">
+        <v>11</v>
+      </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Golden State' ,1,4,7,9,14],</v>
+        <v>['Zach', 'Golden State' ,1,4,7,9,14,16],</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" t="s">
@@ -3661,11 +3692,14 @@
       <c r="I11">
         <v>14</v>
       </c>
+      <c r="J11">
+        <v>16</v>
+      </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Houston' ,1,3,5,7,10],</v>
+        <v>['Jeff', 'Houston' ,1,3,5,7,10,13],</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" t="s">
@@ -3689,11 +3723,14 @@
       <c r="I12">
         <v>10</v>
       </c>
+      <c r="J12">
+        <v>13</v>
+      </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Indiana' ,1,2,4,6,8],</v>
+        <v>['Tim', 'Indiana' ,1,2,4,6,8,9],</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" t="s">
@@ -3717,11 +3754,14 @@
       <c r="I13">
         <v>8</v>
       </c>
+      <c r="J13">
+        <v>9</v>
+      </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'L.A. Lakers' ,1,3,5,7,8],</v>
+        <v>['Tim', 'L.A. Lakers' ,1,3,5,7,8,10],</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" t="s">
@@ -3745,11 +3785,14 @@
       <c r="I14">
         <v>8</v>
       </c>
+      <c r="J14">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'LA Clippers' ,1,4,8,11,14],</v>
+        <v>['Greg', 'LA Clippers' ,1,4,8,11,14,16],</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" t="s">
@@ -3773,11 +3816,14 @@
       <c r="I15">
         <v>14</v>
       </c>
+      <c r="J15">
+        <v>16</v>
+      </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Memphis' ,1,3,4,7,10],</v>
+        <v>['Tim', 'Memphis' ,1,3,4,7,10,12],</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" t="s">
@@ -3801,11 +3847,14 @@
       <c r="I16">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Miami' ,1,2,2,3,5],</v>
+        <v>['Zach', 'Miami' ,1,2,2,3,5,7],</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" t="s">
@@ -3829,11 +3878,14 @@
       <c r="I17">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Milwaukee' ,0,3,4,5,6],</v>
+        <v>['Greg', 'Milwaukee' ,0,3,4,5,6,9],</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" t="s">
@@ -3857,11 +3909,14 @@
       <c r="I18">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Minnesota' ,0,1,2,4,5],</v>
+        <v>['Jeff', 'Minnesota' ,0,1,2,4,5,5],</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" t="s">
@@ -3885,11 +3940,14 @@
       <c r="I19">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'New Orleans' ,0,0,1,2,6],</v>
+        <v>['Zach', 'New Orleans' ,0,0,1,2,6,7],</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" t="s">
@@ -3913,11 +3971,14 @@
       <c r="I20">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'New York' ,0,2,3,5,8],</v>
+        <v>['Zach', 'New York' ,0,2,3,5,8,10],</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" t="s">
@@ -3941,11 +4002,14 @@
       <c r="I21">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Oklahoma City' ,2,4,6,7,9],</v>
+        <v>['Jeff', 'Oklahoma City' ,2,4,6,7,9,12],</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" t="s">
@@ -3969,11 +4033,14 @@
       <c r="I22">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Orlando' ,0,2,3,5,6],</v>
+        <v>['Greg', 'Orlando' ,0,2,3,5,6,8],</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" t="s">
@@ -3997,11 +4064,14 @@
       <c r="I23">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['', 'Philadelphia' ,0,0,1,2,4],</v>
+        <v>['', 'Philadelphia' ,0,0,1,2,4,4],</v>
       </c>
       <c r="B24" s="3"/>
       <c r="D24" t="s">
@@ -4022,11 +4092,14 @@
       <c r="I24">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['', 'Phoenix' ,0,2,3,3,5],</v>
+        <v>['', 'Phoenix' ,0,2,3,3,5,6],</v>
       </c>
       <c r="B25" s="3"/>
       <c r="D25" t="s">
@@ -4047,11 +4120,14 @@
       <c r="I25">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Portland' ,1,3,6,7,9],</v>
+        <v>['Greg', 'Portland' ,1,3,6,7,9,10],</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" t="s">
@@ -4075,11 +4151,14 @@
       <c r="I26">
         <v>9</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Sacramento' ,1,2,4,4,6],</v>
+        <v>['Jeff', 'Sacramento' ,1,2,4,4,6,7],</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" t="s">
@@ -4103,11 +4182,14 @@
       <c r="I27">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'San Antonio' ,2,5,6,10,13],</v>
+        <v>['Jeff', 'San Antonio' ,2,5,6,10,13,16],</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" t="s">
@@ -4131,11 +4213,14 @@
       <c r="I28">
         <v>13</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="J28">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Toronto' ,1,4,6,8,10],</v>
+        <v>['Greg', 'Toronto' ,1,4,6,8,10,13],</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" t="s">
@@ -4159,11 +4244,14 @@
       <c r="I29">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="J29">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Utah' ,1,3,6,7,9],</v>
+        <v>['Zach', 'Utah' ,1,3,6,7,9,11],</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" t="s">
@@ -4187,11 +4275,14 @@
       <c r="I30">
         <v>9</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="J30">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Washington' ,0,1,2,3,5],</v>
+        <v>['Tim', 'Washington' ,0,1,2,3,5,6],</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" t="s">
@@ -4215,8 +4306,11 @@
       <c r="I31">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" s="4" customFormat="1" ht="4" customHeight="1">
+      <c r="J31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="4" customFormat="1" ht="4" customHeight="1">
       <c r="A32" s="2"/>
       <c r="B32" s="3"/>
       <c r="F32" s="3"/>
@@ -4247,7 +4341,7 @@
       </c>
       <c r="J33" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="K33" s="2">
         <f t="shared" si="2"/>
@@ -4292,7 +4386,7 @@
       </c>
       <c r="J34" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="K34" s="2">
         <f t="shared" si="2"/>
@@ -4337,7 +4431,7 @@
       </c>
       <c r="J35" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K35" s="2">
         <f t="shared" si="2"/>
@@ -4382,7 +4476,7 @@
       </c>
       <c r="J36" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="K36" s="2">
         <f t="shared" si="3"/>

--- a/NFL Wins.xlsx
+++ b/NFL Wins.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8980" windowHeight="16100" tabRatio="500" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8980" windowHeight="16100" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
@@ -479,7 +479,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="117">
+  <cellStyleXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -597,8 +597,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -612,8 +636,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="117">
+  <cellStyles count="141">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -674,6 +701,18 @@
     <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -730,6 +769,18 @@
     <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1348,11 +1399,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y39"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="O6" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="N8" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A34" sqref="A3:A34"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3:A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1476,8 +1527,8 @@
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="2" t="str">
-        <f>CONCATENATE("['",$C3,"', ","'",$D3,"' ,",$E3,",",$F3,",",$G3,",",$H3,",",$I3,",",$J3,",",$K3,",",$L3,",",$M3,",",$N3,",",$O3,",",$P3,"],")</f>
-        <v>['Greg', '49ers' ,1,1,1,1,1,1,1,1,1,1,1,1],</v>
+        <f>CONCATENATE("['",$C3,"', ","'",$D3,"', ",$E3,",",$F3,",",$G3,",",$H3,",",$I3,",",$J3,",",$K3,",",$L3,",",$M3,",",$N3,",",$O3,",",$P3,",",$Q3,"],")</f>
+        <v>['Greg', '49ers', 1,1,1,1,1,1,1,1,1,1,1,1,1],</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" t="s">
@@ -1522,11 +1573,14 @@
       <c r="P3">
         <v>1</v>
       </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="2" t="str">
-        <f t="shared" ref="A4:A7" si="1">CONCATENATE("['",$C4,"', ","'",$D4,"' ,",$E4,",",$F4,",",$G4,",",$H4,",",$I4,",",$J4,",",$K4,",",$L4,",",$M4,",",$N4,",",$O4,",",$P4,"],")</f>
-        <v>['Jeff', 'Bears' ,0,0,0,1,1,1,1,2,2,2,2,2],</v>
+        <f t="shared" ref="A4:A34" si="1">CONCATENATE("['",$C4,"', ","'",$D4,"', ",$E4,",",$F4,",",$G4,",",$H4,",",$I4,",",$J4,",",$K4,",",$L4,",",$M4,",",$N4,",",$O4,",",$P4,",",$Q4,"],")</f>
+        <v>['Jeff', 'Bears', 0,0,0,1,1,1,1,2,2,2,2,2,3],</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" t="s">
@@ -1571,11 +1625,14 @@
       <c r="P4">
         <v>2</v>
       </c>
+      <c r="Q4">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Bengals' ,1,1,1,2,2,2,3,3,3,3,3,3],</v>
+        <v>['Tim', 'Bengals', 1,1,1,2,2,2,3,3,3,3,3,3,4],</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" t="s">
@@ -1620,11 +1677,14 @@
       <c r="P5">
         <v>3</v>
       </c>
+      <c r="Q5">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Bills' ,0,0,1,2,3,4,4,4,4,4,5,6],</v>
+        <v>['Greg', 'Bills', 0,0,1,2,3,4,4,4,4,4,5,6,6],</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" t="s">
@@ -1669,11 +1729,14 @@
       <c r="P6">
         <v>6</v>
       </c>
+      <c r="Q6">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Broncos' ,1,2,3,4,4,4,5,6,6,7,7,7],</v>
+        <v>['Zach', 'Broncos', 1,2,3,4,4,4,5,6,6,7,7,7,8],</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" t="s">
@@ -1718,11 +1781,14 @@
       <c r="P7">
         <v>7</v>
       </c>
+      <c r="Q7">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="2" t="str">
-        <f>CONCATENATE("['",$C8,"', ","'",$D8,"' ,",$E8,",",$F8,",",$G8,",",$H8,",",$I8,",",$J8,",",$K8,",",$L8,",",$M8,",",$N8,",",$O8,",",$P8,",",$Q8,"],")</f>
-        <v>['Jeff', 'Browns' ,0,0,0,0,0,0,0,0,0,0,0,0,],</v>
+        <f t="shared" si="1"/>
+        <v>['Jeff', 'Browns', 0,0,0,0,0,0,0,0,0,0,0,0,0],</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" t="s">
@@ -1767,11 +1833,14 @@
       <c r="P8">
         <v>0</v>
       </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="2" t="str">
-        <f t="shared" ref="A9:A34" si="2">CONCATENATE("['",$C9,"', ","'",$D9,"' ,",$E9,",",$F9,",",$G9,",",$H9,",",$I9,",",$J9,",",$K9,",",$L9,",",$M9,",",$N9,",",$O9,",",$P9,",",$Q9,"],")</f>
-        <v>['Zach', 'Buccaneers' ,1,1,1,1,2,2,3,3,3,4,5,6,],</v>
+        <f t="shared" si="1"/>
+        <v>['Zach', 'Buccaneers', 1,1,1,1,2,2,3,3,3,4,5,6,7],</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" t="s">
@@ -1816,11 +1885,14 @@
       <c r="P9">
         <v>6</v>
       </c>
+      <c r="Q9">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>['Jeff', 'Cardinals' ,0,1,1,1,2,3,3,3,3,4,4,4,],</v>
+        <f t="shared" si="1"/>
+        <v>['Jeff', 'Cardinals', 0,1,1,1,2,3,3,3,3,4,4,4,5],</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" t="s">
@@ -1865,11 +1937,14 @@
       <c r="P10">
         <v>4</v>
       </c>
+      <c r="Q10">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>['Jeff', 'Chargers' ,0,1,1,1,1,2,3,3,4,4,4,5,],</v>
+        <f t="shared" si="1"/>
+        <v>['Jeff', 'Chargers', 0,1,1,1,1,2,3,3,4,4,4,5,5],</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" t="s">
@@ -1914,11 +1989,14 @@
       <c r="P11">
         <v>5</v>
       </c>
+      <c r="Q11">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>['Zach', 'Chiefs' ,1,1,2,2,2,3,4,5,6,7,7,8,],</v>
+        <f t="shared" si="1"/>
+        <v>['Zach', 'Chiefs', 1,1,2,2,2,3,4,5,6,7,7,8,9],</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" t="s">
@@ -1963,11 +2041,14 @@
       <c r="P12">
         <v>8</v>
       </c>
+      <c r="Q12">
+        <v>9</v>
+      </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>['Greg', 'Colts' ,0,0,1,1,2,2,3,3,4,4,5,5,],</v>
+        <f t="shared" si="1"/>
+        <v>['Greg', 'Colts', 0,0,1,1,2,2,3,3,4,4,5,5,6],</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" t="s">
@@ -2012,11 +2093,14 @@
       <c r="P13">
         <v>5</v>
       </c>
+      <c r="Q13">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>['Greg', 'Cowboys' ,0,1,2,3,4,5,5,6,7,8,9,10,],</v>
+        <f t="shared" si="1"/>
+        <v>['Greg', 'Cowboys', 0,1,2,3,4,5,5,6,7,8,9,10,11],</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" t="s">
@@ -2061,11 +2145,14 @@
       <c r="P14">
         <v>10</v>
       </c>
+      <c r="Q14">
+        <v>11</v>
+      </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>['Tim', 'Dolphins' ,0,0,1,1,1,2,3,3,4,5,6,7,],</v>
+        <f t="shared" si="1"/>
+        <v>['Tim', 'Dolphins', 0,0,1,1,1,2,3,3,4,5,6,7,7],</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" t="s">
@@ -2110,11 +2197,14 @@
       <c r="P15">
         <v>7</v>
       </c>
+      <c r="Q15">
+        <v>7</v>
+      </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>['Zach', 'Eagles' ,1,2,3,3,3,3,4,4,4,5,5,5,],</v>
+        <f t="shared" si="1"/>
+        <v>['Zach', 'Eagles', 1,2,3,3,3,3,4,4,4,5,5,5,5],</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" t="s">
@@ -2159,11 +2249,14 @@
       <c r="P16">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:16">
+      <c r="Q16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>['Greg', 'Falcons' ,0,1,2,3,4,4,4,5,6,6,6,7,],</v>
+        <f t="shared" si="1"/>
+        <v>['Greg', 'Falcons', 0,1,2,3,4,4,4,5,6,6,6,7,7],</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" t="s">
@@ -2208,11 +2301,14 @@
       <c r="P17">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:16">
+      <c r="Q17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>['Jeff', 'Giants' ,1,2,2,2,2,3,4,4,5,6,7,8,],</v>
+        <f t="shared" si="1"/>
+        <v>['Jeff', 'Giants', 1,2,2,2,2,3,4,4,5,6,7,8,8],</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" t="s">
@@ -2257,11 +2353,14 @@
       <c r="P18">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:16">
+      <c r="Q18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>['Tim', 'Jaguars' ,0,0,0,1,1,2,2,2,2,2,2,2,],</v>
+        <f t="shared" si="1"/>
+        <v>['Tim', 'Jaguars', 0,0,0,1,1,2,2,2,2,2,2,2,2],</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" t="s">
@@ -2306,11 +2405,14 @@
       <c r="P19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:16">
+      <c r="Q19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>['Tim', 'Jets' ,0,1,1,1,1,1,2,3,3,3,3,3,],</v>
+        <f t="shared" si="1"/>
+        <v>['Tim', 'Jets', 0,1,1,1,1,1,2,3,3,3,3,3,3],</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" t="s">
@@ -2355,11 +2457,14 @@
       <c r="P20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:16">
+      <c r="Q20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>['Jeff', 'Lions' ,1,1,1,1,2,3,4,4,5,5,6,7,],</v>
+        <f t="shared" si="1"/>
+        <v>['Jeff', 'Lions', 1,1,1,1,2,3,4,4,5,5,6,7,8],</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" t="s">
@@ -2404,11 +2509,14 @@
       <c r="P21">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:16">
+      <c r="Q21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>['Tim', 'Packers' ,1,1,2,2,3,3,4,4,4,4,4,5,],</v>
+        <f t="shared" si="1"/>
+        <v>['Tim', 'Packers', 1,1,2,2,3,3,4,4,4,4,4,5,6],</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" t="s">
@@ -2453,11 +2561,14 @@
       <c r="P22">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:16">
+      <c r="Q22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>['Greg', 'Panthers' ,0,1,1,1,1,1,1,2,3,3,4,4,],</v>
+        <f t="shared" si="1"/>
+        <v>['Greg', 'Panthers', 0,1,1,1,1,1,1,2,3,3,4,4,4],</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" t="s">
@@ -2502,11 +2613,14 @@
       <c r="P23">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:16">
+      <c r="Q23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>['Greg', 'Patriots' ,1,2,3,3,4,5,6,7,7,7,8,9,],</v>
+        <f t="shared" si="1"/>
+        <v>['Greg', 'Patriots', 1,2,3,3,4,5,6,7,7,7,8,9,10],</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" t="s">
@@ -2551,11 +2665,14 @@
       <c r="P24">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="1:16">
+      <c r="Q24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>['Tim', 'Raiders' ,1,1,2,3,4,4,5,6,7,7,8,9,],</v>
+        <f t="shared" si="1"/>
+        <v>['Tim', 'Raiders', 1,1,2,3,4,4,5,6,7,7,8,9,10],</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" t="s">
@@ -2600,11 +2717,14 @@
       <c r="P25">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="1:16">
+      <c r="Q25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>['Zach', 'Rams' ,0,1,2,3,3,3,3,3,3,4,4,4,],</v>
+        <f t="shared" si="1"/>
+        <v>['Zach', 'Rams', 0,1,2,3,3,3,3,3,3,4,4,4,4],</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" t="s">
@@ -2649,11 +2769,14 @@
       <c r="P26">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:16">
+      <c r="Q26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>['Jeff', 'Ravens' ,1,2,3,3,3,3,3,3,4,5,5,6,],</v>
+        <f t="shared" si="1"/>
+        <v>['Jeff', 'Ravens', 1,2,3,3,3,3,3,3,4,5,5,6,7],</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" t="s">
@@ -2698,11 +2821,14 @@
       <c r="P27">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="1:16">
+      <c r="Q27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>['Greg', 'Redskins' ,0,0,1,2,3,4,4,4,4,5,6,6,],</v>
+        <f t="shared" si="1"/>
+        <v>['Greg', 'Redskins', 0,0,1,2,3,4,4,4,4,5,6,6,6],</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" t="s">
@@ -2747,11 +2873,14 @@
       <c r="P28">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:16">
+      <c r="Q28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>['Zach', 'Saints' ,0,0,0,1,1,2,2,3,4,4,4,5,],</v>
+        <f t="shared" si="1"/>
+        <v>['Zach', 'Saints', 0,0,0,1,1,2,2,3,4,4,4,5,5],</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" t="s">
@@ -2796,11 +2925,14 @@
       <c r="P29">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:16">
+      <c r="Q29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>['Zach', 'Seahawks' ,1,1,2,3,3,4,4,4,5,6,7,7,],</v>
+        <f t="shared" si="1"/>
+        <v>['Zach', 'Seahawks', 1,1,2,3,3,4,4,4,5,6,7,7,8],</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" t="s">
@@ -2845,11 +2977,14 @@
       <c r="P30">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="1:16">
+      <c r="Q30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>['Tim', 'Steelers' ,1,2,2,3,4,4,4,4,4,4,5,6,],</v>
+        <f t="shared" si="1"/>
+        <v>['Tim', 'Steelers', 1,2,2,3,4,4,4,4,4,4,5,6,7],</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" t="s">
@@ -2894,11 +3029,14 @@
       <c r="P31">
         <v>6</v>
       </c>
-    </row>
-    <row r="32" spans="1:16">
+      <c r="Q31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>['Jeff', 'Texans' ,1,2,2,3,3,4,4,5,5,6,6,6,],</v>
+        <f t="shared" si="1"/>
+        <v>['Jeff', 'Texans', 1,2,2,3,3,4,4,5,5,6,6,6,6],</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" t="s">
@@ -2943,14 +3081,17 @@
       <c r="P32">
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="1:16">
+      <c r="Q32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>['Zach', 'Titans' ,0,1,1,1,2,3,3,4,4,5,5,6,],</v>
+        <f t="shared" si="1"/>
+        <v>['Zach', 'Titans', 0,1,1,1,2,3,3,4,4,5,5,6,6],</v>
       </c>
       <c r="B33" s="3"/>
-      <c r="C33" t="s">
+      <c r="C33" s="9" t="s">
         <v>35</v>
       </c>
       <c r="D33" t="s">
@@ -2992,11 +3133,14 @@
       <c r="P33">
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="1:16">
+      <c r="Q33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>['Tim', 'Vikings' ,1,2,3,4,5,5,5,5,5,5,6,6,],</v>
+        <f t="shared" si="1"/>
+        <v>['Tim', 'Vikings', 1,2,3,4,5,5,5,5,5,5,6,6,6],</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" t="s">
@@ -3041,222 +3185,241 @@
       <c r="P34">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" s="4" customFormat="1" ht="4" customHeight="1">
+      <c r="Q34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" s="4" customFormat="1" ht="4" customHeight="1">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:17">
       <c r="D36" t="s">
         <v>32</v>
       </c>
       <c r="E36">
-        <f t="shared" ref="E36:P38" si="3">SUMIF($C$3:$C$34,$D36,E$3:E$34)</f>
+        <f t="shared" ref="E36:Q38" si="2">SUMIF($C$3:$C$34,$D36,E$3:E$34)</f>
         <v>4</v>
       </c>
       <c r="F36" s="2">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="G36" s="2">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="H36" s="2">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="I36" s="2">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="J36" s="2">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="K36" s="2">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="L36" s="2">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="M36" s="2">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="N36" s="2">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="O36" s="2">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="P36" s="2">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="Q36" s="2">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="D37" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F37" s="2">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="G37" s="2">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="H37" s="2">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="I37" s="2">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="J37" s="2">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="K37" s="2">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="L37" s="2">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="M37" s="2">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="N37" s="2">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="O37" s="2">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="P37" s="2">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="Q37" s="2">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="D38" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="F38" s="2">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="G38" s="2">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="H38" s="2">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="I38" s="2">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="J38" s="2">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="K38" s="2">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="L38" s="2">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="M38" s="2">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="N38" s="2">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="O38" s="2">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="P38" s="2">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="Q38" s="2">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="D39" t="s">
+        <v>35</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ref="E39:Q39" si="3">SUMIF($C$3:$C$34,$D$39,E$3:E$34)</f>
+        <v>5</v>
+      </c>
+      <c r="F39" s="2">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="G36" s="2">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="H36" s="2">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="I36" s="2">
+      <c r="G39" s="2">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="J36" s="2">
+      <c r="H39" s="2">
         <f t="shared" si="3"/>
-        <v>19</v>
-      </c>
-      <c r="K36" s="2">
+        <v>18</v>
+      </c>
+      <c r="I39" s="2">
         <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-      <c r="L36" s="2">
+        <v>20</v>
+      </c>
+      <c r="J39" s="2">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="M36" s="2">
+      <c r="K39" s="2">
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="N36" s="2">
+      <c r="L39" s="2">
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="O36" s="2">
+      <c r="M39" s="2">
         <f t="shared" si="3"/>
-        <v>34</v>
-      </c>
-      <c r="P36" s="2">
+        <v>35</v>
+      </c>
+      <c r="N39" s="2">
         <f t="shared" si="3"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16">
-      <c r="D37" t="s">
-        <v>33</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="F37" s="2">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="G37" s="2">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="H37" s="2">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="I37" s="2">
-        <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-      <c r="J37" s="2">
-        <f t="shared" si="3"/>
-        <v>26</v>
-      </c>
-      <c r="K37" s="2">
-        <f t="shared" si="3"/>
-        <v>28</v>
-      </c>
-      <c r="L37" s="2">
-        <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="M37" s="2">
-        <f t="shared" si="3"/>
-        <v>36</v>
-      </c>
-      <c r="N37" s="2">
-        <f t="shared" si="3"/>
-        <v>38</v>
-      </c>
-      <c r="O37" s="2">
+        <v>42</v>
+      </c>
+      <c r="O39" s="2">
         <f t="shared" si="3"/>
         <v>44</v>
       </c>
-      <c r="P37" s="2">
+      <c r="P39" s="2">
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
-    </row>
-    <row r="38" spans="1:16">
-      <c r="D38" t="s">
-        <v>34</v>
-      </c>
-      <c r="E38">
+      <c r="Q39" s="2">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="F38" s="2">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="G38" s="2">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="H38" s="2">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="I38" s="2">
-        <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
-      <c r="J38" s="2">
-        <f t="shared" si="3"/>
-        <v>23</v>
-      </c>
-      <c r="K38" s="2">
-        <f t="shared" si="3"/>
-        <v>28</v>
-      </c>
-      <c r="L38" s="2">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="M38" s="2">
-        <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="N38" s="2">
-        <f t="shared" si="3"/>
-        <v>33</v>
-      </c>
-      <c r="O38" s="2">
-        <f t="shared" si="3"/>
-        <v>37</v>
-      </c>
-      <c r="P38" s="2">
-        <f t="shared" si="3"/>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16">
-      <c r="D39" t="s">
-        <v>35</v>
-      </c>
-      <c r="E39">
-        <f t="shared" ref="E39:P39" si="4">SUMIF($C$3:$C$34,$D$39,E$3:E$34)</f>
-        <v>5</v>
-      </c>
-      <c r="F39" s="2">
-        <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="G39" s="2">
-        <f t="shared" si="4"/>
-        <v>14</v>
-      </c>
-      <c r="H39" s="2">
-        <f t="shared" si="4"/>
-        <v>18</v>
-      </c>
-      <c r="I39" s="2">
-        <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-      <c r="J39" s="2">
-        <f t="shared" si="4"/>
-        <v>24</v>
-      </c>
-      <c r="K39" s="2">
-        <f t="shared" si="4"/>
-        <v>28</v>
-      </c>
-      <c r="L39" s="2">
-        <f t="shared" si="4"/>
-        <v>32</v>
-      </c>
-      <c r="M39" s="2">
-        <f t="shared" si="4"/>
-        <v>35</v>
-      </c>
-      <c r="N39" s="2">
-        <f t="shared" si="4"/>
-        <v>42</v>
-      </c>
-      <c r="O39" s="2">
-        <f t="shared" si="4"/>
-        <v>44</v>
-      </c>
-      <c r="P39" s="2">
-        <f t="shared" si="4"/>
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -3277,7 +3440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y36"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <pane xSplit="4" topLeftCell="H1" activePane="topRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="A2" sqref="A2:A31"/>
     </sheetView>

--- a/NFL Wins.xlsx
+++ b/NFL Wins.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="8980" windowHeight="16100" tabRatio="500" firstSheet="1" activeTab="1"/>
@@ -479,7 +479,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="141">
+  <cellStyleXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -578,6 +578,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -640,7 +644,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="141">
+  <cellStyles count="145">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -713,6 +717,8 @@
     <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -781,6 +787,8 @@
     <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1400,10 +1408,10 @@
   <dimension ref="A1:Y39"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="N8" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="P10" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:A34"/>
+      <selection pane="bottomRight" activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1576,6 +1584,9 @@
       <c r="Q3">
         <v>1</v>
       </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="2" t="str">
@@ -1628,11 +1639,14 @@
       <c r="Q4">
         <v>3</v>
       </c>
+      <c r="R4">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Tim', 'Bengals', 1,1,1,2,2,2,3,3,3,3,3,3,4],</v>
+        <f>CONCATENATE("['",$C5,"', ","'",$D5,"', ",$E5,",",$F5,",",$G5,",",$H5,",",$I5,",",$J5,",",$K5,",",$L5,",",$M5,",",$N5,",",$O5,",",$P5,",",$Q5,",",$R5,"],")</f>
+        <v>['Tim', 'Bengals', 1,1,1,2,2,2,3,3,3,3,3,3,4,5],</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" t="s">
@@ -1680,11 +1694,14 @@
       <c r="Q5">
         <v>4</v>
       </c>
+      <c r="R5">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Greg', 'Bills', 0,0,1,2,3,4,4,4,4,4,5,6,6],</v>
+        <f t="shared" ref="A6:A34" si="2">CONCATENATE("['",$C6,"', ","'",$D6,"', ",$E6,",",$F6,",",$G6,",",$H6,",",$I6,",",$J6,",",$K6,",",$L6,",",$M6,",",$N6,",",$O6,",",$P6,",",$Q6,",",$R6,"],")</f>
+        <v>['Greg', 'Bills', 0,0,1,2,3,4,4,4,4,4,5,6,6,6],</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" t="s">
@@ -1732,11 +1749,14 @@
       <c r="Q6">
         <v>6</v>
       </c>
+      <c r="R6">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Zach', 'Broncos', 1,2,3,4,4,4,5,6,6,7,7,7,8],</v>
+        <f t="shared" si="2"/>
+        <v>['Zach', 'Broncos', 1,2,3,4,4,4,5,6,6,7,7,7,8,8],</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" t="s">
@@ -1784,11 +1804,14 @@
       <c r="Q7">
         <v>8</v>
       </c>
+      <c r="R7">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Jeff', 'Browns', 0,0,0,0,0,0,0,0,0,0,0,0,0],</v>
+        <f t="shared" si="2"/>
+        <v>['Jeff', 'Browns', 0,0,0,0,0,0,0,0,0,0,0,0,0,0],</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" t="s">
@@ -1836,11 +1859,14 @@
       <c r="Q8">
         <v>0</v>
       </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Zach', 'Buccaneers', 1,1,1,1,2,2,3,3,3,4,5,6,7],</v>
+        <f t="shared" si="2"/>
+        <v>['Zach', 'Buccaneers', 1,1,1,1,2,2,3,3,3,4,5,6,7,8],</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" t="s">
@@ -1888,11 +1914,14 @@
       <c r="Q9">
         <v>7</v>
       </c>
+      <c r="R9">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Jeff', 'Cardinals', 0,1,1,1,2,3,3,3,3,4,4,4,5],</v>
+        <f t="shared" si="2"/>
+        <v>['Jeff', 'Cardinals', 0,1,1,1,2,3,3,3,3,4,4,4,5,5],</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" t="s">
@@ -1940,11 +1969,14 @@
       <c r="Q10">
         <v>5</v>
       </c>
+      <c r="R10">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Jeff', 'Chargers', 0,1,1,1,1,2,3,3,4,4,4,5,5],</v>
+        <f t="shared" si="2"/>
+        <v>['Jeff', 'Chargers', 0,1,1,1,1,2,3,3,4,4,4,5,5,5],</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" t="s">
@@ -1992,11 +2024,14 @@
       <c r="Q11">
         <v>5</v>
       </c>
+      <c r="R11">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Zach', 'Chiefs', 1,1,2,2,2,3,4,5,6,7,7,8,9],</v>
+        <f t="shared" si="2"/>
+        <v>['Zach', 'Chiefs', 1,1,2,2,2,3,4,5,6,7,7,8,9,10],</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" t="s">
@@ -2044,11 +2079,14 @@
       <c r="Q12">
         <v>9</v>
       </c>
+      <c r="R12">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Greg', 'Colts', 0,0,1,1,2,2,3,3,4,4,5,5,6],</v>
+        <f t="shared" si="2"/>
+        <v>['Greg', 'Colts', 0,0,1,1,2,2,3,3,4,4,5,5,6,6],</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" t="s">
@@ -2096,11 +2134,14 @@
       <c r="Q13">
         <v>6</v>
       </c>
+      <c r="R13">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Greg', 'Cowboys', 0,1,2,3,4,5,5,6,7,8,9,10,11],</v>
+        <f t="shared" si="2"/>
+        <v>['Greg', 'Cowboys', 0,1,2,3,4,5,5,6,7,8,9,10,11,11],</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" t="s">
@@ -2148,11 +2189,14 @@
       <c r="Q14">
         <v>11</v>
       </c>
+      <c r="R14">
+        <v>11</v>
+      </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Tim', 'Dolphins', 0,0,1,1,1,2,3,3,4,5,6,7,7],</v>
+        <f t="shared" si="2"/>
+        <v>['Tim', 'Dolphins', 0,0,1,1,1,2,3,3,4,5,6,7,7,8],</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" t="s">
@@ -2200,11 +2244,14 @@
       <c r="Q15">
         <v>7</v>
       </c>
+      <c r="R15">
+        <v>8</v>
+      </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Zach', 'Eagles', 1,2,3,3,3,3,4,4,4,5,5,5,5],</v>
+        <f t="shared" si="2"/>
+        <v>['Zach', 'Eagles', 1,2,3,3,3,3,4,4,4,5,5,5,5,5],</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" t="s">
@@ -2252,11 +2299,14 @@
       <c r="Q16">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Greg', 'Falcons', 0,1,2,3,4,4,4,5,6,6,6,7,7],</v>
+        <f t="shared" si="2"/>
+        <v>['Greg', 'Falcons', 0,1,2,3,4,4,4,5,6,6,6,7,7,8],</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" t="s">
@@ -2304,11 +2354,14 @@
       <c r="Q17">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Jeff', 'Giants', 1,2,2,2,2,3,4,4,5,6,7,8,8],</v>
+        <f t="shared" si="2"/>
+        <v>['Jeff', 'Giants', 1,2,2,2,2,3,4,4,5,6,7,8,8,9],</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" t="s">
@@ -2356,11 +2409,14 @@
       <c r="Q18">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Tim', 'Jaguars', 0,0,0,1,1,2,2,2,2,2,2,2,2],</v>
+        <f t="shared" si="2"/>
+        <v>['Tim', 'Jaguars', 0,0,0,1,1,2,2,2,2,2,2,2,2,2],</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" t="s">
@@ -2408,11 +2464,14 @@
       <c r="Q19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Tim', 'Jets', 0,1,1,1,1,1,2,3,3,3,3,3,3],</v>
+        <f t="shared" si="2"/>
+        <v>['Tim', 'Jets', 0,1,1,1,1,1,2,3,3,3,3,3,3,4],</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" t="s">
@@ -2460,11 +2519,14 @@
       <c r="Q20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Jeff', 'Lions', 1,1,1,1,2,3,4,4,5,5,6,7,8],</v>
+        <f t="shared" si="2"/>
+        <v>['Jeff', 'Lions', 1,1,1,1,2,3,4,4,5,5,6,7,8,9],</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" t="s">
@@ -2512,11 +2574,14 @@
       <c r="Q21">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Tim', 'Packers', 1,1,2,2,3,3,4,4,4,4,4,5,6],</v>
+        <f t="shared" si="2"/>
+        <v>['Tim', 'Packers', 1,1,2,2,3,3,4,4,4,4,4,5,6,7],</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" t="s">
@@ -2564,11 +2629,14 @@
       <c r="Q22">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Greg', 'Panthers', 0,1,1,1,1,1,1,2,3,3,4,4,4],</v>
+        <f t="shared" si="2"/>
+        <v>['Greg', 'Panthers', 0,1,1,1,1,1,1,2,3,3,4,4,4,5],</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" t="s">
@@ -2616,11 +2684,14 @@
       <c r="Q23">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Greg', 'Patriots', 1,2,3,3,4,5,6,7,7,7,8,9,10],</v>
+        <f t="shared" si="2"/>
+        <v>['Greg', 'Patriots', 1,2,3,3,4,5,6,7,7,7,8,9,10,11],</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" t="s">
@@ -2668,11 +2739,14 @@
       <c r="Q24">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Tim', 'Raiders', 1,1,2,3,4,4,5,6,7,7,8,9,10],</v>
+        <f t="shared" si="2"/>
+        <v>['Tim', 'Raiders', 1,1,2,3,4,4,5,6,7,7,8,9,10,10],</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" t="s">
@@ -2720,11 +2794,14 @@
       <c r="Q25">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="1:17">
+      <c r="R25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Zach', 'Rams', 0,1,2,3,3,3,3,3,3,4,4,4,4],</v>
+        <f t="shared" si="2"/>
+        <v>['Zach', 'Rams', 0,1,2,3,3,3,3,3,3,4,4,4,4,4],</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" t="s">
@@ -2772,11 +2849,14 @@
       <c r="Q26">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:17">
+      <c r="R26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Jeff', 'Ravens', 1,2,3,3,3,3,3,3,4,5,5,6,7],</v>
+        <f t="shared" si="2"/>
+        <v>['Jeff', 'Ravens', 1,2,3,3,3,3,3,3,4,5,5,6,7,7],</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" t="s">
@@ -2824,11 +2904,14 @@
       <c r="Q27">
         <v>7</v>
       </c>
-    </row>
-    <row r="28" spans="1:17">
+      <c r="R27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Greg', 'Redskins', 0,0,1,2,3,4,4,4,4,5,6,6,6],</v>
+        <f t="shared" si="2"/>
+        <v>['Greg', 'Redskins', 0,0,1,2,3,4,4,4,4,5,6,6,6,7],</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" t="s">
@@ -2876,11 +2959,14 @@
       <c r="Q28">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:17">
+      <c r="R28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Zach', 'Saints', 0,0,0,1,1,2,2,3,4,4,4,5,5],</v>
+        <f t="shared" si="2"/>
+        <v>['Zach', 'Saints', 0,0,0,1,1,2,2,3,4,4,4,5,5,5],</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" t="s">
@@ -2928,11 +3014,14 @@
       <c r="Q29">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:17">
+      <c r="R29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Zach', 'Seahawks', 1,1,2,3,3,4,4,4,5,6,7,7,8],</v>
+        <f t="shared" si="2"/>
+        <v>['Zach', 'Seahawks', 1,1,2,3,3,4,4,4,5,6,7,7,8,8],</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" t="s">
@@ -2980,11 +3069,14 @@
       <c r="Q30">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:17">
+      <c r="R30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Tim', 'Steelers', 1,2,2,3,4,4,4,4,4,4,5,6,7],</v>
+        <f t="shared" si="2"/>
+        <v>['Tim', 'Steelers', 1,2,2,3,4,4,4,4,4,4,5,6,7,8],</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" t="s">
@@ -3032,11 +3124,14 @@
       <c r="Q31">
         <v>7</v>
       </c>
-    </row>
-    <row r="32" spans="1:17">
+      <c r="R31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Jeff', 'Texans', 1,2,2,3,3,4,4,5,5,6,6,6,6],</v>
+        <f t="shared" si="2"/>
+        <v>['Jeff', 'Texans', 1,2,2,3,3,4,4,5,5,6,6,6,6,7],</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" t="s">
@@ -3084,11 +3179,14 @@
       <c r="Q32">
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="1:17">
+      <c r="R32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Zach', 'Titans', 0,1,1,1,2,3,3,4,4,5,5,6,6],</v>
+        <f t="shared" si="2"/>
+        <v>['Zach', 'Titans', 0,1,1,1,2,3,3,4,4,5,5,6,6,7],</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="9" t="s">
@@ -3136,11 +3234,14 @@
       <c r="Q33">
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="1:17">
+      <c r="R33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Tim', 'Vikings', 1,2,3,4,5,5,5,5,5,5,6,6,6],</v>
+        <f t="shared" si="2"/>
+        <v>['Tim', 'Vikings', 1,2,3,4,5,5,5,5,5,5,6,6,6,7],</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" t="s">
@@ -3188,238 +3289,257 @@
       <c r="Q34">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" s="4" customFormat="1" ht="4" customHeight="1">
+      <c r="R34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" s="4" customFormat="1" ht="4" customHeight="1">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:18">
       <c r="D36" t="s">
         <v>32</v>
       </c>
       <c r="E36">
-        <f t="shared" ref="E36:Q38" si="2">SUMIF($C$3:$C$34,$D36,E$3:E$34)</f>
+        <f t="shared" ref="E36:R38" si="3">SUMIF($C$3:$C$34,$D36,E$3:E$34)</f>
         <v>4</v>
       </c>
       <c r="F36" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="G36" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="H36" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="I36" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="J36" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="K36" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="L36" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="M36" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="N36" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="O36" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="P36" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="Q36" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
-    </row>
-    <row r="37" spans="1:17">
+      <c r="R36" s="2">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
       <c r="D37" t="s">
         <v>33</v>
       </c>
       <c r="E37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="F37" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="G37" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="H37" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="I37" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="J37" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="K37" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="L37" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="M37" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="N37" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="O37" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
       <c r="P37" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>48</v>
       </c>
       <c r="Q37" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>51</v>
       </c>
-    </row>
-    <row r="38" spans="1:17">
+      <c r="R37" s="2">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
       <c r="D38" t="s">
         <v>34</v>
       </c>
       <c r="E38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="G38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="H38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="I38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="J38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="K38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="L38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="M38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="N38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="O38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="P38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
       <c r="Q38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
-    </row>
-    <row r="39" spans="1:17">
+      <c r="R38" s="2">
+        <f t="shared" si="3"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
       <c r="D39" t="s">
         <v>35</v>
       </c>
       <c r="E39">
-        <f t="shared" ref="E39:Q39" si="3">SUMIF($C$3:$C$34,$D$39,E$3:E$34)</f>
+        <f t="shared" ref="E39:R39" si="4">SUMIF($C$3:$C$34,$D$39,E$3:E$34)</f>
         <v>5</v>
       </c>
       <c r="F39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="G39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="H39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="I39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="J39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="K39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="L39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="M39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="N39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
       <c r="O39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
       <c r="P39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
       <c r="Q39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>52</v>
+      </c>
+      <c r="R39" s="2">
+        <f t="shared" si="4"/>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -3441,8 +3561,8 @@
   <dimension ref="A1:Y36"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="H1" activePane="topRight" state="frozenSplit"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2:A31"/>
+      <pane xSplit="4" topLeftCell="I1" activePane="topRight" state="frozenSplit"/>
+      <selection pane="topRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3551,8 +3671,8 @@
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="2" t="str">
-        <f>CONCATENATE("['",$C2,"', ","'",$D2,"' ,",$E2,",",$F2,",",$G2,",",$H2,",",$I2,",",$J2,"],")</f>
-        <v>['Zach', 'Atlanta' ,1,3,6,9,10,10],</v>
+        <f>CONCATENATE("['",$C2,"', ","'",$D2,"' ,",$E2,",",$F2,",",$G2,",",$H2,",",$I2,",",$J2,",",$K2,"],")</f>
+        <v>['Zach', 'Atlanta' ,1,3,6,9,10,10,12],</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" t="s">
@@ -3579,11 +3699,14 @@
       <c r="J2">
         <v>10</v>
       </c>
+      <c r="K2">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="2" t="str">
-        <f t="shared" ref="A3:A31" si="1">CONCATENATE("['",$C3,"', ","'",$D3,"' ,",$E3,",",$F3,",",$G3,",",$H3,",",$I3,",",$J3,"],")</f>
-        <v>['Jeff', 'Boston' ,1,3,4,6,9,11],</v>
+        <f t="shared" ref="A3:A31" si="1">CONCATENATE("['",$C3,"', ","'",$D3,"' ,",$E3,",",$F3,",",$G3,",",$H3,",",$I3,",",$J3,",",$K3,"],")</f>
+        <v>['Jeff', 'Boston' ,1,3,4,6,9,11,13],</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" t="s">
@@ -3610,11 +3733,14 @@
       <c r="J3">
         <v>11</v>
       </c>
+      <c r="K3">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Brooklyn' ,1,2,3,4,4,5],</v>
+        <v>['Zach', 'Brooklyn' ,1,2,3,4,4,5,6],</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" t="s">
@@ -3641,11 +3767,14 @@
       <c r="J4">
         <v>5</v>
       </c>
+      <c r="K4">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Charlotte' ,2,4,6,8,8,11],</v>
+        <v>['Jeff', 'Charlotte' ,2,4,6,8,8,11,14],</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" t="s">
@@ -3672,11 +3801,14 @@
       <c r="J5">
         <v>11</v>
       </c>
+      <c r="K5">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Chicago' ,1,3,5,8,10,11],</v>
+        <v>['Greg', 'Chicago' ,1,3,5,8,10,11,12],</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" t="s">
@@ -3703,11 +3835,14 @@
       <c r="J6">
         <v>11</v>
       </c>
+      <c r="K6">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Cleveland' ,2,5,7,10,12,13],</v>
+        <v>['Tim', 'Cleveland' ,2,5,7,10,12,13,16],</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" t="s">
@@ -3734,11 +3869,14 @@
       <c r="J7">
         <v>13</v>
       </c>
+      <c r="K7">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Dallas' ,0,0,2,2,2,3],</v>
+        <v>['Tim', 'Dallas' ,0,0,2,2,2,3,5],</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" t="s">
@@ -3765,11 +3903,14 @@
       <c r="J8">
         <v>3</v>
       </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Denver' ,1,2,3,4,6,7],</v>
+        <v>['Tim', 'Denver' ,1,2,3,4,6,7,8],</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" t="s">
@@ -3796,11 +3937,14 @@
       <c r="J9">
         <v>7</v>
       </c>
+      <c r="K9">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Detroit' ,1,3,4,6,8,11],</v>
+        <v>['Greg', 'Detroit' ,1,3,4,6,8,11,13],</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" t="s">
@@ -3827,11 +3971,14 @@
       <c r="J10">
         <v>11</v>
       </c>
+      <c r="K10">
+        <v>13</v>
+      </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Golden State' ,1,4,7,9,14,16],</v>
+        <v>['Zach', 'Golden State' ,1,4,7,9,14,16,20],</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" t="s">
@@ -3858,11 +4005,14 @@
       <c r="J11">
         <v>16</v>
       </c>
+      <c r="K11">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Houston' ,1,3,5,7,10,13],</v>
+        <v>['Jeff', 'Houston' ,1,3,5,7,10,13,16],</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" t="s">
@@ -3889,11 +4039,14 @@
       <c r="J12">
         <v>13</v>
       </c>
+      <c r="K12">
+        <v>16</v>
+      </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Indiana' ,1,2,4,6,8,9],</v>
+        <v>['Tim', 'Indiana' ,1,2,4,6,8,9,11],</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" t="s">
@@ -3920,11 +4073,14 @@
       <c r="J13">
         <v>9</v>
       </c>
+      <c r="K13">
+        <v>11</v>
+      </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'L.A. Lakers' ,1,3,5,7,8,10],</v>
+        <v>['Tim', 'L.A. Lakers' ,1,3,5,7,8,10,10],</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" t="s">
@@ -3951,11 +4107,14 @@
       <c r="J14">
         <v>10</v>
       </c>
+      <c r="K14">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'LA Clippers' ,1,4,8,11,14,16],</v>
+        <v>['Greg', 'LA Clippers' ,1,4,8,11,14,16,16],</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" t="s">
@@ -3982,11 +4141,14 @@
       <c r="J15">
         <v>16</v>
       </c>
+      <c r="K15">
+        <v>16</v>
+      </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Memphis' ,1,3,4,7,10,12],</v>
+        <v>['Tim', 'Memphis' ,1,3,4,7,10,12,16],</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" t="s">
@@ -4013,11 +4175,14 @@
       <c r="J16">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Miami' ,1,2,2,3,5,7],</v>
+        <v>['Zach', 'Miami' ,1,2,2,3,5,7,7],</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" t="s">
@@ -4044,11 +4209,14 @@
       <c r="J17">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Milwaukee' ,0,3,4,5,6,9],</v>
+        <v>['Greg', 'Milwaukee' ,0,3,4,5,6,9,11],</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" t="s">
@@ -4075,11 +4243,14 @@
       <c r="J18">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Minnesota' ,0,1,2,4,5,5],</v>
+        <v>['Jeff', 'Minnesota' ,0,1,2,4,5,5,6],</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" t="s">
@@ -4106,11 +4277,14 @@
       <c r="J19">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'New Orleans' ,0,0,1,2,6,7],</v>
+        <v>['Zach', 'New Orleans' ,0,0,1,2,6,7,7],</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" t="s">
@@ -4137,11 +4311,14 @@
       <c r="J20">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'New York' ,0,2,3,5,8,10],</v>
+        <v>['Zach', 'New York' ,0,2,3,5,8,10,13],</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" t="s">
@@ -4168,11 +4345,14 @@
       <c r="J21">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Oklahoma City' ,2,4,6,7,9,12],</v>
+        <v>['Jeff', 'Oklahoma City' ,2,4,6,7,9,12,14],</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" t="s">
@@ -4199,11 +4379,14 @@
       <c r="J22">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Orlando' ,0,2,3,5,6,8],</v>
+        <v>['Greg', 'Orlando' ,0,2,3,5,6,8,10],</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" t="s">
@@ -4230,11 +4413,14 @@
       <c r="J23">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['', 'Philadelphia' ,0,0,1,2,4,4],</v>
+        <v>['', 'Philadelphia' ,0,0,1,2,4,4,5],</v>
       </c>
       <c r="B24" s="3"/>
       <c r="D24" t="s">
@@ -4258,11 +4444,14 @@
       <c r="J24">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['', 'Phoenix' ,0,2,3,3,5,6],</v>
+        <v>['', 'Phoenix' ,0,2,3,3,5,6,7],</v>
       </c>
       <c r="B25" s="3"/>
       <c r="D25" t="s">
@@ -4286,11 +4475,14 @@
       <c r="J25">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="K25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Portland' ,1,3,6,7,9,10],</v>
+        <v>['Greg', 'Portland' ,1,3,6,7,9,10,12],</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" t="s">
@@ -4317,11 +4509,14 @@
       <c r="J26">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Sacramento' ,1,2,4,4,6,7],</v>
+        <v>['Jeff', 'Sacramento' ,1,2,4,4,6,7,8],</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" t="s">
@@ -4348,11 +4543,14 @@
       <c r="J27">
         <v>7</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="K27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'San Antonio' ,2,5,6,10,13,16],</v>
+        <v>['Jeff', 'San Antonio' ,2,5,6,10,13,16,18],</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" t="s">
@@ -4379,11 +4577,14 @@
       <c r="J28">
         <v>16</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="K28">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Toronto' ,1,4,6,8,10,13],</v>
+        <v>['Greg', 'Toronto' ,1,4,6,8,10,13,16],</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" t="s">
@@ -4410,11 +4611,14 @@
       <c r="J29">
         <v>13</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="K29">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Utah' ,1,3,6,7,9,11],</v>
+        <v>['Zach', 'Utah' ,1,3,6,7,9,11,14],</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" t="s">
@@ -4441,11 +4645,14 @@
       <c r="J30">
         <v>11</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="K30">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Washington' ,0,1,2,3,5,6],</v>
+        <v>['Tim', 'Washington' ,0,1,2,3,5,6,8],</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" t="s">
@@ -4472,8 +4679,11 @@
       <c r="J31">
         <v>6</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" s="4" customFormat="1" ht="4" customHeight="1">
+      <c r="K31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="4" customFormat="1" ht="4" customHeight="1">
       <c r="A32" s="2"/>
       <c r="B32" s="3"/>
       <c r="F32" s="3"/>
@@ -4508,7 +4718,7 @@
       </c>
       <c r="K33" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="L33" s="2">
         <f t="shared" si="2"/>
@@ -4553,7 +4763,7 @@
       </c>
       <c r="K34" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="L34" s="2">
         <f t="shared" si="2"/>
@@ -4598,7 +4808,7 @@
       </c>
       <c r="K35" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="L35" s="2">
         <f t="shared" si="2"/>
@@ -4643,7 +4853,7 @@
       </c>
       <c r="K36" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="L36" s="2">
         <f t="shared" si="3"/>

--- a/NFL Wins.xlsx
+++ b/NFL Wins.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8980" windowHeight="16100" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8980" windowHeight="16100" tabRatio="500" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
@@ -479,7 +479,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="145">
+  <cellStyleXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -578,6 +578,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -644,7 +650,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="145">
+  <cellStyles count="151">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -719,6 +725,9 @@
     <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -789,6 +798,9 @@
     <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1407,11 +1419,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y39"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="P10" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="P5" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S28" sqref="S28"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3:A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1535,8 +1547,8 @@
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="2" t="str">
-        <f>CONCATENATE("['",$C3,"', ","'",$D3,"', ",$E3,",",$F3,",",$G3,",",$H3,",",$I3,",",$J3,",",$K3,",",$L3,",",$M3,",",$N3,",",$O3,",",$P3,",",$Q3,"],")</f>
-        <v>['Greg', '49ers', 1,1,1,1,1,1,1,1,1,1,1,1,1],</v>
+        <f>CONCATENATE("['",$C3,"', ","'",$D3,"', ",$E3,",",$F3,",",$G3,",",$H3,",",$I3,",",$J3,",",$K3,",",$L3,",",$M3,",",$N3,",",$O3,",",$P3,",",$Q3,",",$R3,",",$S3,"],")</f>
+        <v>['Greg', '49ers', 1,1,1,1,1,1,1,1,1,1,1,1,1,1,1],</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" t="s">
@@ -1587,11 +1599,14 @@
       <c r="R3">
         <v>1</v>
       </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="2" t="str">
-        <f t="shared" ref="A4:A34" si="1">CONCATENATE("['",$C4,"', ","'",$D4,"', ",$E4,",",$F4,",",$G4,",",$H4,",",$I4,",",$J4,",",$K4,",",$L4,",",$M4,",",$N4,",",$O4,",",$P4,",",$Q4,"],")</f>
-        <v>['Jeff', 'Bears', 0,0,0,1,1,1,1,2,2,2,2,2,3],</v>
+        <f t="shared" ref="A4:A34" si="1">CONCATENATE("['",$C4,"', ","'",$D4,"', ",$E4,",",$F4,",",$G4,",",$H4,",",$I4,",",$J4,",",$K4,",",$L4,",",$M4,",",$N4,",",$O4,",",$P4,",",$Q4,",",$R4,",",$S4,"],")</f>
+        <v>['Jeff', 'Bears', 0,0,0,1,1,1,1,2,2,2,2,2,3,3,3],</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" t="s">
@@ -1642,11 +1657,14 @@
       <c r="R4">
         <v>3</v>
       </c>
+      <c r="S4">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="2" t="str">
-        <f>CONCATENATE("['",$C5,"', ","'",$D5,"', ",$E5,",",$F5,",",$G5,",",$H5,",",$I5,",",$J5,",",$K5,",",$L5,",",$M5,",",$N5,",",$O5,",",$P5,",",$Q5,",",$R5,"],")</f>
-        <v>['Tim', 'Bengals', 1,1,1,2,2,2,3,3,3,3,3,3,4,5],</v>
+        <f t="shared" si="1"/>
+        <v>['Tim', 'Bengals', 1,1,1,2,2,2,3,3,3,3,3,3,4,5,5],</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" t="s">
@@ -1697,11 +1715,14 @@
       <c r="R5">
         <v>5</v>
       </c>
+      <c r="S5">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="2" t="str">
-        <f t="shared" ref="A6:A34" si="2">CONCATENATE("['",$C6,"', ","'",$D6,"', ",$E6,",",$F6,",",$G6,",",$H6,",",$I6,",",$J6,",",$K6,",",$L6,",",$M6,",",$N6,",",$O6,",",$P6,",",$Q6,",",$R6,"],")</f>
-        <v>['Greg', 'Bills', 0,0,1,2,3,4,4,4,4,4,5,6,6,6],</v>
+        <f t="shared" si="1"/>
+        <v>['Greg', 'Bills', 0,0,1,2,3,4,4,4,4,4,5,6,6,6,7],</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" t="s">
@@ -1752,11 +1773,14 @@
       <c r="R6">
         <v>6</v>
       </c>
+      <c r="S6">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>['Zach', 'Broncos', 1,2,3,4,4,4,5,6,6,7,7,7,8,8],</v>
+        <f t="shared" si="1"/>
+        <v>['Zach', 'Broncos', 1,2,3,4,4,4,5,6,6,7,7,7,8,8,8],</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" t="s">
@@ -1807,11 +1831,14 @@
       <c r="R7">
         <v>8</v>
       </c>
+      <c r="S7">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>['Jeff', 'Browns', 0,0,0,0,0,0,0,0,0,0,0,0,0,0],</v>
+        <f t="shared" si="1"/>
+        <v>['Jeff', 'Browns', 0,0,0,0,0,0,0,0,0,0,0,0,0,0,0],</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" t="s">
@@ -1862,11 +1889,14 @@
       <c r="R8">
         <v>0</v>
       </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>['Zach', 'Buccaneers', 1,1,1,1,2,2,3,3,3,4,5,6,7,8],</v>
+        <f t="shared" si="1"/>
+        <v>['Zach', 'Buccaneers', 1,1,1,1,2,2,3,3,3,4,5,6,7,8,8],</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" t="s">
@@ -1917,11 +1947,14 @@
       <c r="R9">
         <v>8</v>
       </c>
+      <c r="S9">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>['Jeff', 'Cardinals', 0,1,1,1,2,3,3,3,3,4,4,4,5,5],</v>
+        <f t="shared" si="1"/>
+        <v>['Jeff', 'Cardinals', 0,1,1,1,2,3,3,3,3,4,4,4,5,5,5],</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" t="s">
@@ -1972,11 +2005,14 @@
       <c r="R10">
         <v>5</v>
       </c>
+      <c r="S10" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>['Jeff', 'Chargers', 0,1,1,1,1,2,3,3,4,4,4,5,5,5],</v>
+        <f t="shared" si="1"/>
+        <v>['Jeff', 'Chargers', 0,1,1,1,1,2,3,3,4,4,4,5,5,5,5],</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" t="s">
@@ -2027,11 +2063,14 @@
       <c r="R11">
         <v>5</v>
       </c>
+      <c r="S11">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>['Zach', 'Chiefs', 1,1,2,2,2,3,4,5,6,7,7,8,9,10],</v>
+        <f t="shared" si="1"/>
+        <v>['Zach', 'Chiefs', 1,1,2,2,2,3,4,5,6,7,7,8,9,10,10],</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" t="s">
@@ -2082,11 +2121,14 @@
       <c r="R12">
         <v>10</v>
       </c>
+      <c r="S12">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>['Greg', 'Colts', 0,0,1,1,2,2,3,3,4,4,5,5,6,6],</v>
+        <f t="shared" si="1"/>
+        <v>['Greg', 'Colts', 0,0,1,1,2,2,3,3,4,4,5,5,6,6,7],</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" t="s">
@@ -2137,11 +2179,14 @@
       <c r="R13">
         <v>6</v>
       </c>
+      <c r="S13">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>['Greg', 'Cowboys', 0,1,2,3,4,5,5,6,7,8,9,10,11,11],</v>
+        <f t="shared" si="1"/>
+        <v>['Greg', 'Cowboys', 0,1,2,3,4,5,5,6,7,8,9,10,11,11,12],</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" t="s">
@@ -2192,11 +2237,14 @@
       <c r="R14">
         <v>11</v>
       </c>
+      <c r="S14">
+        <v>12</v>
+      </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>['Tim', 'Dolphins', 0,0,1,1,1,2,3,3,4,5,6,7,7,8],</v>
+        <f t="shared" si="1"/>
+        <v>['Tim', 'Dolphins', 0,0,1,1,1,2,3,3,4,5,6,7,7,8,9],</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" t="s">
@@ -2247,11 +2295,14 @@
       <c r="R15">
         <v>8</v>
       </c>
+      <c r="S15">
+        <v>9</v>
+      </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>['Zach', 'Eagles', 1,2,3,3,3,3,4,4,4,5,5,5,5,5],</v>
+        <f t="shared" si="1"/>
+        <v>['Zach', 'Eagles', 1,2,3,3,3,3,4,4,4,5,5,5,5,5,5],</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" t="s">
@@ -2302,11 +2353,14 @@
       <c r="R16">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:18">
+      <c r="S16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>['Greg', 'Falcons', 0,1,2,3,4,4,4,5,6,6,6,7,7,8],</v>
+        <f t="shared" si="1"/>
+        <v>['Greg', 'Falcons', 0,1,2,3,4,4,4,5,6,6,6,7,7,8,9],</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" t="s">
@@ -2357,11 +2411,14 @@
       <c r="R17">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:18">
+      <c r="S17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>['Jeff', 'Giants', 1,2,2,2,2,3,4,4,5,6,7,8,8,9],</v>
+        <f t="shared" si="1"/>
+        <v>['Jeff', 'Giants', 1,2,2,2,2,3,4,4,5,6,7,8,8,9,10],</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" t="s">
@@ -2412,11 +2469,14 @@
       <c r="R18">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:18">
+      <c r="S18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>['Tim', 'Jaguars', 0,0,0,1,1,2,2,2,2,2,2,2,2,2],</v>
+        <f t="shared" si="1"/>
+        <v>['Tim', 'Jaguars', 0,0,0,1,1,2,2,2,2,2,2,2,2,2,],</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" t="s">
@@ -2468,10 +2528,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:19">
       <c r="A20" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>['Tim', 'Jets', 0,1,1,1,1,1,2,3,3,3,3,3,3,4],</v>
+        <f t="shared" si="1"/>
+        <v>['Tim', 'Jets', 0,1,1,1,1,1,2,3,3,3,3,3,3,4,4],</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" t="s">
@@ -2522,11 +2582,14 @@
       <c r="R20">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:18">
+      <c r="S20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>['Jeff', 'Lions', 1,1,1,1,2,3,4,4,5,5,6,7,8,9],</v>
+        <f t="shared" si="1"/>
+        <v>['Jeff', 'Lions', 1,1,1,1,2,3,4,4,5,5,6,7,8,9,9],</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" t="s">
@@ -2577,11 +2640,14 @@
       <c r="R21">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="1:18">
+      <c r="S21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>['Tim', 'Packers', 1,1,2,2,3,3,4,4,4,4,4,5,6,7],</v>
+        <f t="shared" si="1"/>
+        <v>['Tim', 'Packers', 1,1,2,2,3,3,4,4,4,4,4,5,6,7,8],</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" t="s">
@@ -2632,11 +2698,14 @@
       <c r="R22">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="1:18">
+      <c r="S22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>['Greg', 'Panthers', 0,1,1,1,1,1,1,2,3,3,4,4,4,5],</v>
+        <f t="shared" si="1"/>
+        <v>['Greg', 'Panthers', 0,1,1,1,1,1,1,2,3,3,4,4,4,5,6],</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" t="s">
@@ -2687,11 +2756,14 @@
       <c r="R23">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:18">
+      <c r="S23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>['Greg', 'Patriots', 1,2,3,3,4,5,6,7,7,7,8,9,10,11],</v>
+        <f t="shared" si="1"/>
+        <v>['Greg', 'Patriots', 1,2,3,3,4,5,6,7,7,7,8,9,10,11,12],</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" t="s">
@@ -2742,11 +2814,14 @@
       <c r="R24">
         <v>11</v>
       </c>
-    </row>
-    <row r="25" spans="1:18">
+      <c r="S24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>['Tim', 'Raiders', 1,1,2,3,4,4,5,6,7,7,8,9,10,10],</v>
+        <f t="shared" si="1"/>
+        <v>['Tim', 'Raiders', 1,1,2,3,4,4,5,6,7,7,8,9,10,10,11],</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" t="s">
@@ -2797,11 +2872,14 @@
       <c r="R25">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="1:18">
+      <c r="S25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>['Zach', 'Rams', 0,1,2,3,3,3,3,3,3,4,4,4,4,4],</v>
+        <f t="shared" si="1"/>
+        <v>['Zach', 'Rams', 0,1,2,3,3,3,3,3,3,4,4,4,4,4,4],</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" t="s">
@@ -2852,11 +2930,14 @@
       <c r="R26">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:18">
+      <c r="S26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>['Jeff', 'Ravens', 1,2,3,3,3,3,3,3,4,5,5,6,7,7],</v>
+        <f t="shared" si="1"/>
+        <v>['Jeff', 'Ravens', 1,2,3,3,3,3,3,3,4,5,5,6,7,7,8],</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" t="s">
@@ -2907,11 +2988,14 @@
       <c r="R27">
         <v>7</v>
       </c>
-    </row>
-    <row r="28" spans="1:18">
+      <c r="S27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>['Greg', 'Redskins', 0,0,1,2,3,4,4,4,4,5,6,6,6,7],</v>
+        <f t="shared" si="1"/>
+        <v>['Greg', 'Redskins', 0,0,1,2,3,4,4,4,4,5,6,6,6,7,7],</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" t="s">
@@ -2962,11 +3046,14 @@
       <c r="R28">
         <v>7</v>
       </c>
-    </row>
-    <row r="29" spans="1:18">
+      <c r="S28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>['Zach', 'Saints', 0,0,0,1,1,2,2,3,4,4,4,5,5,5],</v>
+        <f t="shared" si="1"/>
+        <v>['Zach', 'Saints', 0,0,0,1,1,2,2,3,4,4,4,5,5,5,6],</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" t="s">
@@ -3017,11 +3104,14 @@
       <c r="R29">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:18">
+      <c r="S29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>['Zach', 'Seahawks', 1,1,2,3,3,4,4,4,5,6,7,7,8,8],</v>
+        <f t="shared" si="1"/>
+        <v>['Zach', 'Seahawks', 1,1,2,3,3,4,4,4,5,6,7,7,8,8,9],</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" t="s">
@@ -3072,11 +3162,14 @@
       <c r="R30">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:18">
+      <c r="S30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>['Tim', 'Steelers', 1,2,2,3,4,4,4,4,4,4,5,6,7,8],</v>
+        <f t="shared" si="1"/>
+        <v>['Tim', 'Steelers', 1,2,2,3,4,4,4,4,4,4,5,6,7,8,9],</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" t="s">
@@ -3127,11 +3220,14 @@
       <c r="R31">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:18">
+      <c r="S31">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>['Jeff', 'Texans', 1,2,2,3,3,4,4,5,5,6,6,6,6,7],</v>
+        <f t="shared" si="1"/>
+        <v>['Jeff', 'Texans', 1,2,2,3,3,4,4,5,5,6,6,6,6,7,8],</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" t="s">
@@ -3182,11 +3278,14 @@
       <c r="R32">
         <v>7</v>
       </c>
-    </row>
-    <row r="33" spans="1:18">
+      <c r="S32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
       <c r="A33" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>['Zach', 'Titans', 0,1,1,1,2,3,3,4,4,5,5,6,6,7],</v>
+        <f t="shared" si="1"/>
+        <v>['Zach', 'Titans', 0,1,1,1,2,3,3,4,4,5,5,6,6,7,8],</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="9" t="s">
@@ -3237,11 +3336,14 @@
       <c r="R33">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:18">
+      <c r="S33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
       <c r="A34" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>['Tim', 'Vikings', 1,2,3,4,5,5,5,5,5,5,6,6,6,7],</v>
+        <f t="shared" si="1"/>
+        <v>['Tim', 'Vikings', 1,2,3,4,5,5,5,5,5,5,6,6,6,7,7],</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" t="s">
@@ -3292,254 +3394,273 @@
       <c r="R34">
         <v>7</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" s="4" customFormat="1" ht="4" customHeight="1">
+      <c r="S34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" s="4" customFormat="1" ht="4" customHeight="1">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:19">
       <c r="D36" t="s">
         <v>32</v>
       </c>
       <c r="E36">
-        <f t="shared" ref="E36:R38" si="3">SUMIF($C$3:$C$34,$D36,E$3:E$34)</f>
+        <f t="shared" ref="E36:S38" si="2">SUMIF($C$3:$C$34,$D36,E$3:E$34)</f>
         <v>4</v>
       </c>
       <c r="F36" s="2">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="G36" s="2">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="H36" s="2">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="I36" s="2">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="J36" s="2">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="K36" s="2">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="L36" s="2">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="M36" s="2">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="N36" s="2">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="O36" s="2">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="P36" s="2">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="Q36" s="2">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="R36" s="2">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="S36" s="2">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
+      <c r="D37" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F37" s="2">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="G37" s="2">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="H37" s="2">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="I37" s="2">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="J37" s="2">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="K37" s="2">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="L37" s="2">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="M37" s="2">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="N37" s="2">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="O37" s="2">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="P37" s="2">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="Q37" s="2">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="R37" s="2">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="S37" s="2">
+        <f t="shared" si="2"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
+      <c r="D38" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="F38" s="2">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="G38" s="2">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="H38" s="2">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="I38" s="2">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="J38" s="2">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="K38" s="2">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="L38" s="2">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="M38" s="2">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="N38" s="2">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="O38" s="2">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="P38" s="2">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="Q38" s="2">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="R38" s="2">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="S38" s="2">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
+      <c r="D39" t="s">
+        <v>35</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ref="E39:S39" si="3">SUMIF($C$3:$C$34,$D$39,E$3:E$34)</f>
+        <v>5</v>
+      </c>
+      <c r="F39" s="2">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="G36" s="2">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="H36" s="2">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="I36" s="2">
+      <c r="G39" s="2">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="J36" s="2">
+      <c r="H39" s="2">
         <f t="shared" si="3"/>
-        <v>19</v>
-      </c>
-      <c r="K36" s="2">
+        <v>18</v>
+      </c>
+      <c r="I39" s="2">
         <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-      <c r="L36" s="2">
+        <v>20</v>
+      </c>
+      <c r="J39" s="2">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="M36" s="2">
+      <c r="K39" s="2">
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="N36" s="2">
+      <c r="L39" s="2">
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="O36" s="2">
+      <c r="M39" s="2">
         <f t="shared" si="3"/>
-        <v>34</v>
-      </c>
-      <c r="P36" s="2">
-        <f t="shared" si="3"/>
-        <v>38</v>
-      </c>
-      <c r="Q36" s="2">
+        <v>35</v>
+      </c>
+      <c r="N39" s="2">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
-      <c r="R36" s="2">
-        <f t="shared" si="3"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18">
-      <c r="D37" t="s">
-        <v>33</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="F37" s="2">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="G37" s="2">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="H37" s="2">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="I37" s="2">
-        <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-      <c r="J37" s="2">
-        <f t="shared" si="3"/>
-        <v>26</v>
-      </c>
-      <c r="K37" s="2">
-        <f t="shared" si="3"/>
-        <v>28</v>
-      </c>
-      <c r="L37" s="2">
-        <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="M37" s="2">
-        <f t="shared" si="3"/>
-        <v>36</v>
-      </c>
-      <c r="N37" s="2">
-        <f t="shared" si="3"/>
-        <v>38</v>
-      </c>
-      <c r="O37" s="2">
+      <c r="O39" s="2">
         <f t="shared" si="3"/>
         <v>44</v>
       </c>
-      <c r="P37" s="2">
+      <c r="P39" s="2">
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
-      <c r="Q37" s="2">
+      <c r="Q39" s="2">
         <f t="shared" si="3"/>
-        <v>51</v>
-      </c>
-      <c r="R37" s="2">
+        <v>52</v>
+      </c>
+      <c r="R39" s="2">
         <f t="shared" si="3"/>
         <v>55</v>
       </c>
-    </row>
-    <row r="38" spans="1:18">
-      <c r="D38" t="s">
-        <v>34</v>
-      </c>
-      <c r="E38">
+      <c r="S39" s="2">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="F38" s="2">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="G38" s="2">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="H38" s="2">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="I38" s="2">
-        <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
-      <c r="J38" s="2">
-        <f t="shared" si="3"/>
-        <v>23</v>
-      </c>
-      <c r="K38" s="2">
-        <f t="shared" si="3"/>
-        <v>28</v>
-      </c>
-      <c r="L38" s="2">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="M38" s="2">
-        <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="N38" s="2">
-        <f t="shared" si="3"/>
-        <v>33</v>
-      </c>
-      <c r="O38" s="2">
-        <f t="shared" si="3"/>
-        <v>37</v>
-      </c>
-      <c r="P38" s="2">
-        <f t="shared" si="3"/>
-        <v>41</v>
-      </c>
-      <c r="Q38" s="2">
-        <f t="shared" si="3"/>
-        <v>45</v>
-      </c>
-      <c r="R38" s="2">
-        <f t="shared" si="3"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18">
-      <c r="D39" t="s">
-        <v>35</v>
-      </c>
-      <c r="E39">
-        <f t="shared" ref="E39:R39" si="4">SUMIF($C$3:$C$34,$D$39,E$3:E$34)</f>
-        <v>5</v>
-      </c>
-      <c r="F39" s="2">
-        <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="G39" s="2">
-        <f t="shared" si="4"/>
-        <v>14</v>
-      </c>
-      <c r="H39" s="2">
-        <f t="shared" si="4"/>
-        <v>18</v>
-      </c>
-      <c r="I39" s="2">
-        <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-      <c r="J39" s="2">
-        <f t="shared" si="4"/>
-        <v>24</v>
-      </c>
-      <c r="K39" s="2">
-        <f t="shared" si="4"/>
-        <v>28</v>
-      </c>
-      <c r="L39" s="2">
-        <f t="shared" si="4"/>
-        <v>32</v>
-      </c>
-      <c r="M39" s="2">
-        <f t="shared" si="4"/>
-        <v>35</v>
-      </c>
-      <c r="N39" s="2">
-        <f t="shared" si="4"/>
-        <v>42</v>
-      </c>
-      <c r="O39" s="2">
-        <f t="shared" si="4"/>
-        <v>44</v>
-      </c>
-      <c r="P39" s="2">
-        <f t="shared" si="4"/>
-        <v>48</v>
-      </c>
-      <c r="Q39" s="2">
-        <f t="shared" si="4"/>
-        <v>52</v>
-      </c>
-      <c r="R39" s="2">
-        <f t="shared" si="4"/>
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -3560,9 +3681,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y36"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
       <pane xSplit="4" topLeftCell="I1" activePane="topRight" state="frozenSplit"/>
-      <selection pane="topRight" activeCell="D8" sqref="D8"/>
+      <selection pane="topRight" activeCell="A31" sqref="A2:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3613,66 +3734,65 @@
         <v>42713</v>
       </c>
       <c r="L1" s="8">
-        <f t="shared" si="0"/>
-        <v>42720</v>
+        <v>42722</v>
       </c>
       <c r="M1" s="8">
         <f t="shared" si="0"/>
-        <v>42727</v>
+        <v>42729</v>
       </c>
       <c r="N1" s="8">
         <f t="shared" si="0"/>
-        <v>42734</v>
+        <v>42736</v>
       </c>
       <c r="O1" s="8">
         <f t="shared" si="0"/>
-        <v>42741</v>
+        <v>42743</v>
       </c>
       <c r="P1" s="8">
         <f t="shared" si="0"/>
-        <v>42748</v>
+        <v>42750</v>
       </c>
       <c r="Q1" s="8">
         <f t="shared" si="0"/>
-        <v>42755</v>
+        <v>42757</v>
       </c>
       <c r="R1" s="8">
         <f>Q1+7</f>
-        <v>42762</v>
+        <v>42764</v>
       </c>
       <c r="S1" s="8">
         <f t="shared" si="0"/>
-        <v>42769</v>
+        <v>42771</v>
       </c>
       <c r="T1" s="8">
         <f t="shared" si="0"/>
-        <v>42776</v>
+        <v>42778</v>
       </c>
       <c r="U1" s="8">
         <f t="shared" si="0"/>
-        <v>42783</v>
+        <v>42785</v>
       </c>
       <c r="V1" s="8">
         <f t="shared" si="0"/>
-        <v>42790</v>
+        <v>42792</v>
       </c>
       <c r="W1" s="8">
         <f t="shared" si="0"/>
-        <v>42797</v>
+        <v>42799</v>
       </c>
       <c r="X1" s="8">
         <f t="shared" si="0"/>
-        <v>42804</v>
+        <v>42806</v>
       </c>
       <c r="Y1" s="8">
         <f t="shared" si="0"/>
-        <v>42811</v>
+        <v>42813</v>
       </c>
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="2" t="str">
-        <f>CONCATENATE("['",$C2,"', ","'",$D2,"' ,",$E2,",",$F2,",",$G2,",",$H2,",",$I2,",",$J2,",",$K2,"],")</f>
-        <v>['Zach', 'Atlanta' ,1,3,6,9,10,10,12],</v>
+        <f>CONCATENATE("['",$C2,"', ","'",$D2,"' ,",$E2,",",$F2,",",$G2,",",$H2,",",$I2,",",$J2,",",$K2,",",$L2,"],")</f>
+        <v>['Zach', 'Atlanta' ,1,3,6,9,10,10,12,13],</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" t="s">
@@ -3702,11 +3822,14 @@
       <c r="K2">
         <v>12</v>
       </c>
+      <c r="L2">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="2" t="str">
-        <f t="shared" ref="A3:A31" si="1">CONCATENATE("['",$C3,"', ","'",$D3,"' ,",$E3,",",$F3,",",$G3,",",$H3,",",$I3,",",$J3,",",$K3,"],")</f>
-        <v>['Jeff', 'Boston' ,1,3,4,6,9,11,13],</v>
+        <f t="shared" ref="A3:A31" si="1">CONCATENATE("['",$C3,"', ","'",$D3,"' ,",$E3,",",$F3,",",$G3,",",$H3,",",$I3,",",$J3,",",$K3,",",$L3,"],")</f>
+        <v>['Jeff', 'Boston' ,1,3,4,6,9,11,13,14],</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" t="s">
@@ -3736,11 +3859,14 @@
       <c r="K3">
         <v>13</v>
       </c>
+      <c r="L3">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Brooklyn' ,1,2,3,4,4,5,6],</v>
+        <v>['Zach', 'Brooklyn' ,1,2,3,4,4,5,6,7],</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" t="s">
@@ -3770,11 +3896,14 @@
       <c r="K4">
         <v>6</v>
       </c>
+      <c r="L4">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Charlotte' ,2,4,6,8,8,11,14],</v>
+        <v>['Jeff', 'Charlotte' ,2,4,6,8,8,11,14,15],</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" t="s">
@@ -3804,11 +3933,14 @@
       <c r="K5">
         <v>14</v>
       </c>
+      <c r="L5">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Chicago' ,1,3,5,8,10,11,12],</v>
+        <v>['Greg', 'Chicago' ,1,3,5,8,10,11,12,13],</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" t="s">
@@ -3838,11 +3970,14 @@
       <c r="K6">
         <v>12</v>
       </c>
+      <c r="L6">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Cleveland' ,2,5,7,10,12,13,16],</v>
+        <v>['Tim', 'Cleveland' ,2,5,7,10,12,13,16,19],</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" t="s">
@@ -3872,11 +4007,14 @@
       <c r="K7">
         <v>16</v>
       </c>
+      <c r="L7">
+        <v>19</v>
+      </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Dallas' ,0,0,2,2,2,3,5],</v>
+        <v>['Tim', 'Dallas' ,0,0,2,2,2,3,5,6],</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" t="s">
@@ -3906,11 +4044,14 @@
       <c r="K8">
         <v>5</v>
       </c>
+      <c r="L8">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Denver' ,1,2,3,4,6,7,8],</v>
+        <v>['Tim', 'Denver' ,1,2,3,4,6,7,8,11],</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" t="s">
@@ -3940,11 +4081,14 @@
       <c r="K9">
         <v>8</v>
       </c>
+      <c r="L9">
+        <v>11</v>
+      </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Detroit' ,1,3,4,6,8,11,13],</v>
+        <v>['Greg', 'Detroit' ,1,3,4,6,8,11,13,14],</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" t="s">
@@ -3974,11 +4118,14 @@
       <c r="K10">
         <v>13</v>
       </c>
+      <c r="L10">
+        <v>14</v>
+      </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Golden State' ,1,4,7,9,14,16,20],</v>
+        <v>['Zach', 'Golden State' ,1,4,7,9,14,16,20,24],</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" t="s">
@@ -4008,11 +4155,14 @@
       <c r="K11">
         <v>20</v>
       </c>
+      <c r="L11">
+        <v>24</v>
+      </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Houston' ,1,3,5,7,10,13,16],</v>
+        <v>['Jeff', 'Houston' ,1,3,5,7,10,13,16,21],</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" t="s">
@@ -4042,11 +4192,14 @@
       <c r="K12">
         <v>16</v>
       </c>
+      <c r="L12">
+        <v>21</v>
+      </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Indiana' ,1,2,4,6,8,9,11],</v>
+        <v>['Tim', 'Indiana' ,1,2,4,6,8,9,11,14],</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" t="s">
@@ -4076,11 +4229,14 @@
       <c r="K13">
         <v>11</v>
       </c>
+      <c r="L13">
+        <v>14</v>
+      </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'L.A. Lakers' ,1,3,5,7,8,10,10],</v>
+        <v>['Tim', 'L.A. Lakers' ,1,3,5,7,8,10,10,11],</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" t="s">
@@ -4110,11 +4266,14 @@
       <c r="K14">
         <v>10</v>
       </c>
+      <c r="L14">
+        <v>11</v>
+      </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'LA Clippers' ,1,4,8,11,14,16,16],</v>
+        <v>['Greg', 'LA Clippers' ,1,4,8,11,14,16,16,20],</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" t="s">
@@ -4144,11 +4303,14 @@
       <c r="K15">
         <v>16</v>
       </c>
+      <c r="L15">
+        <v>20</v>
+      </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Memphis' ,1,3,4,7,10,12,16],</v>
+        <v>['Tim', 'Memphis' ,1,3,4,7,10,12,16,18],</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" t="s">
@@ -4178,11 +4340,14 @@
       <c r="K16">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Miami' ,1,2,2,3,5,7,7],</v>
+        <v>['Zach', 'Miami' ,1,2,2,3,5,7,7,9],</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" t="s">
@@ -4212,11 +4377,14 @@
       <c r="K17">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="L17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Milwaukee' ,0,3,4,5,6,9,11],</v>
+        <v>['Greg', 'Milwaukee' ,0,3,4,5,6,9,11,13],</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" t="s">
@@ -4246,11 +4414,14 @@
       <c r="K18">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="L18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Minnesota' ,0,1,2,4,5,5,6],</v>
+        <v>['Jeff', 'Minnesota' ,0,1,2,4,5,5,6,7],</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" t="s">
@@ -4280,11 +4451,14 @@
       <c r="K19">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="L19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'New Orleans' ,0,0,1,2,6,7,7],</v>
+        <v>['Zach', 'New Orleans' ,0,0,1,2,6,7,7,9],</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" t="s">
@@ -4314,11 +4488,14 @@
       <c r="K20">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="L20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'New York' ,0,2,3,5,8,10,13],</v>
+        <v>['Zach', 'New York' ,0,2,3,5,8,10,13,14],</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" t="s">
@@ -4348,11 +4525,14 @@
       <c r="K21">
         <v>13</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="L21">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Oklahoma City' ,2,4,6,7,9,12,14],</v>
+        <v>['Jeff', 'Oklahoma City' ,2,4,6,7,9,12,14,16],</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" t="s">
@@ -4382,11 +4562,14 @@
       <c r="K22">
         <v>14</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="L22">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Orlando' ,0,2,3,5,6,8,10],</v>
+        <v>['Greg', 'Orlando' ,0,2,3,5,6,8,10,12],</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" t="s">
@@ -4416,11 +4599,14 @@
       <c r="K23">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="L23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['', 'Philadelphia' ,0,0,1,2,4,4,5],</v>
+        <v>['', 'Philadelphia' ,0,0,1,2,4,4,5,6],</v>
       </c>
       <c r="B24" s="3"/>
       <c r="D24" t="s">
@@ -4447,11 +4633,14 @@
       <c r="K24">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="L24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['', 'Phoenix' ,0,2,3,3,5,6,7],</v>
+        <v>['', 'Phoenix' ,0,2,3,3,5,6,7,8],</v>
       </c>
       <c r="B25" s="3"/>
       <c r="D25" t="s">
@@ -4478,11 +4667,14 @@
       <c r="K25">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="L25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Portland' ,1,3,6,7,9,10,12],</v>
+        <v>['Greg', 'Portland' ,1,3,6,7,9,10,12,13],</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" t="s">
@@ -4512,11 +4704,14 @@
       <c r="K26">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="L26">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Sacramento' ,1,2,4,4,6,7,8],</v>
+        <v>['Jeff', 'Sacramento' ,1,2,4,4,6,7,8,10],</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" t="s">
@@ -4546,11 +4741,14 @@
       <c r="K27">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="L27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'San Antonio' ,2,5,6,10,13,16,18],</v>
+        <v>['Jeff', 'San Antonio' ,2,5,6,10,13,16,18,21],</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" t="s">
@@ -4580,11 +4778,14 @@
       <c r="K28">
         <v>18</v>
       </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="L28">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Toronto' ,1,4,6,8,10,13,16],</v>
+        <v>['Greg', 'Toronto' ,1,4,6,8,10,13,16,18],</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" t="s">
@@ -4614,11 +4815,14 @@
       <c r="K29">
         <v>16</v>
       </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="L29">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Utah' ,1,3,6,7,9,11,14],</v>
+        <v>['Zach', 'Utah' ,1,3,6,7,9,11,14,17],</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" t="s">
@@ -4648,11 +4852,14 @@
       <c r="K30">
         <v>14</v>
       </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="L30">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Washington' ,0,1,2,3,5,6,8],</v>
+        <v>['Tim', 'Washington' ,0,1,2,3,5,6,8,11],</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" t="s">
@@ -4682,8 +4889,11 @@
       <c r="K31">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" s="4" customFormat="1" ht="4" customHeight="1">
+      <c r="L31">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="4" customFormat="1" ht="4" customHeight="1">
       <c r="A32" s="2"/>
       <c r="B32" s="3"/>
       <c r="F32" s="3"/>
@@ -4722,7 +4932,7 @@
       </c>
       <c r="L33" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="M33" s="2">
         <f t="shared" si="2"/>
@@ -4767,7 +4977,7 @@
       </c>
       <c r="L34" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="M34" s="2">
         <f t="shared" si="2"/>
@@ -4812,7 +5022,7 @@
       </c>
       <c r="L35" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M35" s="2">
         <f t="shared" si="2"/>
@@ -4857,7 +5067,7 @@
       </c>
       <c r="L36" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="M36" s="2">
         <f t="shared" si="3"/>

--- a/NFL Wins.xlsx
+++ b/NFL Wins.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8980" windowHeight="16100" tabRatio="500" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8980" windowHeight="16100" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
@@ -479,7 +479,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="151">
+  <cellStyleXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -578,6 +578,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -650,7 +654,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="151">
+  <cellStyles count="155">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -728,6 +732,8 @@
     <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -801,6 +807,8 @@
     <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1419,8 +1427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y39"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="P5" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="R7" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="A3" sqref="A3:A34"/>
@@ -1547,8 +1555,8 @@
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="2" t="str">
-        <f>CONCATENATE("['",$C3,"', ","'",$D3,"', ",$E3,",",$F3,",",$G3,",",$H3,",",$I3,",",$J3,",",$K3,",",$L3,",",$M3,",",$N3,",",$O3,",",$P3,",",$Q3,",",$R3,",",$S3,"],")</f>
-        <v>['Greg', '49ers', 1,1,1,1,1,1,1,1,1,1,1,1,1,1,1],</v>
+        <f>CONCATENATE("['",$C3,"', ","'",$D3,"', ",$E3,",",$F3,",",$G3,",",$H3,",",$I3,",",$J3,",",$K3,",",$L3,",",$M3,",",$N3,",",$O3,",",$P3,",",$Q3,",",$R3,",",$S3,",",$T3,"],")</f>
+        <v>['Greg', '49ers', 1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,2],</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" t="s">
@@ -1602,11 +1610,14 @@
       <c r="S3">
         <v>1</v>
       </c>
+      <c r="T3">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="2" t="str">
-        <f t="shared" ref="A4:A34" si="1">CONCATENATE("['",$C4,"', ","'",$D4,"', ",$E4,",",$F4,",",$G4,",",$H4,",",$I4,",",$J4,",",$K4,",",$L4,",",$M4,",",$N4,",",$O4,",",$P4,",",$Q4,",",$R4,",",$S4,"],")</f>
-        <v>['Jeff', 'Bears', 0,0,0,1,1,1,1,2,2,2,2,2,3,3,3],</v>
+        <f t="shared" ref="A4:A34" si="1">CONCATENATE("['",$C4,"', ","'",$D4,"', ",$E4,",",$F4,",",$G4,",",$H4,",",$I4,",",$J4,",",$K4,",",$L4,",",$M4,",",$N4,",",$O4,",",$P4,",",$Q4,",",$R4,",",$S4,",",$T4,"],")</f>
+        <v>['Jeff', 'Bears', 0,0,0,1,1,1,1,2,2,2,2,2,3,3,3,3],</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" t="s">
@@ -1660,11 +1671,14 @@
       <c r="S4">
         <v>3</v>
       </c>
+      <c r="T4">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Bengals', 1,1,1,2,2,2,3,3,3,3,3,3,4,5,5],</v>
+        <v>['Tim', 'Bengals', 1,1,1,2,2,2,3,3,3,3,3,3,4,5,5,5],</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" t="s">
@@ -1718,11 +1732,14 @@
       <c r="S5">
         <v>5</v>
       </c>
+      <c r="T5">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Bills', 0,0,1,2,3,4,4,4,4,4,5,6,6,6,7],</v>
+        <v>['Greg', 'Bills', 0,0,1,2,3,4,4,4,4,4,5,6,6,6,7,7],</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" t="s">
@@ -1776,11 +1793,14 @@
       <c r="S6">
         <v>7</v>
       </c>
+      <c r="T6">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Broncos', 1,2,3,4,4,4,5,6,6,7,7,7,8,8,8],</v>
+        <v>['Zach', 'Broncos', 1,2,3,4,4,4,5,6,6,7,7,7,8,8,8,8],</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" t="s">
@@ -1834,11 +1854,14 @@
       <c r="S7">
         <v>8</v>
       </c>
+      <c r="T7">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Browns', 0,0,0,0,0,0,0,0,0,0,0,0,0,0,0],</v>
+        <v>['Jeff', 'Browns', 0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,1],</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" t="s">
@@ -1892,11 +1915,14 @@
       <c r="S8">
         <v>0</v>
       </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Buccaneers', 1,1,1,1,2,2,3,3,3,4,5,6,7,8,8],</v>
+        <v>['Zach', 'Buccaneers', 1,1,1,1,2,2,3,3,3,4,5,6,7,8,8,8],</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" t="s">
@@ -1950,11 +1976,14 @@
       <c r="S9">
         <v>8</v>
       </c>
+      <c r="T9">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Cardinals', 0,1,1,1,2,3,3,3,3,4,4,4,5,5,5],</v>
+        <v>['Jeff', 'Cardinals', 0,1,1,1,2,3,3,3,3,4,4,4,5,5,5,6],</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" t="s">
@@ -2008,11 +2037,14 @@
       <c r="S10" s="2">
         <v>5</v>
       </c>
+      <c r="T10">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Chargers', 0,1,1,1,1,2,3,3,4,4,4,5,5,5,5],</v>
+        <v>['Jeff', 'Chargers', 0,1,1,1,1,2,3,3,4,4,4,5,5,5,5,5],</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" t="s">
@@ -2066,11 +2098,14 @@
       <c r="S11">
         <v>5</v>
       </c>
+      <c r="T11">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Chiefs', 1,1,2,2,2,3,4,5,6,7,7,8,9,10,10],</v>
+        <v>['Zach', 'Chiefs', 1,1,2,2,2,3,4,5,6,7,7,8,9,10,10,11],</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" t="s">
@@ -2124,11 +2159,14 @@
       <c r="S12">
         <v>10</v>
       </c>
+      <c r="T12">
+        <v>11</v>
+      </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Colts', 0,0,1,1,2,2,3,3,4,4,5,5,6,6,7],</v>
+        <v>['Greg', 'Colts', 0,0,1,1,2,2,3,3,4,4,5,5,6,6,7,7],</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" t="s">
@@ -2182,11 +2220,14 @@
       <c r="S13">
         <v>7</v>
       </c>
+      <c r="T13">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Cowboys', 0,1,2,3,4,5,5,6,7,8,9,10,11,11,12],</v>
+        <v>['Greg', 'Cowboys', 0,1,2,3,4,5,5,6,7,8,9,10,11,11,12,13],</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" t="s">
@@ -2240,11 +2281,14 @@
       <c r="S14">
         <v>12</v>
       </c>
+      <c r="T14">
+        <v>13</v>
+      </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Dolphins', 0,0,1,1,1,2,3,3,4,5,6,7,7,8,9],</v>
+        <v>['Tim', 'Dolphins', 0,0,1,1,1,2,3,3,4,5,6,7,7,8,9,10],</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" t="s">
@@ -2298,11 +2342,14 @@
       <c r="S15">
         <v>9</v>
       </c>
+      <c r="T15">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Eagles', 1,2,3,3,3,3,4,4,4,5,5,5,5,5,5],</v>
+        <v>['Zach', 'Eagles', 1,2,3,3,3,3,4,4,4,5,5,5,5,5,5,6],</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" t="s">
@@ -2356,11 +2403,14 @@
       <c r="S16">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:19">
+      <c r="T16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Falcons', 0,1,2,3,4,4,4,5,6,6,6,7,7,8,9],</v>
+        <v>['Greg', 'Falcons', 0,1,2,3,4,4,4,5,6,6,6,7,7,8,9,10],</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" t="s">
@@ -2414,11 +2464,14 @@
       <c r="S17">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:19">
+      <c r="T17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Giants', 1,2,2,2,2,3,4,4,5,6,7,8,8,9,10],</v>
+        <v>['Jeff', 'Giants', 1,2,2,2,2,3,4,4,5,6,7,8,8,9,10,10],</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" t="s">
@@ -2472,11 +2525,14 @@
       <c r="S18">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:19">
+      <c r="T18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Jaguars', 0,0,0,1,1,2,2,2,2,2,2,2,2,2,],</v>
+        <v>['Tim', 'Jaguars', 0,0,0,1,1,2,2,2,2,2,2,2,2,2,2,3],</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" t="s">
@@ -2527,11 +2583,17 @@
       <c r="R19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:19">
+      <c r="S19">
+        <v>2</v>
+      </c>
+      <c r="T19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Jets', 0,1,1,1,1,1,2,3,3,3,3,3,3,4,4],</v>
+        <v>['Tim', 'Jets', 0,1,1,1,1,1,2,3,3,3,3,3,3,4,4,4],</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" t="s">
@@ -2585,11 +2647,14 @@
       <c r="S20">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:19">
+      <c r="T20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Lions', 1,1,1,1,2,3,4,4,5,5,6,7,8,9,9],</v>
+        <v>['Jeff', 'Lions', 1,1,1,1,2,3,4,4,5,5,6,7,8,9,9,9],</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" t="s">
@@ -2643,11 +2708,14 @@
       <c r="S21">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="1:19">
+      <c r="T21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Packers', 1,1,2,2,3,3,4,4,4,4,4,5,6,7,8],</v>
+        <v>['Tim', 'Packers', 1,1,2,2,3,3,4,4,4,4,4,5,6,7,8,9],</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" t="s">
@@ -2701,11 +2769,14 @@
       <c r="S22">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:19">
+      <c r="T22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Panthers', 0,1,1,1,1,1,1,2,3,3,4,4,4,5,6],</v>
+        <v>['Greg', 'Panthers', 0,1,1,1,1,1,1,2,3,3,4,4,4,5,6,6],</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" t="s">
@@ -2759,11 +2830,14 @@
       <c r="S23">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:19">
+      <c r="T23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Patriots', 1,2,3,3,4,5,6,7,7,7,8,9,10,11,12],</v>
+        <v>['Greg', 'Patriots', 1,2,3,3,4,5,6,7,7,7,8,9,10,11,12,13],</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" t="s">
@@ -2817,11 +2891,14 @@
       <c r="S24">
         <v>12</v>
       </c>
-    </row>
-    <row r="25" spans="1:19">
+      <c r="T24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Raiders', 1,1,2,3,4,4,5,6,7,7,8,9,10,10,11],</v>
+        <v>['Tim', 'Raiders', 1,1,2,3,4,4,5,6,7,7,8,9,10,10,11,12],</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" t="s">
@@ -2875,11 +2952,14 @@
       <c r="S25">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" spans="1:19">
+      <c r="T25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
       <c r="A26" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Rams', 0,1,2,3,3,3,3,3,3,4,4,4,4,4,4],</v>
+        <v>['Zach', 'Rams', 0,1,2,3,3,3,3,3,3,4,4,4,4,4,4,4],</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" t="s">
@@ -2933,11 +3013,14 @@
       <c r="S26">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:19">
+      <c r="T26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
       <c r="A27" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Ravens', 1,2,3,3,3,3,3,3,4,5,5,6,7,7,8],</v>
+        <v>['Jeff', 'Ravens', 1,2,3,3,3,3,3,3,4,5,5,6,7,7,8,8],</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" t="s">
@@ -2991,11 +3074,14 @@
       <c r="S27">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:19">
+      <c r="T27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
       <c r="A28" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Redskins', 0,0,1,2,3,4,4,4,4,5,6,6,6,7,7],</v>
+        <v>['Greg', 'Redskins', 0,0,1,2,3,4,4,4,4,5,6,6,6,7,7,8],</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" t="s">
@@ -3049,11 +3135,14 @@
       <c r="S28">
         <v>7</v>
       </c>
-    </row>
-    <row r="29" spans="1:19">
+      <c r="T28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
       <c r="A29" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Saints', 0,0,0,1,1,2,2,3,4,4,4,5,5,5,6],</v>
+        <v>['Zach', 'Saints', 0,0,0,1,1,2,2,3,4,4,4,5,5,5,6,7],</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" t="s">
@@ -3107,11 +3196,14 @@
       <c r="S29">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:19">
+      <c r="T29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
       <c r="A30" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Seahawks', 1,1,2,3,3,4,4,4,5,6,7,7,8,8,9],</v>
+        <v>['Zach', 'Seahawks', 1,1,2,3,3,4,4,4,5,6,7,7,8,8,9,9],</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" t="s">
@@ -3165,11 +3257,14 @@
       <c r="S30">
         <v>9</v>
       </c>
-    </row>
-    <row r="31" spans="1:19">
+      <c r="T30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
       <c r="A31" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Steelers', 1,2,2,3,4,4,4,4,4,4,5,6,7,8,9],</v>
+        <v>['Tim', 'Steelers', 1,2,2,3,4,4,4,4,4,4,5,6,7,8,9,10],</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" t="s">
@@ -3223,11 +3318,14 @@
       <c r="S31">
         <v>9</v>
       </c>
-    </row>
-    <row r="32" spans="1:19">
+      <c r="T31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
       <c r="A32" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Texans', 1,2,2,3,3,4,4,5,5,6,6,6,6,7,8],</v>
+        <v>['Jeff', 'Texans', 1,2,2,3,3,4,4,5,5,6,6,6,6,7,8,9],</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" t="s">
@@ -3281,11 +3379,14 @@
       <c r="S32">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="1:19">
+      <c r="T32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25">
       <c r="A33" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Titans', 0,1,1,1,2,3,3,4,4,5,5,6,6,7,8],</v>
+        <v>['Zach', 'Titans', 0,1,1,1,2,3,3,4,4,5,5,6,6,7,8,8],</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="9" t="s">
@@ -3339,11 +3440,14 @@
       <c r="S33">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="1:19">
+      <c r="T33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25">
       <c r="A34" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Vikings', 1,2,3,4,5,5,5,5,5,5,6,6,6,7,7],</v>
+        <v>['Tim', 'Vikings', 1,2,3,4,5,5,5,5,5,5,6,6,6,7,7,7],</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" t="s">
@@ -3397,18 +3501,21 @@
       <c r="S34">
         <v>7</v>
       </c>
-    </row>
-    <row r="35" spans="1:19" s="4" customFormat="1" ht="4" customHeight="1">
+      <c r="T34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" s="4" customFormat="1" ht="4" customHeight="1">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:19">
+    <row r="36" spans="1:25">
       <c r="D36" t="s">
         <v>32</v>
       </c>
       <c r="E36">
-        <f t="shared" ref="E36:S38" si="2">SUMIF($C$3:$C$34,$D36,E$3:E$34)</f>
+        <f t="shared" ref="E36:U38" si="2">SUMIF($C$3:$C$34,$D36,E$3:E$34)</f>
         <v>4</v>
       </c>
       <c r="F36" s="2">
@@ -3467,8 +3574,32 @@
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
-    </row>
-    <row r="37" spans="1:19">
+      <c r="T36" s="2">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="U36" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V36" s="2">
+        <f t="shared" ref="U36:Y38" si="3">SUMIF($C$3:$C$34,$D36,V$3:V$34)</f>
+        <v>0</v>
+      </c>
+      <c r="W36" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X36" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y36" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25">
       <c r="D37" t="s">
         <v>33</v>
       </c>
@@ -3532,8 +3663,32 @@
         <f t="shared" si="2"/>
         <v>61</v>
       </c>
-    </row>
-    <row r="38" spans="1:19">
+      <c r="T37" s="2">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="U37" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V37" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W37" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X37" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y37" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25">
       <c r="D38" t="s">
         <v>34</v>
       </c>
@@ -3595,72 +3750,120 @@
       </c>
       <c r="S38" s="2">
         <f t="shared" si="2"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19">
+        <v>55</v>
+      </c>
+      <c r="T38" s="2">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="U38" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V38" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W38" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X38" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y38" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25">
       <c r="D39" t="s">
         <v>35</v>
       </c>
       <c r="E39">
-        <f t="shared" ref="E39:S39" si="3">SUMIF($C$3:$C$34,$D$39,E$3:E$34)</f>
+        <f t="shared" ref="E39:Y39" si="4">SUMIF($C$3:$C$34,$D$39,E$3:E$34)</f>
         <v>5</v>
       </c>
       <c r="F39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="G39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="H39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="I39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="J39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="K39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="L39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="M39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="N39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
       <c r="O39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
       <c r="P39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
       <c r="Q39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>52</v>
       </c>
       <c r="R39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
       <c r="S39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>58</v>
+      </c>
+      <c r="T39" s="2">
+        <f t="shared" si="4"/>
+        <v>61</v>
+      </c>
+      <c r="U39" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V39" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W39" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X39" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y39" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3681,9 +3884,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y36"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="I1" activePane="topRight" state="frozenSplit"/>
-      <selection pane="topRight" activeCell="A31" sqref="A2:A31"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="K1" activePane="topRight" state="frozenSplit"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3737,62 +3940,61 @@
         <v>42722</v>
       </c>
       <c r="M1" s="8">
-        <f t="shared" si="0"/>
-        <v>42729</v>
+        <v>42728</v>
       </c>
       <c r="N1" s="8">
         <f t="shared" si="0"/>
-        <v>42736</v>
+        <v>42735</v>
       </c>
       <c r="O1" s="8">
         <f t="shared" si="0"/>
-        <v>42743</v>
+        <v>42742</v>
       </c>
       <c r="P1" s="8">
         <f t="shared" si="0"/>
-        <v>42750</v>
+        <v>42749</v>
       </c>
       <c r="Q1" s="8">
         <f t="shared" si="0"/>
-        <v>42757</v>
+        <v>42756</v>
       </c>
       <c r="R1" s="8">
         <f>Q1+7</f>
-        <v>42764</v>
+        <v>42763</v>
       </c>
       <c r="S1" s="8">
         <f t="shared" si="0"/>
-        <v>42771</v>
+        <v>42770</v>
       </c>
       <c r="T1" s="8">
         <f t="shared" si="0"/>
-        <v>42778</v>
+        <v>42777</v>
       </c>
       <c r="U1" s="8">
         <f t="shared" si="0"/>
-        <v>42785</v>
+        <v>42784</v>
       </c>
       <c r="V1" s="8">
         <f t="shared" si="0"/>
-        <v>42792</v>
+        <v>42791</v>
       </c>
       <c r="W1" s="8">
         <f t="shared" si="0"/>
-        <v>42799</v>
+        <v>42798</v>
       </c>
       <c r="X1" s="8">
         <f t="shared" si="0"/>
-        <v>42806</v>
+        <v>42805</v>
       </c>
       <c r="Y1" s="8">
         <f t="shared" si="0"/>
-        <v>42813</v>
+        <v>42812</v>
       </c>
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="2" t="str">
-        <f>CONCATENATE("['",$C2,"', ","'",$D2,"' ,",$E2,",",$F2,",",$G2,",",$H2,",",$I2,",",$J2,",",$K2,",",$L2,"],")</f>
-        <v>['Zach', 'Atlanta' ,1,3,6,9,10,10,12,13],</v>
+        <f>CONCATENATE("['",$C2,"', ","'",$D2,"' ,",$E2,",",$F2,",",$G2,",",$H2,",",$I2,",",$J2,",",$K2,",",$L2,",",$M2,"],")</f>
+        <v>['Zach', 'Atlanta' ,1,3,6,9,10,10,12,13,15],</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" t="s">
@@ -3825,11 +4027,14 @@
       <c r="L2">
         <v>13</v>
       </c>
+      <c r="M2">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="2" t="str">
-        <f t="shared" ref="A3:A31" si="1">CONCATENATE("['",$C3,"', ","'",$D3,"' ,",$E3,",",$F3,",",$G3,",",$H3,",",$I3,",",$J3,",",$K3,",",$L3,"],")</f>
-        <v>['Jeff', 'Boston' ,1,3,4,6,9,11,13,14],</v>
+        <f t="shared" ref="A3:A31" si="1">CONCATENATE("['",$C3,"', ","'",$D3,"' ,",$E3,",",$F3,",",$G3,",",$H3,",",$I3,",",$J3,",",$K3,",",$L3,",",$M3,"],")</f>
+        <v>['Jeff', 'Boston' ,1,3,4,6,9,11,13,14,17],</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" t="s">
@@ -3862,11 +4067,14 @@
       <c r="L3">
         <v>14</v>
       </c>
+      <c r="M3">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Brooklyn' ,1,2,3,4,4,5,6,7],</v>
+        <v>['Zach', 'Brooklyn' ,1,2,3,4,4,5,6,7,7],</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" t="s">
@@ -3899,11 +4107,14 @@
       <c r="L4">
         <v>7</v>
       </c>
+      <c r="M4">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Charlotte' ,2,4,6,8,8,11,14,15],</v>
+        <v>['Jeff', 'Charlotte' ,2,4,6,8,8,11,14,15,17],</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" t="s">
@@ -3936,11 +4147,14 @@
       <c r="L5">
         <v>15</v>
       </c>
+      <c r="M5">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Chicago' ,1,3,5,8,10,11,12,13],</v>
+        <v>['Greg', 'Chicago' ,1,3,5,8,10,11,12,13,14],</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" t="s">
@@ -3973,11 +4187,14 @@
       <c r="L6">
         <v>13</v>
       </c>
+      <c r="M6">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Cleveland' ,2,5,7,10,12,13,16,19],</v>
+        <v>['Tim', 'Cleveland' ,2,5,7,10,12,13,16,19,22],</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" t="s">
@@ -4010,11 +4227,14 @@
       <c r="L7">
         <v>19</v>
       </c>
+      <c r="M7">
+        <v>22</v>
+      </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Dallas' ,0,0,2,2,2,3,5,6],</v>
+        <v>['Tim', 'Dallas' ,0,0,2,2,2,3,5,6,9],</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" t="s">
@@ -4047,11 +4267,14 @@
       <c r="L8">
         <v>6</v>
       </c>
+      <c r="M8">
+        <v>9</v>
+      </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Denver' ,1,2,3,4,6,7,8,11],</v>
+        <v>['Tim', 'Denver' ,1,2,3,4,6,7,8,11,12],</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" t="s">
@@ -4084,11 +4307,14 @@
       <c r="L9">
         <v>11</v>
       </c>
+      <c r="M9">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Detroit' ,1,3,4,6,8,11,13,14],</v>
+        <v>['Greg', 'Detroit' ,1,3,4,6,8,11,13,14,14],</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" t="s">
@@ -4121,11 +4347,14 @@
       <c r="L10">
         <v>14</v>
       </c>
+      <c r="M10">
+        <v>14</v>
+      </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Golden State' ,1,4,7,9,14,16,20,24],</v>
+        <v>['Zach', 'Golden State' ,1,4,7,9,14,16,20,24,27],</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" t="s">
@@ -4158,11 +4387,14 @@
       <c r="L11">
         <v>24</v>
       </c>
+      <c r="M11">
+        <v>27</v>
+      </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Houston' ,1,3,5,7,10,13,16,21],</v>
+        <v>['Jeff', 'Houston' ,1,3,5,7,10,13,16,21,22],</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" t="s">
@@ -4195,11 +4427,14 @@
       <c r="L12">
         <v>21</v>
       </c>
+      <c r="M12">
+        <v>22</v>
+      </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Indiana' ,1,2,4,6,8,9,11,14],</v>
+        <v>['Tim', 'Indiana' ,1,2,4,6,8,9,11,14,15],</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" t="s">
@@ -4232,11 +4467,14 @@
       <c r="L13">
         <v>14</v>
       </c>
+      <c r="M13">
+        <v>15</v>
+      </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'L.A. Lakers' ,1,3,5,7,8,10,10,11],</v>
+        <v>['Tim', 'L.A. Lakers' ,1,3,5,7,8,10,10,11,11],</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" t="s">
@@ -4269,11 +4507,14 @@
       <c r="L14">
         <v>11</v>
       </c>
+      <c r="M14">
+        <v>11</v>
+      </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'LA Clippers' ,1,4,8,11,14,16,16,20],</v>
+        <v>['Greg', 'LA Clippers' ,1,4,8,11,14,16,16,20,22],</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" t="s">
@@ -4306,11 +4547,14 @@
       <c r="L15">
         <v>20</v>
       </c>
+      <c r="M15">
+        <v>22</v>
+      </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Memphis' ,1,3,4,7,10,12,16,18],</v>
+        <v>['Tim', 'Memphis' ,1,3,4,7,10,12,16,18,20],</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" t="s">
@@ -4343,11 +4587,14 @@
       <c r="L16">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Miami' ,1,2,2,3,5,7,7,9],</v>
+        <v>['Zach', 'Miami' ,1,2,2,3,5,7,7,9,10],</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" t="s">
@@ -4380,11 +4627,14 @@
       <c r="L17">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Milwaukee' ,0,3,4,5,6,9,11,13],</v>
+        <v>['Greg', 'Milwaukee' ,0,3,4,5,6,9,11,13,14],</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" t="s">
@@ -4417,11 +4667,14 @@
       <c r="L18">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Minnesota' ,0,1,2,4,5,5,6,7],</v>
+        <v>['Jeff', 'Minnesota' ,0,1,2,4,5,5,6,7,9],</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" t="s">
@@ -4454,11 +4707,14 @@
       <c r="L19">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'New Orleans' ,0,0,1,2,6,7,7,9],</v>
+        <v>['Zach', 'New Orleans' ,0,0,1,2,6,7,7,9,11],</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" t="s">
@@ -4491,11 +4747,14 @@
       <c r="L20">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'New York' ,0,2,3,5,8,10,13,14],</v>
+        <v>['Zach', 'New York' ,0,2,3,5,8,10,13,14,16],</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" t="s">
@@ -4528,11 +4787,14 @@
       <c r="L21">
         <v>14</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Oklahoma City' ,2,4,6,7,9,12,14,16],</v>
+        <v>['Jeff', 'Oklahoma City' ,2,4,6,7,9,12,14,16,18],</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" t="s">
@@ -4565,11 +4827,14 @@
       <c r="L22">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Orlando' ,0,2,3,5,6,8,10,12],</v>
+        <v>['Greg', 'Orlando' ,0,2,3,5,6,8,10,12,14],</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" t="s">
@@ -4602,11 +4867,14 @@
       <c r="L23">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['', 'Philadelphia' ,0,0,1,2,4,4,5,6],</v>
+        <v>['', 'Philadelphia' ,0,0,1,2,4,4,5,6,7],</v>
       </c>
       <c r="B24" s="3"/>
       <c r="D24" t="s">
@@ -4636,11 +4904,14 @@
       <c r="L24">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['', 'Phoenix' ,0,2,3,3,5,6,7,8],</v>
+        <v>['', 'Phoenix' ,0,2,3,3,5,6,7,8,9],</v>
       </c>
       <c r="B25" s="3"/>
       <c r="D25" t="s">
@@ -4670,11 +4941,14 @@
       <c r="L25">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="M25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Portland' ,1,3,6,7,9,10,12,13],</v>
+        <v>['Greg', 'Portland' ,1,3,6,7,9,10,12,13,13],</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" t="s">
@@ -4707,11 +4981,14 @@
       <c r="L26">
         <v>13</v>
       </c>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="M26">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Sacramento' ,1,2,4,4,6,7,8,10],</v>
+        <v>['Jeff', 'Sacramento' ,1,2,4,4,6,7,8,10,13],</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" t="s">
@@ -4744,11 +5021,14 @@
       <c r="L27">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="M27">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'San Antonio' ,2,5,6,10,13,16,18,21],</v>
+        <v>['Jeff', 'San Antonio' ,2,5,6,10,13,16,18,21,24],</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" t="s">
@@ -4781,11 +5061,14 @@
       <c r="L28">
         <v>21</v>
       </c>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="M28">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Toronto' ,1,4,6,8,10,13,16,18],</v>
+        <v>['Greg', 'Toronto' ,1,4,6,8,10,13,16,18,21],</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" t="s">
@@ -4818,11 +5101,14 @@
       <c r="L29">
         <v>18</v>
       </c>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="M29">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Utah' ,1,3,6,7,9,11,14,17],</v>
+        <v>['Zach', 'Utah' ,1,3,6,7,9,11,14,17,18],</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" t="s">
@@ -4855,11 +5141,14 @@
       <c r="L30">
         <v>17</v>
       </c>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="M30">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Washington' ,0,1,2,3,5,6,8,11],</v>
+        <v>['Tim', 'Washington' ,0,1,2,3,5,6,8,11,13],</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" t="s">
@@ -4892,8 +5181,11 @@
       <c r="L31">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" s="4" customFormat="1" ht="4" customHeight="1">
+      <c r="M31">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" s="4" customFormat="1" ht="4" customHeight="1">
       <c r="A32" s="2"/>
       <c r="B32" s="3"/>
       <c r="F32" s="3"/>
@@ -4936,7 +5228,7 @@
       </c>
       <c r="M33" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="N33" s="2">
         <f t="shared" si="2"/>
@@ -4981,7 +5273,7 @@
       </c>
       <c r="M34" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="N34" s="2">
         <f t="shared" si="2"/>
@@ -5026,7 +5318,7 @@
       </c>
       <c r="M35" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="N35" s="2">
         <f t="shared" si="2"/>
@@ -5071,7 +5363,7 @@
       </c>
       <c r="M36" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="N36" s="2">
         <f t="shared" si="3"/>

--- a/NFL Wins.xlsx
+++ b/NFL Wins.xlsx
@@ -479,7 +479,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="155">
+  <cellStyleXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -578,6 +578,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -654,7 +662,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="155">
+  <cellStyles count="163">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -734,6 +742,10 @@
     <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -809,6 +821,10 @@
     <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1428,10 +1444,10 @@
   <dimension ref="A1:Y39"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="R7" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:A34"/>
+      <selection pane="bottomRight" activeCell="A34" sqref="A3:A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1613,6 +1629,9 @@
       <c r="T3">
         <v>2</v>
       </c>
+      <c r="U3">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="2" t="str">
@@ -1674,6 +1693,9 @@
       <c r="T4">
         <v>3</v>
       </c>
+      <c r="U4">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="2" t="str">
@@ -1735,6 +1757,9 @@
       <c r="T5">
         <v>5</v>
       </c>
+      <c r="U5">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="2" t="str">
@@ -1796,11 +1821,14 @@
       <c r="T6">
         <v>7</v>
       </c>
+      <c r="U6">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Zach', 'Broncos', 1,2,3,4,4,4,5,6,6,7,7,7,8,8,8,8],</v>
+        <f>CONCATENATE("['",$C7,"', ","'",$D7,"', ",$E7,",",$F7,",",$G7,",",$H7,",",$I7,",",$J7,",",$K7,",",$L7,",",$M7,",",$N7,",",$O7,",",$P7,",",$Q7,",",$R7,",",$S7,",",$T7,",",$U7,"],")</f>
+        <v>['Zach', 'Broncos', 1,2,3,4,4,4,5,6,6,7,7,7,8,8,8,8,9],</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" t="s">
@@ -1857,11 +1885,14 @@
       <c r="T7">
         <v>8</v>
       </c>
+      <c r="U7">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Jeff', 'Browns', 0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,1],</v>
+        <f t="shared" ref="A8:A34" si="2">CONCATENATE("['",$C8,"', ","'",$D8,"', ",$E8,",",$F8,",",$G8,",",$H8,",",$I8,",",$J8,",",$K8,",",$L8,",",$M8,",",$N8,",",$O8,",",$P8,",",$Q8,",",$R8,",",$S8,",",$T8,",",$U8,"],")</f>
+        <v>['Jeff', 'Browns', 0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,1,1],</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" t="s">
@@ -1918,11 +1949,14 @@
       <c r="T8">
         <v>1</v>
       </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Zach', 'Buccaneers', 1,1,1,1,2,2,3,3,3,4,5,6,7,8,8,8],</v>
+        <f t="shared" si="2"/>
+        <v>['Zach', 'Buccaneers', 1,1,1,1,2,2,3,3,3,4,5,6,7,8,8,8,9],</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" t="s">
@@ -1979,11 +2013,14 @@
       <c r="T9">
         <v>8</v>
       </c>
+      <c r="U9">
+        <v>9</v>
+      </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Jeff', 'Cardinals', 0,1,1,1,2,3,3,3,3,4,4,4,5,5,5,6],</v>
+        <f t="shared" si="2"/>
+        <v>['Jeff', 'Cardinals', 0,1,1,1,2,3,3,3,3,4,4,4,5,5,5,6,7],</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" t="s">
@@ -2040,11 +2077,14 @@
       <c r="T10">
         <v>6</v>
       </c>
+      <c r="U10">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Jeff', 'Chargers', 0,1,1,1,1,2,3,3,4,4,4,5,5,5,5,5],</v>
+        <f t="shared" si="2"/>
+        <v>['Jeff', 'Chargers', 0,1,1,1,1,2,3,3,4,4,4,5,5,5,5,5,5],</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" t="s">
@@ -2101,11 +2141,14 @@
       <c r="T11">
         <v>5</v>
       </c>
+      <c r="U11">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Zach', 'Chiefs', 1,1,2,2,2,3,4,5,6,7,7,8,9,10,10,11],</v>
+        <f t="shared" si="2"/>
+        <v>['Zach', 'Chiefs', 1,1,2,2,2,3,4,5,6,7,7,8,9,10,10,11,12],</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" t="s">
@@ -2162,11 +2205,14 @@
       <c r="T12">
         <v>11</v>
       </c>
+      <c r="U12">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Greg', 'Colts', 0,0,1,1,2,2,3,3,4,4,5,5,6,6,7,7],</v>
+        <f t="shared" si="2"/>
+        <v>['Greg', 'Colts', 0,0,1,1,2,2,3,3,4,4,5,5,6,6,7,7,8],</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" t="s">
@@ -2223,11 +2269,14 @@
       <c r="T13">
         <v>7</v>
       </c>
+      <c r="U13">
+        <v>8</v>
+      </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Greg', 'Cowboys', 0,1,2,3,4,5,5,6,7,8,9,10,11,11,12,13],</v>
+        <f t="shared" si="2"/>
+        <v>['Greg', 'Cowboys', 0,1,2,3,4,5,5,6,7,8,9,10,11,11,12,13,13],</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" t="s">
@@ -2284,11 +2333,14 @@
       <c r="T14">
         <v>13</v>
       </c>
+      <c r="U14">
+        <v>13</v>
+      </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Tim', 'Dolphins', 0,0,1,1,1,2,3,3,4,5,6,7,7,8,9,10],</v>
+        <f t="shared" si="2"/>
+        <v>['Tim', 'Dolphins', 0,0,1,1,1,2,3,3,4,5,6,7,7,8,9,10,10],</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" t="s">
@@ -2345,11 +2397,14 @@
       <c r="T15">
         <v>10</v>
       </c>
+      <c r="U15">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Zach', 'Eagles', 1,2,3,3,3,3,4,4,4,5,5,5,5,5,5,6],</v>
+        <f t="shared" si="2"/>
+        <v>['Zach', 'Eagles', 1,2,3,3,3,3,4,4,4,5,5,5,5,5,5,6,7],</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" t="s">
@@ -2406,11 +2461,14 @@
       <c r="T16">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:20">
+      <c r="U16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Greg', 'Falcons', 0,1,2,3,4,4,4,5,6,6,6,7,7,8,9,10],</v>
+        <f t="shared" si="2"/>
+        <v>['Greg', 'Falcons', 0,1,2,3,4,4,4,5,6,6,6,7,7,8,9,10,11],</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" t="s">
@@ -2467,11 +2525,14 @@
       <c r="T17">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:20">
+      <c r="U17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Jeff', 'Giants', 1,2,2,2,2,3,4,4,5,6,7,8,8,9,10,10],</v>
+        <f t="shared" si="2"/>
+        <v>['Jeff', 'Giants', 1,2,2,2,2,3,4,4,5,6,7,8,8,9,10,10,11],</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" t="s">
@@ -2528,11 +2589,14 @@
       <c r="T18">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:20">
+      <c r="U18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Tim', 'Jaguars', 0,0,0,1,1,2,2,2,2,2,2,2,2,2,2,3],</v>
+        <f t="shared" si="2"/>
+        <v>['Tim', 'Jaguars', 0,0,0,1,1,2,2,2,2,2,2,2,2,2,2,3,3],</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" t="s">
@@ -2589,11 +2653,14 @@
       <c r="T19">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:20">
+      <c r="U19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Tim', 'Jets', 0,1,1,1,1,1,2,3,3,3,3,3,3,4,4,4],</v>
+        <f t="shared" si="2"/>
+        <v>['Tim', 'Jets', 0,1,1,1,1,1,2,3,3,3,3,3,3,4,4,4,5],</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" t="s">
@@ -2650,11 +2717,14 @@
       <c r="T20">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:20">
+      <c r="U20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
       <c r="A21" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Jeff', 'Lions', 1,1,1,1,2,3,4,4,5,5,6,7,8,9,9,9],</v>
+        <f t="shared" si="2"/>
+        <v>['Jeff', 'Lions', 1,1,1,1,2,3,4,4,5,5,6,7,8,9,9,9,9],</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" t="s">
@@ -2711,11 +2781,14 @@
       <c r="T21">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="1:20">
+      <c r="U21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Tim', 'Packers', 1,1,2,2,3,3,4,4,4,4,4,5,6,7,8,9],</v>
+        <f t="shared" si="2"/>
+        <v>['Tim', 'Packers', 1,1,2,2,3,3,4,4,4,4,4,5,6,7,8,9,10],</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" t="s">
@@ -2772,11 +2845,14 @@
       <c r="T22">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="1:20">
+      <c r="U22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
       <c r="A23" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Greg', 'Panthers', 0,1,1,1,1,1,1,2,3,3,4,4,4,5,6,6],</v>
+        <f t="shared" si="2"/>
+        <v>['Greg', 'Panthers', 0,1,1,1,1,1,1,2,3,3,4,4,4,5,6,6,6],</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" t="s">
@@ -2833,11 +2909,14 @@
       <c r="T23">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:20">
+      <c r="U23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
       <c r="A24" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Greg', 'Patriots', 1,2,3,3,4,5,6,7,7,7,8,9,10,11,12,13],</v>
+        <f t="shared" si="2"/>
+        <v>['Greg', 'Patriots', 1,2,3,3,4,5,6,7,7,7,8,9,10,11,12,13,14],</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" t="s">
@@ -2894,11 +2973,14 @@
       <c r="T24">
         <v>13</v>
       </c>
-    </row>
-    <row r="25" spans="1:20">
+      <c r="U24">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
       <c r="A25" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Tim', 'Raiders', 1,1,2,3,4,4,5,6,7,7,8,9,10,10,11,12],</v>
+        <f t="shared" si="2"/>
+        <v>['Tim', 'Raiders', 1,1,2,3,4,4,5,6,7,7,8,9,10,10,11,12,12],</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" t="s">
@@ -2955,11 +3037,14 @@
       <c r="T25">
         <v>12</v>
       </c>
-    </row>
-    <row r="26" spans="1:20">
+      <c r="U25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
       <c r="A26" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Zach', 'Rams', 0,1,2,3,3,3,3,3,3,4,4,4,4,4,4,4],</v>
+        <f t="shared" si="2"/>
+        <v>['Zach', 'Rams', 0,1,2,3,3,3,3,3,3,4,4,4,4,4,4,4,4],</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" t="s">
@@ -3016,11 +3101,14 @@
       <c r="T26">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:20">
+      <c r="U26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
       <c r="A27" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Jeff', 'Ravens', 1,2,3,3,3,3,3,3,4,5,5,6,7,7,8,8],</v>
+        <f t="shared" si="2"/>
+        <v>['Jeff', 'Ravens', 1,2,3,3,3,3,3,3,4,5,5,6,7,7,8,8,8],</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" t="s">
@@ -3077,11 +3165,14 @@
       <c r="T27">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:20">
+      <c r="U27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
       <c r="A28" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Greg', 'Redskins', 0,0,1,2,3,4,4,4,4,5,6,6,6,7,7,8],</v>
+        <f t="shared" si="2"/>
+        <v>['Greg', 'Redskins', 0,0,1,2,3,4,4,4,4,5,6,6,6,7,7,8,8],</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" t="s">
@@ -3138,11 +3229,14 @@
       <c r="T28">
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="1:20">
+      <c r="U28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
       <c r="A29" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Zach', 'Saints', 0,0,0,1,1,2,2,3,4,4,4,5,5,5,6,7],</v>
+        <f t="shared" si="2"/>
+        <v>['Zach', 'Saints', 0,0,0,1,1,2,2,3,4,4,4,5,5,5,6,7,7],</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" t="s">
@@ -3199,11 +3293,14 @@
       <c r="T29">
         <v>7</v>
       </c>
-    </row>
-    <row r="30" spans="1:20">
+      <c r="U29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
       <c r="A30" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Zach', 'Seahawks', 1,1,2,3,3,4,4,4,5,6,7,7,8,8,9,9],</v>
+        <f t="shared" si="2"/>
+        <v>['Zach', 'Seahawks', 1,1,2,3,3,4,4,4,5,6,7,7,8,8,9,9,10],</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" t="s">
@@ -3260,11 +3357,14 @@
       <c r="T30">
         <v>9</v>
       </c>
-    </row>
-    <row r="31" spans="1:20">
+      <c r="U30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
       <c r="A31" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Tim', 'Steelers', 1,2,2,3,4,4,4,4,4,4,5,6,7,8,9,10],</v>
+        <f t="shared" si="2"/>
+        <v>['Tim', 'Steelers', 1,2,2,3,4,4,4,4,4,4,5,6,7,8,9,10,11],</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" t="s">
@@ -3321,11 +3421,14 @@
       <c r="T31">
         <v>10</v>
       </c>
-    </row>
-    <row r="32" spans="1:20">
+      <c r="U31">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
       <c r="A32" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Jeff', 'Texans', 1,2,2,3,3,4,4,5,5,6,6,6,6,7,8,9],</v>
+        <f t="shared" si="2"/>
+        <v>['Jeff', 'Texans', 1,2,2,3,3,4,4,5,5,6,6,6,6,7,8,9,9],</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" t="s">
@@ -3382,11 +3485,14 @@
       <c r="T32">
         <v>9</v>
       </c>
+      <c r="U32">
+        <v>9</v>
+      </c>
     </row>
     <row r="33" spans="1:25">
       <c r="A33" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Zach', 'Titans', 0,1,1,1,2,3,3,4,4,5,5,6,6,7,8,8],</v>
+        <f t="shared" si="2"/>
+        <v>['Zach', 'Titans', 0,1,1,1,2,3,3,4,4,5,5,6,6,7,8,8,9],</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="9" t="s">
@@ -3443,11 +3549,14 @@
       <c r="T33">
         <v>8</v>
       </c>
+      <c r="U33">
+        <v>9</v>
+      </c>
     </row>
     <row r="34" spans="1:25">
       <c r="A34" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Tim', 'Vikings', 1,2,3,4,5,5,5,5,5,5,6,6,6,7,7,7],</v>
+        <f t="shared" si="2"/>
+        <v>['Tim', 'Vikings', 1,2,3,4,5,5,5,5,5,5,6,6,6,7,7,7,8],</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" t="s">
@@ -3503,6 +3612,9 @@
       </c>
       <c r="T34">
         <v>7</v>
+      </c>
+      <c r="U34">
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:25" s="4" customFormat="1" ht="4" customHeight="1">
@@ -3515,87 +3627,87 @@
         <v>32</v>
       </c>
       <c r="E36">
-        <f t="shared" ref="E36:U38" si="2">SUMIF($C$3:$C$34,$D36,E$3:E$34)</f>
+        <f t="shared" ref="E36:U38" si="3">SUMIF($C$3:$C$34,$D36,E$3:E$34)</f>
         <v>4</v>
       </c>
       <c r="F36" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="G36" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="H36" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="I36" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="J36" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="K36" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="L36" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="M36" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="N36" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="O36" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="P36" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="Q36" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="R36" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="S36" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>48</v>
       </c>
       <c r="T36" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>51</v>
       </c>
       <c r="U36" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>53</v>
       </c>
       <c r="V36" s="2">
-        <f t="shared" ref="U36:Y38" si="3">SUMIF($C$3:$C$34,$D36,V$3:V$34)</f>
+        <f t="shared" ref="U36:Y38" si="4">SUMIF($C$3:$C$34,$D36,V$3:V$34)</f>
         <v>0</v>
       </c>
       <c r="W36" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X36" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y36" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3604,87 +3716,87 @@
         <v>33</v>
       </c>
       <c r="E37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="F37" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="G37" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="H37" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="I37" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="J37" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="K37" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="L37" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="M37" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="N37" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="O37" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
       <c r="P37" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>48</v>
       </c>
       <c r="Q37" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>51</v>
       </c>
       <c r="R37" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
       <c r="S37" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>61</v>
       </c>
       <c r="T37" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>66</v>
       </c>
       <c r="U37" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>69</v>
       </c>
       <c r="V37" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W37" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X37" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y37" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3693,87 +3805,87 @@
         <v>34</v>
       </c>
       <c r="E38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="G38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="H38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="I38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="J38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="K38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="L38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="M38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="N38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="O38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="P38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
       <c r="Q38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="R38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>51</v>
       </c>
       <c r="S38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
       <c r="T38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="U38" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>65</v>
       </c>
       <c r="V38" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W38" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X38" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y38" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3782,87 +3894,87 @@
         <v>35</v>
       </c>
       <c r="E39">
-        <f t="shared" ref="E39:Y39" si="4">SUMIF($C$3:$C$34,$D$39,E$3:E$34)</f>
+        <f t="shared" ref="E39:Y39" si="5">SUMIF($C$3:$C$34,$D$39,E$3:E$34)</f>
         <v>5</v>
       </c>
       <c r="F39" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="G39" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="H39" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="I39" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="J39" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="K39" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="L39" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="M39" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="N39" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42</v>
       </c>
       <c r="O39" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44</v>
       </c>
       <c r="P39" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>48</v>
       </c>
       <c r="Q39" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>52</v>
       </c>
       <c r="R39" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
       <c r="S39" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
       <c r="T39" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="U39" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>67</v>
       </c>
       <c r="V39" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W39" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X39" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y39" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3885,7 +3997,7 @@
   <dimension ref="A1:Y36"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="K1" activePane="topRight" state="frozenSplit"/>
+      <pane xSplit="4" topLeftCell="L1" activePane="topRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="A2" sqref="A2:A31"/>
     </sheetView>
   </sheetViews>
@@ -3943,58 +4055,57 @@
         <v>42728</v>
       </c>
       <c r="N1" s="8">
-        <f t="shared" si="0"/>
-        <v>42735</v>
+        <v>42370</v>
       </c>
       <c r="O1" s="8">
         <f t="shared" si="0"/>
-        <v>42742</v>
+        <v>42377</v>
       </c>
       <c r="P1" s="8">
         <f t="shared" si="0"/>
-        <v>42749</v>
+        <v>42384</v>
       </c>
       <c r="Q1" s="8">
         <f t="shared" si="0"/>
-        <v>42756</v>
+        <v>42391</v>
       </c>
       <c r="R1" s="8">
         <f>Q1+7</f>
-        <v>42763</v>
+        <v>42398</v>
       </c>
       <c r="S1" s="8">
         <f t="shared" si="0"/>
-        <v>42770</v>
+        <v>42405</v>
       </c>
       <c r="T1" s="8">
         <f t="shared" si="0"/>
-        <v>42777</v>
+        <v>42412</v>
       </c>
       <c r="U1" s="8">
         <f t="shared" si="0"/>
-        <v>42784</v>
+        <v>42419</v>
       </c>
       <c r="V1" s="8">
         <f t="shared" si="0"/>
-        <v>42791</v>
+        <v>42426</v>
       </c>
       <c r="W1" s="8">
         <f t="shared" si="0"/>
-        <v>42798</v>
+        <v>42433</v>
       </c>
       <c r="X1" s="8">
         <f t="shared" si="0"/>
-        <v>42805</v>
+        <v>42440</v>
       </c>
       <c r="Y1" s="8">
         <f t="shared" si="0"/>
-        <v>42812</v>
+        <v>42447</v>
       </c>
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="2" t="str">
-        <f>CONCATENATE("['",$C2,"', ","'",$D2,"' ,",$E2,",",$F2,",",$G2,",",$H2,",",$I2,",",$J2,",",$K2,",",$L2,",",$M2,"],")</f>
-        <v>['Zach', 'Atlanta' ,1,3,6,9,10,10,12,13,15],</v>
+        <f>CONCATENATE("['",$C2,"', ","'",$D2,"' ,",$E2,",",$F2,",",$G2,",",$H2,",",$I2,",",$J2,",",$K2,",",$L2,",",$M2,",",$N2,"],")</f>
+        <v>['Zach', 'Atlanta' ,1,3,6,9,10,10,12,13,15,17],</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" t="s">
@@ -4030,11 +4141,14 @@
       <c r="M2">
         <v>15</v>
       </c>
+      <c r="N2">
+        <v>17</v>
+      </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="2" t="str">
-        <f t="shared" ref="A3:A31" si="1">CONCATENATE("['",$C3,"', ","'",$D3,"' ,",$E3,",",$F3,",",$G3,",",$H3,",",$I3,",",$J3,",",$K3,",",$L3,",",$M3,"],")</f>
-        <v>['Jeff', 'Boston' ,1,3,4,6,9,11,13,14,17],</v>
+        <f t="shared" ref="A3:A31" si="1">CONCATENATE("['",$C3,"', ","'",$D3,"' ,",$E3,",",$F3,",",$G3,",",$H3,",",$I3,",",$J3,",",$K3,",",$L3,",",$M3,",",$N3,"],")</f>
+        <v>['Jeff', 'Boston' ,1,3,4,6,9,11,13,14,17,20],</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" t="s">
@@ -4070,11 +4184,14 @@
       <c r="M3">
         <v>17</v>
       </c>
+      <c r="N3">
+        <v>20</v>
+      </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Brooklyn' ,1,2,3,4,4,5,6,7,7],</v>
+        <v>['Zach', 'Brooklyn' ,1,2,3,4,4,5,6,7,7,8],</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" t="s">
@@ -4110,11 +4227,14 @@
       <c r="M4">
         <v>7</v>
       </c>
+      <c r="N4">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Charlotte' ,2,4,6,8,8,11,14,15,17],</v>
+        <v>['Jeff', 'Charlotte' ,2,4,6,8,8,11,14,15,17,19],</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" t="s">
@@ -4150,11 +4270,14 @@
       <c r="M5">
         <v>17</v>
       </c>
+      <c r="N5">
+        <v>19</v>
+      </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Chicago' ,1,3,5,8,10,11,12,13,14],</v>
+        <v>['Greg', 'Chicago' ,1,3,5,8,10,11,12,13,14,16],</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" t="s">
@@ -4190,11 +4313,14 @@
       <c r="M6">
         <v>14</v>
       </c>
+      <c r="N6">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Cleveland' ,2,5,7,10,12,13,16,19,22],</v>
+        <v>['Tim', 'Cleveland' ,2,5,7,10,12,13,16,19,22,25],</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" t="s">
@@ -4230,11 +4356,14 @@
       <c r="M7">
         <v>22</v>
       </c>
+      <c r="N7">
+        <v>25</v>
+      </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Dallas' ,0,0,2,2,2,3,5,6,9],</v>
+        <v>['Tim', 'Dallas' ,0,0,2,2,2,3,5,6,9,10],</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" t="s">
@@ -4270,11 +4399,14 @@
       <c r="M8">
         <v>9</v>
       </c>
+      <c r="N8">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Denver' ,1,2,3,4,6,7,8,11,12],</v>
+        <v>['Tim', 'Denver' ,1,2,3,4,6,7,8,11,12,14],</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" t="s">
@@ -4310,11 +4442,14 @@
       <c r="M9">
         <v>12</v>
       </c>
+      <c r="N9">
+        <v>14</v>
+      </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Detroit' ,1,3,4,6,8,11,13,14,14],</v>
+        <v>['Greg', 'Detroit' ,1,3,4,6,8,11,13,14,14,15],</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" t="s">
@@ -4350,11 +4485,14 @@
       <c r="M10">
         <v>14</v>
       </c>
+      <c r="N10">
+        <v>15</v>
+      </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Golden State' ,1,4,7,9,14,16,20,24,27],</v>
+        <v>['Zach', 'Golden State' ,1,4,7,9,14,16,20,24,27,29],</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" t="s">
@@ -4390,11 +4528,14 @@
       <c r="M11">
         <v>27</v>
       </c>
+      <c r="N11">
+        <v>29</v>
+      </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Houston' ,1,3,5,7,10,13,16,21,22],</v>
+        <v>['Jeff', 'Houston' ,1,3,5,7,10,13,16,21,22,26],</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" t="s">
@@ -4430,11 +4571,14 @@
       <c r="M12">
         <v>22</v>
       </c>
+      <c r="N12">
+        <v>26</v>
+      </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Indiana' ,1,2,4,6,8,9,11,14,15],</v>
+        <v>['Tim', 'Indiana' ,1,2,4,6,8,9,11,14,15,16],</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" t="s">
@@ -4470,11 +4614,14 @@
       <c r="M13">
         <v>15</v>
       </c>
+      <c r="N13">
+        <v>16</v>
+      </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'L.A. Lakers' ,1,3,5,7,8,10,10,11,11],</v>
+        <v>['Tim', 'L.A. Lakers' ,1,3,5,7,8,10,10,11,11,12],</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" t="s">
@@ -4510,11 +4657,14 @@
       <c r="M14">
         <v>11</v>
       </c>
+      <c r="N14">
+        <v>12</v>
+      </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'LA Clippers' ,1,4,8,11,14,16,16,20,22],</v>
+        <v>['Greg', 'LA Clippers' ,1,4,8,11,14,16,16,20,22,22],</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" t="s">
@@ -4550,11 +4700,14 @@
       <c r="M15">
         <v>22</v>
       </c>
+      <c r="N15">
+        <v>22</v>
+      </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Memphis' ,1,3,4,7,10,12,16,18,20],</v>
+        <v>['Tim', 'Memphis' ,1,3,4,7,10,12,16,18,20,22],</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" t="s">
@@ -4590,11 +4743,14 @@
       <c r="M16">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Miami' ,1,2,2,3,5,7,7,9,10],</v>
+        <v>['Zach', 'Miami' ,1,2,2,3,5,7,7,9,10,10],</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" t="s">
@@ -4630,11 +4786,14 @@
       <c r="M17">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Milwaukee' ,0,3,4,5,6,9,11,13,14],</v>
+        <v>['Greg', 'Milwaukee' ,0,3,4,5,6,9,11,13,14,16],</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" t="s">
@@ -4670,11 +4829,14 @@
       <c r="M18">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Minnesota' ,0,1,2,4,5,5,6,7,9],</v>
+        <v>['Jeff', 'Minnesota' ,0,1,2,4,5,5,6,7,9,11],</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" t="s">
@@ -4710,11 +4872,14 @@
       <c r="M19">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'New Orleans' ,0,0,1,2,6,7,7,9,11],</v>
+        <v>['Zach', 'New Orleans' ,0,0,1,2,6,7,7,9,11,14],</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" t="s">
@@ -4750,11 +4915,14 @@
       <c r="M20">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'New York' ,0,2,3,5,8,10,13,14,16],</v>
+        <v>['Zach', 'New York' ,0,2,3,5,8,10,13,14,16,16],</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" t="s">
@@ -4790,11 +4958,14 @@
       <c r="M21">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Oklahoma City' ,2,4,6,7,9,12,14,16,18],</v>
+        <v>['Jeff', 'Oklahoma City' ,2,4,6,7,9,12,14,16,18,21],</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" t="s">
@@ -4830,11 +5001,14 @@
       <c r="M22">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Orlando' ,0,2,3,5,6,8,10,12,14],</v>
+        <v>['Greg', 'Orlando' ,0,2,3,5,6,8,10,12,14,15],</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" t="s">
@@ -4870,11 +5044,14 @@
       <c r="M23">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['', 'Philadelphia' ,0,0,1,2,4,4,5,6,7],</v>
+        <v>['', 'Philadelphia' ,0,0,1,2,4,4,5,6,7,8],</v>
       </c>
       <c r="B24" s="3"/>
       <c r="D24" t="s">
@@ -4907,11 +5084,14 @@
       <c r="M24">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['', 'Phoenix' ,0,2,3,3,5,6,7,8,9],</v>
+        <v>['', 'Phoenix' ,0,2,3,3,5,6,7,8,9,10],</v>
       </c>
       <c r="B25" s="3"/>
       <c r="D25" t="s">
@@ -4944,11 +5124,14 @@
       <c r="M25">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="N25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Portland' ,1,3,6,7,9,10,12,13,13],</v>
+        <v>['Greg', 'Portland' ,1,3,6,7,9,10,12,13,13,14],</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" t="s">
@@ -4984,11 +5167,14 @@
       <c r="M26">
         <v>13</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Sacramento' ,1,2,4,4,6,7,8,10,13],</v>
+        <v>['Jeff', 'Sacramento' ,1,2,4,4,6,7,8,10,13,14],</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" t="s">
@@ -5024,11 +5210,14 @@
       <c r="M27">
         <v>13</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'San Antonio' ,2,5,6,10,13,16,18,21,24],</v>
+        <v>['Jeff', 'San Antonio' ,2,5,6,10,13,16,18,21,24,27],</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" t="s">
@@ -5064,11 +5253,14 @@
       <c r="M28">
         <v>24</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="N28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Toronto' ,1,4,6,8,10,13,16,18,21],</v>
+        <v>['Greg', 'Toronto' ,1,4,6,8,10,13,16,18,21,22],</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" t="s">
@@ -5104,11 +5296,14 @@
       <c r="M29">
         <v>21</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Utah' ,1,3,6,7,9,11,14,17,18],</v>
+        <v>['Zach', 'Utah' ,1,3,6,7,9,11,14,17,18,21],</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" t="s">
@@ -5144,11 +5339,14 @@
       <c r="M30">
         <v>18</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Washington' ,0,1,2,3,5,6,8,11,13],</v>
+        <v>['Tim', 'Washington' ,0,1,2,3,5,6,8,11,13,16],</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" t="s">
@@ -5184,8 +5382,11 @@
       <c r="M31">
         <v>13</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" s="4" customFormat="1" ht="4" customHeight="1">
+      <c r="N31">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" s="4" customFormat="1" ht="4" customHeight="1">
       <c r="A32" s="2"/>
       <c r="B32" s="3"/>
       <c r="F32" s="3"/>
@@ -5232,7 +5433,7 @@
       </c>
       <c r="N33" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34" spans="4:14">
@@ -5277,7 +5478,7 @@
       </c>
       <c r="N34" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="4:14">
@@ -5322,7 +5523,7 @@
       </c>
       <c r="N35" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" spans="4:14">
@@ -5367,7 +5568,7 @@
       </c>
       <c r="N36" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/NFL Wins.xlsx
+++ b/NFL Wins.xlsx
@@ -479,7 +479,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="163">
+  <cellStyleXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -578,6 +578,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -662,7 +668,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="163">
+  <cellStyles count="169">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -746,6 +752,9 @@
     <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -825,6 +834,9 @@
     <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1444,10 +1456,10 @@
   <dimension ref="A1:Y39"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A34" sqref="A3:A34"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1571,8 +1583,8 @@
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="2" t="str">
-        <f>CONCATENATE("['",$C3,"', ","'",$D3,"', ",$E3,",",$F3,",",$G3,",",$H3,",",$I3,",",$J3,",",$K3,",",$L3,",",$M3,",",$N3,",",$O3,",",$P3,",",$Q3,",",$R3,",",$S3,",",$T3,"],")</f>
-        <v>['Greg', '49ers', 1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,2],</v>
+        <f>CONCATENATE("['",$C3,"', ","'",$D3,"', ",$E3,",",$F3,",",$G3,",",$H3,",",$I3,",",$J3,",",$K3,",",$L3,",",$M3,",",$N3,",",$O3,",",$P3,",",$Q3,",",$R3,",",$S3,",",$T3,",",$U3,"],")</f>
+        <v>['Greg', '49ers', 1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,2,2],</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" t="s">
@@ -1632,11 +1644,23 @@
       <c r="U3">
         <v>2</v>
       </c>
+      <c r="V3">
+        <v>2</v>
+      </c>
+      <c r="W3">
+        <v>2</v>
+      </c>
+      <c r="X3">
+        <v>2</v>
+      </c>
+      <c r="Y3">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="2" t="str">
-        <f t="shared" ref="A4:A34" si="1">CONCATENATE("['",$C4,"', ","'",$D4,"', ",$E4,",",$F4,",",$G4,",",$H4,",",$I4,",",$J4,",",$K4,",",$L4,",",$M4,",",$N4,",",$O4,",",$P4,",",$Q4,",",$R4,",",$S4,",",$T4,"],")</f>
-        <v>['Jeff', 'Bears', 0,0,0,1,1,1,1,2,2,2,2,2,3,3,3,3],</v>
+        <f t="shared" ref="A4:A34" si="1">CONCATENATE("['",$C4,"', ","'",$D4,"', ",$E4,",",$F4,",",$G4,",",$H4,",",$I4,",",$J4,",",$K4,",",$L4,",",$M4,",",$N4,",",$O4,",",$P4,",",$Q4,",",$R4,",",$S4,",",$T4,",",$U4,"],")</f>
+        <v>['Jeff', 'Bears', 0,0,0,1,1,1,1,2,2,2,2,2,3,3,3,3,3],</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" t="s">
@@ -1696,11 +1720,23 @@
       <c r="U4">
         <v>3</v>
       </c>
+      <c r="V4">
+        <v>3</v>
+      </c>
+      <c r="W4">
+        <v>3</v>
+      </c>
+      <c r="X4">
+        <v>3</v>
+      </c>
+      <c r="Y4">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Bengals', 1,1,1,2,2,2,3,3,3,3,3,3,4,5,5,5],</v>
+        <v>['Tim', 'Bengals', 1,1,1,2,2,2,3,3,3,3,3,3,4,5,5,5,6],</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" t="s">
@@ -1760,11 +1796,23 @@
       <c r="U5">
         <v>6</v>
       </c>
+      <c r="V5">
+        <v>6</v>
+      </c>
+      <c r="W5">
+        <v>6</v>
+      </c>
+      <c r="X5">
+        <v>6</v>
+      </c>
+      <c r="Y5">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Bills', 0,0,1,2,3,4,4,4,4,4,5,6,6,6,7,7],</v>
+        <v>['Greg', 'Bills', 0,0,1,2,3,4,4,4,4,4,5,6,6,6,7,7,7],</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" t="s">
@@ -1824,10 +1872,22 @@
       <c r="U6">
         <v>7</v>
       </c>
+      <c r="V6">
+        <v>7</v>
+      </c>
+      <c r="W6">
+        <v>7</v>
+      </c>
+      <c r="X6">
+        <v>7</v>
+      </c>
+      <c r="Y6">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="2" t="str">
-        <f>CONCATENATE("['",$C7,"', ","'",$D7,"', ",$E7,",",$F7,",",$G7,",",$H7,",",$I7,",",$J7,",",$K7,",",$L7,",",$M7,",",$N7,",",$O7,",",$P7,",",$Q7,",",$R7,",",$S7,",",$T7,",",$U7,"],")</f>
+        <f t="shared" si="1"/>
         <v>['Zach', 'Broncos', 1,2,3,4,4,4,5,6,6,7,7,7,8,8,8,8,9],</v>
       </c>
       <c r="B7" s="3"/>
@@ -1888,10 +1948,22 @@
       <c r="U7">
         <v>9</v>
       </c>
+      <c r="V7">
+        <v>9</v>
+      </c>
+      <c r="W7">
+        <v>9</v>
+      </c>
+      <c r="X7">
+        <v>9</v>
+      </c>
+      <c r="Y7">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="2" t="str">
-        <f t="shared" ref="A8:A34" si="2">CONCATENATE("['",$C8,"', ","'",$D8,"', ",$E8,",",$F8,",",$G8,",",$H8,",",$I8,",",$J8,",",$K8,",",$L8,",",$M8,",",$N8,",",$O8,",",$P8,",",$Q8,",",$R8,",",$S8,",",$T8,",",$U8,"],")</f>
+        <f t="shared" si="1"/>
         <v>['Jeff', 'Browns', 0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,1,1],</v>
       </c>
       <c r="B8" s="3"/>
@@ -1952,10 +2024,22 @@
       <c r="U8">
         <v>1</v>
       </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>['Zach', 'Buccaneers', 1,1,1,1,2,2,3,3,3,4,5,6,7,8,8,8,9],</v>
       </c>
       <c r="B9" s="3"/>
@@ -2016,10 +2100,22 @@
       <c r="U9">
         <v>9</v>
       </c>
+      <c r="V9">
+        <v>9</v>
+      </c>
+      <c r="W9">
+        <v>9</v>
+      </c>
+      <c r="X9">
+        <v>9</v>
+      </c>
+      <c r="Y9">
+        <v>9</v>
+      </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>['Jeff', 'Cardinals', 0,1,1,1,2,3,3,3,3,4,4,4,5,5,5,6,7],</v>
       </c>
       <c r="B10" s="3"/>
@@ -2080,10 +2176,22 @@
       <c r="U10">
         <v>7</v>
       </c>
+      <c r="V10">
+        <v>7</v>
+      </c>
+      <c r="W10">
+        <v>7</v>
+      </c>
+      <c r="X10">
+        <v>7</v>
+      </c>
+      <c r="Y10">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>['Jeff', 'Chargers', 0,1,1,1,1,2,3,3,4,4,4,5,5,5,5,5,5],</v>
       </c>
       <c r="B11" s="3"/>
@@ -2144,10 +2252,22 @@
       <c r="U11">
         <v>5</v>
       </c>
+      <c r="V11">
+        <v>5</v>
+      </c>
+      <c r="W11">
+        <v>5</v>
+      </c>
+      <c r="X11">
+        <v>5</v>
+      </c>
+      <c r="Y11">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>['Zach', 'Chiefs', 1,1,2,2,2,3,4,5,6,7,7,8,9,10,10,11,12],</v>
       </c>
       <c r="B12" s="3"/>
@@ -2211,7 +2331,7 @@
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>['Greg', 'Colts', 0,0,1,1,2,2,3,3,4,4,5,5,6,6,7,7,8],</v>
       </c>
       <c r="B13" s="3"/>
@@ -2272,10 +2392,22 @@
       <c r="U13">
         <v>8</v>
       </c>
+      <c r="V13">
+        <v>8</v>
+      </c>
+      <c r="W13">
+        <v>8</v>
+      </c>
+      <c r="X13">
+        <v>8</v>
+      </c>
+      <c r="Y13">
+        <v>8</v>
+      </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>['Greg', 'Cowboys', 0,1,2,3,4,5,5,6,7,8,9,10,11,11,12,13,13],</v>
       </c>
       <c r="B14" s="3"/>
@@ -2339,7 +2471,7 @@
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>['Tim', 'Dolphins', 0,0,1,1,1,2,3,3,4,5,6,7,7,8,9,10,10],</v>
       </c>
       <c r="B15" s="3"/>
@@ -2403,7 +2535,7 @@
     </row>
     <row r="16" spans="1:25">
       <c r="A16" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>['Zach', 'Eagles', 1,2,3,3,3,3,4,4,4,5,5,5,5,5,5,6,7],</v>
       </c>
       <c r="B16" s="3"/>
@@ -2464,10 +2596,22 @@
       <c r="U16">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:21">
+      <c r="V16">
+        <v>7</v>
+      </c>
+      <c r="W16">
+        <v>7</v>
+      </c>
+      <c r="X16">
+        <v>7</v>
+      </c>
+      <c r="Y16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
       <c r="A17" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>['Greg', 'Falcons', 0,1,2,3,4,4,4,5,6,6,6,7,7,8,9,10,11],</v>
       </c>
       <c r="B17" s="3"/>
@@ -2529,9 +2673,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:25">
       <c r="A18" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>['Jeff', 'Giants', 1,2,2,2,2,3,4,4,5,6,7,8,8,9,10,10,11],</v>
       </c>
       <c r="B18" s="3"/>
@@ -2593,9 +2737,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:25">
       <c r="A19" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>['Tim', 'Jaguars', 0,0,0,1,1,2,2,2,2,2,2,2,2,2,2,3,3],</v>
       </c>
       <c r="B19" s="3"/>
@@ -2656,10 +2800,22 @@
       <c r="U19">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:21">
+      <c r="V19">
+        <v>3</v>
+      </c>
+      <c r="W19">
+        <v>3</v>
+      </c>
+      <c r="X19">
+        <v>3</v>
+      </c>
+      <c r="Y19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
       <c r="A20" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>['Tim', 'Jets', 0,1,1,1,1,1,2,3,3,3,3,3,3,4,4,4,5],</v>
       </c>
       <c r="B20" s="3"/>
@@ -2720,10 +2876,22 @@
       <c r="U20">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:21">
+      <c r="V20">
+        <v>5</v>
+      </c>
+      <c r="W20">
+        <v>5</v>
+      </c>
+      <c r="X20">
+        <v>5</v>
+      </c>
+      <c r="Y20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
       <c r="A21" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>['Jeff', 'Lions', 1,1,1,1,2,3,4,4,5,5,6,7,8,9,9,9,9],</v>
       </c>
       <c r="B21" s="3"/>
@@ -2785,9 +2953,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:25">
       <c r="A22" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>['Tim', 'Packers', 1,1,2,2,3,3,4,4,4,4,4,5,6,7,8,9,10],</v>
       </c>
       <c r="B22" s="3"/>
@@ -2849,9 +3017,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:25">
       <c r="A23" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>['Greg', 'Panthers', 0,1,1,1,1,1,1,2,3,3,4,4,4,5,6,6,6],</v>
       </c>
       <c r="B23" s="3"/>
@@ -2912,10 +3080,22 @@
       <c r="U23">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:21">
+      <c r="V23">
+        <v>6</v>
+      </c>
+      <c r="W23">
+        <v>6</v>
+      </c>
+      <c r="X23">
+        <v>6</v>
+      </c>
+      <c r="Y23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
       <c r="A24" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>['Greg', 'Patriots', 1,2,3,3,4,5,6,7,7,7,8,9,10,11,12,13,14],</v>
       </c>
       <c r="B24" s="3"/>
@@ -2977,9 +3157,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:25">
       <c r="A25" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>['Tim', 'Raiders', 1,1,2,3,4,4,5,6,7,7,8,9,10,10,11,12,12],</v>
       </c>
       <c r="B25" s="3"/>
@@ -3041,9 +3221,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:25">
       <c r="A26" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>['Zach', 'Rams', 0,1,2,3,3,3,3,3,3,4,4,4,4,4,4,4,4],</v>
       </c>
       <c r="B26" s="3"/>
@@ -3104,10 +3284,22 @@
       <c r="U26">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:21">
+      <c r="V26">
+        <v>4</v>
+      </c>
+      <c r="W26">
+        <v>4</v>
+      </c>
+      <c r="X26">
+        <v>4</v>
+      </c>
+      <c r="Y26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25">
       <c r="A27" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>['Jeff', 'Ravens', 1,2,3,3,3,3,3,3,4,5,5,6,7,7,8,8,8],</v>
       </c>
       <c r="B27" s="3"/>
@@ -3168,10 +3360,22 @@
       <c r="U27">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:21">
+      <c r="V27">
+        <v>8</v>
+      </c>
+      <c r="W27">
+        <v>8</v>
+      </c>
+      <c r="X27">
+        <v>8</v>
+      </c>
+      <c r="Y27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25">
       <c r="A28" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>['Greg', 'Redskins', 0,0,1,2,3,4,4,4,4,5,6,6,6,7,7,8,8],</v>
       </c>
       <c r="B28" s="3"/>
@@ -3232,10 +3436,22 @@
       <c r="U28">
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="1:21">
+      <c r="V28">
+        <v>8</v>
+      </c>
+      <c r="W28">
+        <v>8</v>
+      </c>
+      <c r="X28">
+        <v>8</v>
+      </c>
+      <c r="Y28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25">
       <c r="A29" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>['Zach', 'Saints', 0,0,0,1,1,2,2,3,4,4,4,5,5,5,6,7,7],</v>
       </c>
       <c r="B29" s="3"/>
@@ -3296,10 +3512,22 @@
       <c r="U29">
         <v>7</v>
       </c>
-    </row>
-    <row r="30" spans="1:21">
+      <c r="V29">
+        <v>7</v>
+      </c>
+      <c r="W29">
+        <v>7</v>
+      </c>
+      <c r="X29">
+        <v>7</v>
+      </c>
+      <c r="Y29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25">
       <c r="A30" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>['Zach', 'Seahawks', 1,1,2,3,3,4,4,4,5,6,7,7,8,8,9,9,10],</v>
       </c>
       <c r="B30" s="3"/>
@@ -3361,9 +3589,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:25">
       <c r="A31" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>['Tim', 'Steelers', 1,2,2,3,4,4,4,4,4,4,5,6,7,8,9,10,11],</v>
       </c>
       <c r="B31" s="3"/>
@@ -3425,9 +3653,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:25">
       <c r="A32" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>['Jeff', 'Texans', 1,2,2,3,3,4,4,5,5,6,6,6,6,7,8,9,9],</v>
       </c>
       <c r="B32" s="3"/>
@@ -3491,7 +3719,7 @@
     </row>
     <row r="33" spans="1:25">
       <c r="A33" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>['Zach', 'Titans', 0,1,1,1,2,3,3,4,4,5,5,6,6,7,8,8,9],</v>
       </c>
       <c r="B33" s="3"/>
@@ -3552,10 +3780,22 @@
       <c r="U33">
         <v>9</v>
       </c>
+      <c r="V33">
+        <v>9</v>
+      </c>
+      <c r="W33">
+        <v>9</v>
+      </c>
+      <c r="X33">
+        <v>9</v>
+      </c>
+      <c r="Y33">
+        <v>9</v>
+      </c>
     </row>
     <row r="34" spans="1:25">
       <c r="A34" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>['Tim', 'Vikings', 1,2,3,4,5,5,5,5,5,5,6,6,6,7,7,7,8],</v>
       </c>
       <c r="B34" s="3"/>
@@ -3614,6 +3854,18 @@
         <v>7</v>
       </c>
       <c r="U34">
+        <v>8</v>
+      </c>
+      <c r="V34">
+        <v>8</v>
+      </c>
+      <c r="W34">
+        <v>8</v>
+      </c>
+      <c r="X34">
+        <v>8</v>
+      </c>
+      <c r="Y34">
         <v>8</v>
       </c>
     </row>
@@ -3627,88 +3879,88 @@
         <v>32</v>
       </c>
       <c r="E36">
-        <f t="shared" ref="E36:U38" si="3">SUMIF($C$3:$C$34,$D36,E$3:E$34)</f>
+        <f t="shared" ref="E36:U38" si="2">SUMIF($C$3:$C$34,$D36,E$3:E$34)</f>
         <v>4</v>
       </c>
       <c r="F36" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="G36" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="H36" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="I36" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="J36" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="K36" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="L36" s="2">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="M36" s="2">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="N36" s="2">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="O36" s="2">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="P36" s="2">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="Q36" s="2">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="R36" s="2">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="S36" s="2">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="T36" s="2">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="U36" s="2">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="V36" s="2">
+        <f t="shared" ref="U36:Y38" si="3">SUMIF($C$3:$C$34,$D36,V$3:V$34)</f>
+        <v>24</v>
+      </c>
+      <c r="W36" s="2">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="M36" s="2">
+      <c r="X36" s="2">
         <f t="shared" si="3"/>
-        <v>28</v>
-      </c>
-      <c r="N36" s="2">
+        <v>24</v>
+      </c>
+      <c r="Y36" s="2">
         <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="O36" s="2">
-        <f t="shared" si="3"/>
-        <v>34</v>
-      </c>
-      <c r="P36" s="2">
-        <f t="shared" si="3"/>
-        <v>38</v>
-      </c>
-      <c r="Q36" s="2">
-        <f t="shared" si="3"/>
-        <v>42</v>
-      </c>
-      <c r="R36" s="2">
-        <f t="shared" si="3"/>
-        <v>45</v>
-      </c>
-      <c r="S36" s="2">
-        <f t="shared" si="3"/>
-        <v>48</v>
-      </c>
-      <c r="T36" s="2">
-        <f t="shared" si="3"/>
-        <v>51</v>
-      </c>
-      <c r="U36" s="2">
-        <f t="shared" si="3"/>
-        <v>53</v>
-      </c>
-      <c r="V36" s="2">
-        <f t="shared" ref="U36:Y38" si="4">SUMIF($C$3:$C$34,$D36,V$3:V$34)</f>
-        <v>0</v>
-      </c>
-      <c r="W36" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X36" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y36" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:25">
@@ -3716,88 +3968,88 @@
         <v>33</v>
       </c>
       <c r="E37">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F37" s="2">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="G37" s="2">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="H37" s="2">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="I37" s="2">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="J37" s="2">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="K37" s="2">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="L37" s="2">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="M37" s="2">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="N37" s="2">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="O37" s="2">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="P37" s="2">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="Q37" s="2">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="R37" s="2">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="S37" s="2">
+        <f t="shared" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="T37" s="2">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="U37" s="2">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="F37" s="2">
+        <v>69</v>
+      </c>
+      <c r="V37" s="2">
         <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="G37" s="2">
+        <v>31</v>
+      </c>
+      <c r="W37" s="2">
         <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="H37" s="2">
+        <v>31</v>
+      </c>
+      <c r="X37" s="2">
         <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="I37" s="2">
+        <v>31</v>
+      </c>
+      <c r="Y37" s="2">
         <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-      <c r="J37" s="2">
-        <f t="shared" si="3"/>
-        <v>26</v>
-      </c>
-      <c r="K37" s="2">
-        <f t="shared" si="3"/>
-        <v>28</v>
-      </c>
-      <c r="L37" s="2">
-        <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="M37" s="2">
-        <f t="shared" si="3"/>
-        <v>36</v>
-      </c>
-      <c r="N37" s="2">
-        <f t="shared" si="3"/>
-        <v>38</v>
-      </c>
-      <c r="O37" s="2">
-        <f t="shared" si="3"/>
-        <v>44</v>
-      </c>
-      <c r="P37" s="2">
-        <f t="shared" si="3"/>
-        <v>48</v>
-      </c>
-      <c r="Q37" s="2">
-        <f t="shared" si="3"/>
-        <v>51</v>
-      </c>
-      <c r="R37" s="2">
-        <f t="shared" si="3"/>
-        <v>55</v>
-      </c>
-      <c r="S37" s="2">
-        <f t="shared" si="3"/>
-        <v>61</v>
-      </c>
-      <c r="T37" s="2">
-        <f t="shared" si="3"/>
-        <v>66</v>
-      </c>
-      <c r="U37" s="2">
-        <f t="shared" si="4"/>
-        <v>69</v>
-      </c>
-      <c r="V37" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W37" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X37" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y37" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:25">
@@ -3805,88 +4057,88 @@
         <v>34</v>
       </c>
       <c r="E38">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="F38" s="2">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="G38" s="2">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="H38" s="2">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="I38" s="2">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="J38" s="2">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="K38" s="2">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="L38" s="2">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="M38" s="2">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="N38" s="2">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="O38" s="2">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="P38" s="2">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="Q38" s="2">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="R38" s="2">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="S38" s="2">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="T38" s="2">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="U38" s="2">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="F38" s="2">
+        <v>65</v>
+      </c>
+      <c r="V38" s="2">
         <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="G38" s="2">
+        <v>22</v>
+      </c>
+      <c r="W38" s="2">
         <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="H38" s="2">
+        <v>22</v>
+      </c>
+      <c r="X38" s="2">
         <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="I38" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y38" s="2">
         <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
-      <c r="J38" s="2">
-        <f t="shared" si="3"/>
-        <v>23</v>
-      </c>
-      <c r="K38" s="2">
-        <f t="shared" si="3"/>
-        <v>28</v>
-      </c>
-      <c r="L38" s="2">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="M38" s="2">
-        <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="N38" s="2">
-        <f t="shared" si="3"/>
-        <v>33</v>
-      </c>
-      <c r="O38" s="2">
-        <f t="shared" si="3"/>
-        <v>37</v>
-      </c>
-      <c r="P38" s="2">
-        <f t="shared" si="3"/>
-        <v>41</v>
-      </c>
-      <c r="Q38" s="2">
-        <f t="shared" si="3"/>
-        <v>45</v>
-      </c>
-      <c r="R38" s="2">
-        <f t="shared" si="3"/>
-        <v>51</v>
-      </c>
-      <c r="S38" s="2">
-        <f t="shared" si="3"/>
-        <v>55</v>
-      </c>
-      <c r="T38" s="2">
-        <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-      <c r="U38" s="2">
-        <f t="shared" si="4"/>
-        <v>65</v>
-      </c>
-      <c r="V38" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W38" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X38" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y38" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:25">
@@ -3894,88 +4146,88 @@
         <v>35</v>
       </c>
       <c r="E39">
-        <f t="shared" ref="E39:Y39" si="5">SUMIF($C$3:$C$34,$D$39,E$3:E$34)</f>
+        <f t="shared" ref="E39:Y39" si="4">SUMIF($C$3:$C$34,$D$39,E$3:E$34)</f>
         <v>5</v>
       </c>
       <c r="F39" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="G39" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="H39" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="I39" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="J39" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="K39" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="L39" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="M39" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="N39" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
       <c r="O39" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
       <c r="P39" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
       <c r="Q39" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>52</v>
       </c>
       <c r="R39" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
       <c r="S39" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>58</v>
       </c>
       <c r="T39" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>61</v>
       </c>
       <c r="U39" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>67</v>
       </c>
       <c r="V39" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>45</v>
       </c>
       <c r="W39" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>45</v>
       </c>
       <c r="X39" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>45</v>
       </c>
       <c r="Y39" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/NFL Wins.xlsx
+++ b/NFL Wins.xlsx
@@ -479,7 +479,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="169">
+  <cellStyleXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -578,6 +578,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -668,7 +672,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="169">
+  <cellStyles count="173">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -755,6 +759,8 @@
     <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -837,6 +843,8 @@
     <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1456,10 +1464,10 @@
   <dimension ref="A1:Y39"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="U5" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A3:A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1583,8 +1591,8 @@
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="2" t="str">
-        <f>CONCATENATE("['",$C3,"', ","'",$D3,"', ",$E3,",",$F3,",",$G3,",",$H3,",",$I3,",",$J3,",",$K3,",",$L3,",",$M3,",",$N3,",",$O3,",",$P3,",",$Q3,",",$R3,",",$S3,",",$T3,",",$U3,"],")</f>
-        <v>['Greg', '49ers', 1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,2,2],</v>
+        <f>CONCATENATE("['",$C3,"', ","'",$D3,"', ",$E3,",",$F3,",",$G3,",",$H3,",",$I3,",",$J3,",",$K3,",",$L3,",",$M3,",",$N3,",",$O3,",",$P3,",",$Q3,",",$R3,",",$S3,",",$T3,",",$U3,",",$V3,"],")</f>
+        <v>['Greg', '49ers', 1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,2,2,2],</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" t="s">
@@ -1659,8 +1667,8 @@
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="2" t="str">
-        <f t="shared" ref="A4:A34" si="1">CONCATENATE("['",$C4,"', ","'",$D4,"', ",$E4,",",$F4,",",$G4,",",$H4,",",$I4,",",$J4,",",$K4,",",$L4,",",$M4,",",$N4,",",$O4,",",$P4,",",$Q4,",",$R4,",",$S4,",",$T4,",",$U4,"],")</f>
-        <v>['Jeff', 'Bears', 0,0,0,1,1,1,1,2,2,2,2,2,3,3,3,3,3],</v>
+        <f>CONCATENATE("['",$C4,"', ","'",$D4,"', ",$E4,",",$F4,",",$G4,",",$H4,",",$I4,",",$J4,",",$K4,",",$L4,",",$M4,",",$N4,",",$O4,",",$P4,",",$Q4,",",$R4,",",$S4,",",$T4,",",$U4,",",$V4,"],")</f>
+        <v>['Jeff', 'Bears', 0,0,0,1,1,1,1,2,2,2,2,2,3,3,3,3,3,3],</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" t="s">
@@ -1735,8 +1743,8 @@
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>['Tim', 'Bengals', 1,1,1,2,2,2,3,3,3,3,3,3,4,5,5,5,6],</v>
+        <f t="shared" ref="A5:A34" si="1">CONCATENATE("['",$C5,"', ","'",$D5,"', ",$E5,",",$F5,",",$G5,",",$H5,",",$I5,",",$J5,",",$K5,",",$L5,",",$M5,",",$N5,",",$O5,",",$P5,",",$Q5,",",$R5,",",$S5,",",$T5,",",$U5,",",$V5,"],")</f>
+        <v>['Tim', 'Bengals', 1,1,1,2,2,2,3,3,3,3,3,3,4,5,5,5,6,6],</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" t="s">
@@ -1812,7 +1820,7 @@
     <row r="6" spans="1:25">
       <c r="A6" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Bills', 0,0,1,2,3,4,4,4,4,4,5,6,6,6,7,7,7],</v>
+        <v>['Greg', 'Bills', 0,0,1,2,3,4,4,4,4,4,5,6,6,6,7,7,7,7],</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" t="s">
@@ -1888,7 +1896,7 @@
     <row r="7" spans="1:25">
       <c r="A7" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Broncos', 1,2,3,4,4,4,5,6,6,7,7,7,8,8,8,8,9],</v>
+        <v>['Zach', 'Broncos', 1,2,3,4,4,4,5,6,6,7,7,7,8,8,8,8,9,9],</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" t="s">
@@ -1964,7 +1972,7 @@
     <row r="8" spans="1:25">
       <c r="A8" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Browns', 0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,1,1],</v>
+        <v>['Jeff', 'Browns', 0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,1,1,1],</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" t="s">
@@ -2040,7 +2048,7 @@
     <row r="9" spans="1:25">
       <c r="A9" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Buccaneers', 1,1,1,1,2,2,3,3,3,4,5,6,7,8,8,8,9],</v>
+        <v>['Zach', 'Buccaneers', 1,1,1,1,2,2,3,3,3,4,5,6,7,8,8,8,9,9],</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" t="s">
@@ -2116,7 +2124,7 @@
     <row r="10" spans="1:25">
       <c r="A10" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Cardinals', 0,1,1,1,2,3,3,3,3,4,4,4,5,5,5,6,7],</v>
+        <v>['Jeff', 'Cardinals', 0,1,1,1,2,3,3,3,3,4,4,4,5,5,5,6,7,7],</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" t="s">
@@ -2192,7 +2200,7 @@
     <row r="11" spans="1:25">
       <c r="A11" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Chargers', 0,1,1,1,1,2,3,3,4,4,4,5,5,5,5,5,5],</v>
+        <v>['Jeff', 'Chargers', 0,1,1,1,1,2,3,3,4,4,4,5,5,5,5,5,5,5],</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" t="s">
@@ -2268,7 +2276,7 @@
     <row r="12" spans="1:25">
       <c r="A12" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Chiefs', 1,1,2,2,2,3,4,5,6,7,7,8,9,10,10,11,12],</v>
+        <v>['Zach', 'Chiefs', 1,1,2,2,2,3,4,5,6,7,7,8,9,10,10,11,12,12],</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" t="s">
@@ -2328,11 +2336,14 @@
       <c r="U12">
         <v>12</v>
       </c>
+      <c r="V12">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Colts', 0,0,1,1,2,2,3,3,4,4,5,5,6,6,7,7,8],</v>
+        <v>['Greg', 'Colts', 0,0,1,1,2,2,3,3,4,4,5,5,6,6,7,7,8,8],</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" t="s">
@@ -2408,7 +2419,7 @@
     <row r="14" spans="1:25">
       <c r="A14" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Cowboys', 0,1,2,3,4,5,5,6,7,8,9,10,11,11,12,13,13],</v>
+        <v>['Greg', 'Cowboys', 0,1,2,3,4,5,5,6,7,8,9,10,11,11,12,13,13,13],</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" t="s">
@@ -2468,11 +2479,14 @@
       <c r="U14">
         <v>13</v>
       </c>
+      <c r="V14">
+        <v>13</v>
+      </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Dolphins', 0,0,1,1,1,2,3,3,4,5,6,7,7,8,9,10,10],</v>
+        <v>['Tim', 'Dolphins', 0,0,1,1,1,2,3,3,4,5,6,7,7,8,9,10,10,10],</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" t="s">
@@ -2532,11 +2546,23 @@
       <c r="U15">
         <v>10</v>
       </c>
+      <c r="V15">
+        <v>10</v>
+      </c>
+      <c r="W15">
+        <v>10</v>
+      </c>
+      <c r="X15">
+        <v>10</v>
+      </c>
+      <c r="Y15">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Eagles', 1,2,3,3,3,3,4,4,4,5,5,5,5,5,5,6,7],</v>
+        <v>['Zach', 'Eagles', 1,2,3,3,3,3,4,4,4,5,5,5,5,5,5,6,7,7],</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" t="s">
@@ -2612,7 +2638,7 @@
     <row r="17" spans="1:25">
       <c r="A17" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Falcons', 0,1,2,3,4,4,4,5,6,6,6,7,7,8,9,10,11],</v>
+        <v>['Greg', 'Falcons', 0,1,2,3,4,4,4,5,6,6,6,7,7,8,9,10,11,11],</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" t="s">
@@ -2672,11 +2698,14 @@
       <c r="U17">
         <v>11</v>
       </c>
+      <c r="V17">
+        <v>11</v>
+      </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Giants', 1,2,2,2,2,3,4,4,5,6,7,8,8,9,10,10,11],</v>
+        <v>['Jeff', 'Giants', 1,2,2,2,2,3,4,4,5,6,7,8,8,9,10,10,11,11],</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" t="s">
@@ -2736,11 +2765,23 @@
       <c r="U18">
         <v>11</v>
       </c>
+      <c r="V18">
+        <v>11</v>
+      </c>
+      <c r="W18">
+        <v>11</v>
+      </c>
+      <c r="X18">
+        <v>11</v>
+      </c>
+      <c r="Y18">
+        <v>11</v>
+      </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Jaguars', 0,0,0,1,1,2,2,2,2,2,2,2,2,2,2,3,3],</v>
+        <v>['Tim', 'Jaguars', 0,0,0,1,1,2,2,2,2,2,2,2,2,2,2,3,3,3],</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" t="s">
@@ -2816,7 +2857,7 @@
     <row r="20" spans="1:25">
       <c r="A20" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Jets', 0,1,1,1,1,1,2,3,3,3,3,3,3,4,4,4,5],</v>
+        <v>['Tim', 'Jets', 0,1,1,1,1,1,2,3,3,3,3,3,3,4,4,4,5,5],</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" t="s">
@@ -2892,7 +2933,7 @@
     <row r="21" spans="1:25">
       <c r="A21" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Lions', 1,1,1,1,2,3,4,4,5,5,6,7,8,9,9,9,9],</v>
+        <v>['Jeff', 'Lions', 1,1,1,1,2,3,4,4,5,5,6,7,8,9,9,9,9,9],</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" t="s">
@@ -2952,11 +2993,23 @@
       <c r="U21">
         <v>9</v>
       </c>
+      <c r="V21">
+        <v>9</v>
+      </c>
+      <c r="W21">
+        <v>9</v>
+      </c>
+      <c r="X21">
+        <v>9</v>
+      </c>
+      <c r="Y21">
+        <v>9</v>
+      </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Packers', 1,1,2,2,3,3,4,4,4,4,4,5,6,7,8,9,10],</v>
+        <v>['Tim', 'Packers', 1,1,2,2,3,3,4,4,4,4,4,5,6,7,8,9,10,11],</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" t="s">
@@ -3016,11 +3069,14 @@
       <c r="U22">
         <v>10</v>
       </c>
+      <c r="V22">
+        <v>11</v>
+      </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Panthers', 0,1,1,1,1,1,1,2,3,3,4,4,4,5,6,6,6],</v>
+        <v>['Greg', 'Panthers', 0,1,1,1,1,1,1,2,3,3,4,4,4,5,6,6,6,6],</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" t="s">
@@ -3096,7 +3152,7 @@
     <row r="24" spans="1:25">
       <c r="A24" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Patriots', 1,2,3,3,4,5,6,7,7,7,8,9,10,11,12,13,14],</v>
+        <v>['Greg', 'Patriots', 1,2,3,3,4,5,6,7,7,7,8,9,10,11,12,13,14,14],</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" t="s">
@@ -3156,11 +3212,14 @@
       <c r="U24">
         <v>14</v>
       </c>
+      <c r="V24">
+        <v>14</v>
+      </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Raiders', 1,1,2,3,4,4,5,6,7,7,8,9,10,10,11,12,12],</v>
+        <v>['Tim', 'Raiders', 1,1,2,3,4,4,5,6,7,7,8,9,10,10,11,12,12,12],</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" t="s">
@@ -3220,11 +3279,23 @@
       <c r="U25">
         <v>12</v>
       </c>
+      <c r="V25">
+        <v>12</v>
+      </c>
+      <c r="W25">
+        <v>12</v>
+      </c>
+      <c r="X25">
+        <v>12</v>
+      </c>
+      <c r="Y25">
+        <v>12</v>
+      </c>
     </row>
     <row r="26" spans="1:25">
       <c r="A26" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Rams', 0,1,2,3,3,3,3,3,3,4,4,4,4,4,4,4,4],</v>
+        <v>['Zach', 'Rams', 0,1,2,3,3,3,3,3,3,4,4,4,4,4,4,4,4,4],</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" t="s">
@@ -3300,7 +3371,7 @@
     <row r="27" spans="1:25">
       <c r="A27" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Ravens', 1,2,3,3,3,3,3,3,4,5,5,6,7,7,8,8,8],</v>
+        <v>['Jeff', 'Ravens', 1,2,3,3,3,3,3,3,4,5,5,6,7,7,8,8,8,8],</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" t="s">
@@ -3376,7 +3447,7 @@
     <row r="28" spans="1:25">
       <c r="A28" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Redskins', 0,0,1,2,3,4,4,4,4,5,6,6,6,7,7,8,8],</v>
+        <v>['Greg', 'Redskins', 0,0,1,2,3,4,4,4,4,5,6,6,6,7,7,8,8,8],</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" t="s">
@@ -3452,7 +3523,7 @@
     <row r="29" spans="1:25">
       <c r="A29" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Saints', 0,0,0,1,1,2,2,3,4,4,4,5,5,5,6,7,7],</v>
+        <v>['Zach', 'Saints', 0,0,0,1,1,2,2,3,4,4,4,5,5,5,6,7,7,7],</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" t="s">
@@ -3528,7 +3599,7 @@
     <row r="30" spans="1:25">
       <c r="A30" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Seahawks', 1,1,2,3,3,4,4,4,5,6,7,7,8,8,9,9,10],</v>
+        <v>['Zach', 'Seahawks', 1,1,2,3,3,4,4,4,5,6,7,7,8,8,9,9,10,11],</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" t="s">
@@ -3588,11 +3659,14 @@
       <c r="U30">
         <v>10</v>
       </c>
+      <c r="V30">
+        <v>11</v>
+      </c>
     </row>
     <row r="31" spans="1:25">
       <c r="A31" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Steelers', 1,2,2,3,4,4,4,4,4,4,5,6,7,8,9,10,11],</v>
+        <v>['Tim', 'Steelers', 1,2,2,3,4,4,4,4,4,4,5,6,7,8,9,10,11,12],</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" t="s">
@@ -3652,11 +3726,14 @@
       <c r="U31">
         <v>11</v>
       </c>
+      <c r="V31">
+        <v>12</v>
+      </c>
     </row>
     <row r="32" spans="1:25">
       <c r="A32" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Texans', 1,2,2,3,3,4,4,5,5,6,6,6,6,7,8,9,9],</v>
+        <v>['Jeff', 'Texans', 1,2,2,3,3,4,4,5,5,6,6,6,6,7,8,9,9,10],</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" t="s">
@@ -3716,11 +3793,14 @@
       <c r="U32">
         <v>9</v>
       </c>
+      <c r="V32">
+        <v>10</v>
+      </c>
     </row>
     <row r="33" spans="1:25">
       <c r="A33" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Titans', 0,1,1,1,2,3,3,4,4,5,5,6,6,7,8,8,9],</v>
+        <v>['Zach', 'Titans', 0,1,1,1,2,3,3,4,4,5,5,6,6,7,8,8,9,9],</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="9" t="s">
@@ -3796,7 +3876,7 @@
     <row r="34" spans="1:25">
       <c r="A34" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Vikings', 1,2,3,4,5,5,5,5,5,5,6,6,6,7,7,7,8],</v>
+        <v>['Tim', 'Vikings', 1,2,3,4,5,5,5,5,5,5,6,6,6,7,7,7,8,8],</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" t="s">
@@ -3948,19 +4028,19 @@
       </c>
       <c r="V36" s="2">
         <f t="shared" ref="U36:Y38" si="3">SUMIF($C$3:$C$34,$D36,V$3:V$34)</f>
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="W36" s="2">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="X36" s="2">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="Y36" s="2">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:25">
@@ -4037,7 +4117,7 @@
       </c>
       <c r="V37" s="2">
         <f t="shared" si="3"/>
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="W37" s="2">
         <f t="shared" si="3"/>
@@ -4126,19 +4206,19 @@
       </c>
       <c r="V38" s="2">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="W38" s="2">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="X38" s="2">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="Y38" s="2">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:25">
@@ -4215,7 +4295,7 @@
       </c>
       <c r="V39" s="2">
         <f t="shared" si="4"/>
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="W39" s="2">
         <f t="shared" si="4"/>
@@ -4249,7 +4329,7 @@
   <dimension ref="A1:Y36"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="L1" activePane="topRight" state="frozenSplit"/>
+      <pane xSplit="4" topLeftCell="M1" activePane="topRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="A2" sqref="A2:A31"/>
     </sheetView>
   </sheetViews>
@@ -4310,54 +4390,53 @@
         <v>42370</v>
       </c>
       <c r="O1" s="8">
-        <f t="shared" si="0"/>
-        <v>42377</v>
+        <v>42376</v>
       </c>
       <c r="P1" s="8">
         <f t="shared" si="0"/>
-        <v>42384</v>
+        <v>42383</v>
       </c>
       <c r="Q1" s="8">
         <f t="shared" si="0"/>
-        <v>42391</v>
+        <v>42390</v>
       </c>
       <c r="R1" s="8">
         <f>Q1+7</f>
-        <v>42398</v>
+        <v>42397</v>
       </c>
       <c r="S1" s="8">
         <f t="shared" si="0"/>
-        <v>42405</v>
+        <v>42404</v>
       </c>
       <c r="T1" s="8">
         <f t="shared" si="0"/>
-        <v>42412</v>
+        <v>42411</v>
       </c>
       <c r="U1" s="8">
         <f t="shared" si="0"/>
-        <v>42419</v>
+        <v>42418</v>
       </c>
       <c r="V1" s="8">
         <f t="shared" si="0"/>
-        <v>42426</v>
+        <v>42425</v>
       </c>
       <c r="W1" s="8">
         <f t="shared" si="0"/>
-        <v>42433</v>
+        <v>42432</v>
       </c>
       <c r="X1" s="8">
         <f t="shared" si="0"/>
-        <v>42440</v>
+        <v>42439</v>
       </c>
       <c r="Y1" s="8">
         <f t="shared" si="0"/>
-        <v>42447</v>
+        <v>42446</v>
       </c>
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="2" t="str">
-        <f>CONCATENATE("['",$C2,"', ","'",$D2,"' ,",$E2,",",$F2,",",$G2,",",$H2,",",$I2,",",$J2,",",$K2,",",$L2,",",$M2,",",$N2,"],")</f>
-        <v>['Zach', 'Atlanta' ,1,3,6,9,10,10,12,13,15,17],</v>
+        <f>CONCATENATE("['",$C2,"', ","'",$D2,"' ,",$E2,",",$F2,",",$G2,",",$H2,",",$I2,",",$J2,",",$K2,",",$L2,",",$M2,",",$N2,",",$O2,"],")</f>
+        <v>['Zach', 'Atlanta' ,1,3,6,9,10,10,12,13,15,17,20],</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" t="s">
@@ -4396,11 +4475,14 @@
       <c r="N2">
         <v>17</v>
       </c>
+      <c r="O2">
+        <v>20</v>
+      </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="2" t="str">
-        <f t="shared" ref="A3:A31" si="1">CONCATENATE("['",$C3,"', ","'",$D3,"' ,",$E3,",",$F3,",",$G3,",",$H3,",",$I3,",",$J3,",",$K3,",",$L3,",",$M3,",",$N3,"],")</f>
-        <v>['Jeff', 'Boston' ,1,3,4,6,9,11,13,14,17,20],</v>
+        <f t="shared" ref="A3:A31" si="1">CONCATENATE("['",$C3,"', ","'",$D3,"' ,",$E3,",",$F3,",",$G3,",",$H3,",",$I3,",",$J3,",",$K3,",",$L3,",",$M3,",",$N3,",",$O3,"],")</f>
+        <v>['Jeff', 'Boston' ,1,3,4,6,9,11,13,14,17,20,22],</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" t="s">
@@ -4439,11 +4521,14 @@
       <c r="N3">
         <v>20</v>
       </c>
+      <c r="O3">
+        <v>22</v>
+      </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Brooklyn' ,1,2,3,4,4,5,6,7,7,8],</v>
+        <v>['Zach', 'Brooklyn' ,1,2,3,4,4,5,6,7,7,8,8],</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" t="s">
@@ -4482,11 +4567,14 @@
       <c r="N4">
         <v>8</v>
       </c>
+      <c r="O4">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Charlotte' ,2,4,6,8,8,11,14,15,17,19],</v>
+        <v>['Jeff', 'Charlotte' ,2,4,6,8,8,11,14,15,17,19,20],</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" t="s">
@@ -4525,11 +4613,14 @@
       <c r="N5">
         <v>19</v>
       </c>
+      <c r="O5">
+        <v>20</v>
+      </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Chicago' ,1,3,5,8,10,11,12,13,14,16],</v>
+        <v>['Greg', 'Chicago' ,1,3,5,8,10,11,12,13,14,16,18],</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" t="s">
@@ -4568,11 +4659,14 @@
       <c r="N6">
         <v>16</v>
       </c>
+      <c r="O6">
+        <v>18</v>
+      </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Cleveland' ,2,5,7,10,12,13,16,19,22,25],</v>
+        <v>['Tim', 'Cleveland' ,2,5,7,10,12,13,16,19,22,25,27],</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" t="s">
@@ -4611,11 +4705,14 @@
       <c r="N7">
         <v>25</v>
       </c>
+      <c r="O7">
+        <v>27</v>
+      </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Dallas' ,0,0,2,2,2,3,5,6,9,10],</v>
+        <v>['Tim', 'Dallas' ,0,0,2,2,2,3,5,6,9,10,11],</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" t="s">
@@ -4654,11 +4751,14 @@
       <c r="N8">
         <v>10</v>
       </c>
+      <c r="O8">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Denver' ,1,2,3,4,6,7,8,11,12,14],</v>
+        <v>['Tim', 'Denver' ,1,2,3,4,6,7,8,11,12,14,14],</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" t="s">
@@ -4697,11 +4797,14 @@
       <c r="N9">
         <v>14</v>
       </c>
+      <c r="O9">
+        <v>14</v>
+      </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Detroit' ,1,3,4,6,8,11,13,14,14,15],</v>
+        <v>['Greg', 'Detroit' ,1,3,4,6,8,11,13,14,14,15,17],</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" t="s">
@@ -4740,11 +4843,14 @@
       <c r="N10">
         <v>15</v>
       </c>
+      <c r="O10">
+        <v>17</v>
+      </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Golden State' ,1,4,7,9,14,16,20,24,27,29],</v>
+        <v>['Zach', 'Golden State' ,1,4,7,9,14,16,20,24,27,29,31],</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" t="s">
@@ -4783,11 +4889,14 @@
       <c r="N11">
         <v>29</v>
       </c>
+      <c r="O11">
+        <v>31</v>
+      </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Houston' ,1,3,5,7,10,13,16,21,22,26],</v>
+        <v>['Jeff', 'Houston' ,1,3,5,7,10,13,16,21,22,26,29],</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" t="s">
@@ -4826,11 +4935,14 @@
       <c r="N12">
         <v>26</v>
       </c>
+      <c r="O12">
+        <v>29</v>
+      </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Indiana' ,1,2,4,6,8,9,11,14,15,16],</v>
+        <v>['Tim', 'Indiana' ,1,2,4,6,8,9,11,14,15,16,19],</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" t="s">
@@ -4869,11 +4981,14 @@
       <c r="N13">
         <v>16</v>
       </c>
+      <c r="O13">
+        <v>19</v>
+      </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'L.A. Lakers' ,1,3,5,7,8,10,10,11,11,12],</v>
+        <v>['Tim', 'L.A. Lakers' ,1,3,5,7,8,10,10,11,11,12,14],</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" t="s">
@@ -4912,11 +5027,14 @@
       <c r="N14">
         <v>12</v>
       </c>
+      <c r="O14">
+        <v>14</v>
+      </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'LA Clippers' ,1,4,8,11,14,16,16,20,22,22],</v>
+        <v>['Greg', 'LA Clippers' ,1,4,8,11,14,16,16,20,22,22,25],</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" t="s">
@@ -4955,11 +5073,14 @@
       <c r="N15">
         <v>22</v>
       </c>
+      <c r="O15">
+        <v>25</v>
+      </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Memphis' ,1,3,4,7,10,12,16,18,20,22],</v>
+        <v>['Tim', 'Memphis' ,1,3,4,7,10,12,16,18,20,22,23],</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" t="s">
@@ -4998,11 +5119,14 @@
       <c r="N16">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Miami' ,1,2,2,3,5,7,7,9,10,10],</v>
+        <v>['Zach', 'Miami' ,1,2,2,3,5,7,7,9,10,10,11],</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" t="s">
@@ -5041,11 +5165,14 @@
       <c r="N17">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Milwaukee' ,0,3,4,5,6,9,11,13,14,16],</v>
+        <v>['Greg', 'Milwaukee' ,0,3,4,5,6,9,11,13,14,16,18],</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" t="s">
@@ -5084,11 +5211,14 @@
       <c r="N18">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Minnesota' ,0,1,2,4,5,5,6,7,9,11],</v>
+        <v>['Jeff', 'Minnesota' ,0,1,2,4,5,5,6,7,9,11,11],</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" t="s">
@@ -5127,11 +5257,14 @@
       <c r="N19">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'New Orleans' ,0,0,1,2,6,7,7,9,11,14],</v>
+        <v>['Zach', 'New Orleans' ,0,0,1,2,6,7,7,9,11,14,14],</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" t="s">
@@ -5170,11 +5303,14 @@
       <c r="N20">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'New York' ,0,2,3,5,8,10,13,14,16,16],</v>
+        <v>['Zach', 'New York' ,0,2,3,5,8,10,13,14,16,16,17],</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" t="s">
@@ -5213,11 +5349,14 @@
       <c r="N21">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Oklahoma City' ,2,4,6,7,9,12,14,16,18,21],</v>
+        <v>['Jeff', 'Oklahoma City' ,2,4,6,7,9,12,14,16,18,21,21],</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" t="s">
@@ -5256,11 +5395,14 @@
       <c r="N22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Orlando' ,0,2,3,5,6,8,10,12,14,15],</v>
+        <v>['Greg', 'Orlando' ,0,2,3,5,6,8,10,12,14,15,16],</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" t="s">
@@ -5299,11 +5441,14 @@
       <c r="N23">
         <v>15</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['', 'Philadelphia' ,0,0,1,2,4,4,5,6,7,8],</v>
+        <v>['', 'Philadelphia' ,0,0,1,2,4,4,5,6,7,8,9],</v>
       </c>
       <c r="B24" s="3"/>
       <c r="D24" t="s">
@@ -5339,11 +5484,14 @@
       <c r="N24">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="O24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['', 'Phoenix' ,0,2,3,3,5,6,7,8,9,10],</v>
+        <v>['', 'Phoenix' ,0,2,3,3,5,6,7,8,9,10,12],</v>
       </c>
       <c r="B25" s="3"/>
       <c r="D25" t="s">
@@ -5379,11 +5527,14 @@
       <c r="N25">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="1:14">
+      <c r="O25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Portland' ,1,3,6,7,9,10,12,13,13,14],</v>
+        <v>['Greg', 'Portland' ,1,3,6,7,9,10,12,13,13,14,16],</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" t="s">
@@ -5422,11 +5573,14 @@
       <c r="N26">
         <v>14</v>
       </c>
-    </row>
-    <row r="27" spans="1:14">
+      <c r="O26">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Sacramento' ,1,2,4,4,6,7,8,10,13,14],</v>
+        <v>['Jeff', 'Sacramento' ,1,2,4,4,6,7,8,10,13,14,15],</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" t="s">
@@ -5465,11 +5619,14 @@
       <c r="N27">
         <v>14</v>
       </c>
-    </row>
-    <row r="28" spans="1:14">
+      <c r="O27">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'San Antonio' ,2,5,6,10,13,16,18,21,24,27],</v>
+        <v>['Jeff', 'San Antonio' ,2,5,6,10,13,16,18,21,24,27,29],</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" t="s">
@@ -5508,11 +5665,14 @@
       <c r="N28">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:14">
+      <c r="O28">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Toronto' ,1,4,6,8,10,13,16,18,21,22],</v>
+        <v>['Greg', 'Toronto' ,1,4,6,8,10,13,16,18,21,22,24],</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" t="s">
@@ -5551,11 +5711,14 @@
       <c r="N29">
         <v>22</v>
       </c>
-    </row>
-    <row r="30" spans="1:14">
+      <c r="O29">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Utah' ,1,3,6,7,9,11,14,17,18,21],</v>
+        <v>['Zach', 'Utah' ,1,3,6,7,9,11,14,17,18,21,22],</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" t="s">
@@ -5594,11 +5757,14 @@
       <c r="N30">
         <v>21</v>
       </c>
-    </row>
-    <row r="31" spans="1:14">
+      <c r="O30">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Washington' ,0,1,2,3,5,6,8,11,13,16],</v>
+        <v>['Tim', 'Washington' ,0,1,2,3,5,6,8,11,13,16,17],</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" t="s">
@@ -5637,18 +5803,21 @@
       <c r="N31">
         <v>16</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" s="4" customFormat="1" ht="4" customHeight="1">
+      <c r="O31">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" s="4" customFormat="1" ht="4" customHeight="1">
       <c r="A32" s="2"/>
       <c r="B32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="4:14">
+    <row r="33" spans="4:15">
       <c r="D33" t="s">
         <v>32</v>
       </c>
       <c r="E33">
-        <f t="shared" ref="E33:N35" si="2">SUMIF($C$2:$C$31,$D33,E$2:E$31)</f>
+        <f t="shared" ref="E33:O35" si="2">SUMIF($C$2:$C$31,$D33,E$2:E$31)</f>
         <v>9</v>
       </c>
       <c r="F33" s="2">
@@ -5687,8 +5856,12 @@
         <f t="shared" si="2"/>
         <v>138</v>
       </c>
-    </row>
-    <row r="34" spans="4:14">
+      <c r="O33" s="2">
+        <f t="shared" si="2"/>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="34" spans="4:15">
       <c r="D34" t="s">
         <v>33</v>
       </c>
@@ -5732,8 +5905,12 @@
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
-    </row>
-    <row r="35" spans="4:14">
+      <c r="O34" s="2">
+        <f t="shared" si="2"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" spans="4:15">
       <c r="D35" t="s">
         <v>34</v>
       </c>
@@ -5777,13 +5954,17 @@
         <f t="shared" si="2"/>
         <v>115</v>
       </c>
-    </row>
-    <row r="36" spans="4:14">
+      <c r="O35" s="2">
+        <f t="shared" si="2"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36" spans="4:15">
       <c r="D36" t="s">
         <v>35</v>
       </c>
       <c r="E36">
-        <f t="shared" ref="E36:N36" si="3">SUMIF($C$2:$C$31,$D$36,E$2:E$31)</f>
+        <f t="shared" ref="E36:O36" si="3">SUMIF($C$2:$C$31,$D$36,E$2:E$31)</f>
         <v>5</v>
       </c>
       <c r="F36" s="2">
@@ -5821,6 +6002,10 @@
       <c r="N36" s="2">
         <f t="shared" si="3"/>
         <v>115</v>
+      </c>
+      <c r="O36" s="2">
+        <f t="shared" si="3"/>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/NFL Wins.xlsx
+++ b/NFL Wins.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8980" windowHeight="16100" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8980" windowHeight="16100" tabRatio="500" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
@@ -479,7 +479,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="173">
+  <cellStyleXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -578,6 +578,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -672,7 +676,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="173">
+  <cellStyles count="177">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -761,6 +765,8 @@
     <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -845,6 +851,8 @@
     <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1463,11 +1471,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y39"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="U5" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A3:A34"/>
+      <selection pane="bottomRight" activeCell="A34" sqref="A3:A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1591,8 +1599,8 @@
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="2" t="str">
-        <f>CONCATENATE("['",$C3,"', ","'",$D3,"', ",$E3,",",$F3,",",$G3,",",$H3,",",$I3,",",$J3,",",$K3,",",$L3,",",$M3,",",$N3,",",$O3,",",$P3,",",$Q3,",",$R3,",",$S3,",",$T3,",",$U3,",",$V3,"],")</f>
-        <v>['Greg', '49ers', 1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,2,2,2],</v>
+        <f>CONCATENATE("['",$C3,"', ","'",$D3,"', ",$E3,",",$F3,",",$G3,",",$H3,",",$I3,",",$J3,",",$K3,",",$L3,",",$M3,",",$N3,",",$O3,",",$P3,",",$Q3,",",$R3,",",$S3,",",$T3,",",$U3,",",$V3,",",$W3,"],")</f>
+        <v>['Greg', '49ers', 1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,2,2,2,2],</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" t="s">
@@ -1667,8 +1675,8 @@
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="2" t="str">
-        <f>CONCATENATE("['",$C4,"', ","'",$D4,"', ",$E4,",",$F4,",",$G4,",",$H4,",",$I4,",",$J4,",",$K4,",",$L4,",",$M4,",",$N4,",",$O4,",",$P4,",",$Q4,",",$R4,",",$S4,",",$T4,",",$U4,",",$V4,"],")</f>
-        <v>['Jeff', 'Bears', 0,0,0,1,1,1,1,2,2,2,2,2,3,3,3,3,3,3],</v>
+        <f t="shared" ref="A4:A34" si="1">CONCATENATE("['",$C4,"', ","'",$D4,"', ",$E4,",",$F4,",",$G4,",",$H4,",",$I4,",",$J4,",",$K4,",",$L4,",",$M4,",",$N4,",",$O4,",",$P4,",",$Q4,",",$R4,",",$S4,",",$T4,",",$U4,",",$V4,",",$W4,"],")</f>
+        <v>['Jeff', 'Bears', 0,0,0,1,1,1,1,2,2,2,2,2,3,3,3,3,3,3,3],</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" t="s">
@@ -1743,8 +1751,8 @@
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="2" t="str">
-        <f t="shared" ref="A5:A34" si="1">CONCATENATE("['",$C5,"', ","'",$D5,"', ",$E5,",",$F5,",",$G5,",",$H5,",",$I5,",",$J5,",",$K5,",",$L5,",",$M5,",",$N5,",",$O5,",",$P5,",",$Q5,",",$R5,",",$S5,",",$T5,",",$U5,",",$V5,"],")</f>
-        <v>['Tim', 'Bengals', 1,1,1,2,2,2,3,3,3,3,3,3,4,5,5,5,6,6],</v>
+        <f t="shared" si="1"/>
+        <v>['Tim', 'Bengals', 1,1,1,2,2,2,3,3,3,3,3,3,4,5,5,5,6,6,6],</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" t="s">
@@ -1820,7 +1828,7 @@
     <row r="6" spans="1:25">
       <c r="A6" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Bills', 0,0,1,2,3,4,4,4,4,4,5,6,6,6,7,7,7,7],</v>
+        <v>['Greg', 'Bills', 0,0,1,2,3,4,4,4,4,4,5,6,6,6,7,7,7,7,7],</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" t="s">
@@ -1896,7 +1904,7 @@
     <row r="7" spans="1:25">
       <c r="A7" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Broncos', 1,2,3,4,4,4,5,6,6,7,7,7,8,8,8,8,9,9],</v>
+        <v>['Zach', 'Broncos', 1,2,3,4,4,4,5,6,6,7,7,7,8,8,8,8,9,9,9],</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" t="s">
@@ -1972,7 +1980,7 @@
     <row r="8" spans="1:25">
       <c r="A8" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Browns', 0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,1,1,1],</v>
+        <v>['Jeff', 'Browns', 0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,1,1,1,1],</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" t="s">
@@ -2048,7 +2056,7 @@
     <row r="9" spans="1:25">
       <c r="A9" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Buccaneers', 1,1,1,1,2,2,3,3,3,4,5,6,7,8,8,8,9,9],</v>
+        <v>['Zach', 'Buccaneers', 1,1,1,1,2,2,3,3,3,4,5,6,7,8,8,8,9,9,9],</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" t="s">
@@ -2124,7 +2132,7 @@
     <row r="10" spans="1:25">
       <c r="A10" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Cardinals', 0,1,1,1,2,3,3,3,3,4,4,4,5,5,5,6,7,7],</v>
+        <v>['Jeff', 'Cardinals', 0,1,1,1,2,3,3,3,3,4,4,4,5,5,5,6,7,7,7],</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" t="s">
@@ -2200,7 +2208,7 @@
     <row r="11" spans="1:25">
       <c r="A11" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Chargers', 0,1,1,1,1,2,3,3,4,4,4,5,5,5,5,5,5,5],</v>
+        <v>['Jeff', 'Chargers', 0,1,1,1,1,2,3,3,4,4,4,5,5,5,5,5,5,5,5],</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" t="s">
@@ -2276,7 +2284,7 @@
     <row r="12" spans="1:25">
       <c r="A12" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Chiefs', 1,1,2,2,2,3,4,5,6,7,7,8,9,10,10,11,12,12],</v>
+        <v>['Zach', 'Chiefs', 1,1,2,2,2,3,4,5,6,7,7,8,9,10,10,11,12,12,12],</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" t="s">
@@ -2339,11 +2347,20 @@
       <c r="V12">
         <v>12</v>
       </c>
+      <c r="W12">
+        <v>12</v>
+      </c>
+      <c r="X12">
+        <v>12</v>
+      </c>
+      <c r="Y12">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Colts', 0,0,1,1,2,2,3,3,4,4,5,5,6,6,7,7,8,8],</v>
+        <v>['Greg', 'Colts', 0,0,1,1,2,2,3,3,4,4,5,5,6,6,7,7,8,8,8],</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" t="s">
@@ -2419,7 +2436,7 @@
     <row r="14" spans="1:25">
       <c r="A14" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Cowboys', 0,1,2,3,4,5,5,6,7,8,9,10,11,11,12,13,13,13],</v>
+        <v>['Greg', 'Cowboys', 0,1,2,3,4,5,5,6,7,8,9,10,11,11,12,13,13,13,13],</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" t="s">
@@ -2482,11 +2499,20 @@
       <c r="V14">
         <v>13</v>
       </c>
+      <c r="W14">
+        <v>13</v>
+      </c>
+      <c r="X14">
+        <v>13</v>
+      </c>
+      <c r="Y14">
+        <v>13</v>
+      </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Dolphins', 0,0,1,1,1,2,3,3,4,5,6,7,7,8,9,10,10,10],</v>
+        <v>['Tim', 'Dolphins', 0,0,1,1,1,2,3,3,4,5,6,7,7,8,9,10,10,10,10],</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" t="s">
@@ -2562,7 +2588,7 @@
     <row r="16" spans="1:25">
       <c r="A16" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Eagles', 1,2,3,3,3,3,4,4,4,5,5,5,5,5,5,6,7,7],</v>
+        <v>['Zach', 'Eagles', 1,2,3,3,3,3,4,4,4,5,5,5,5,5,5,6,7,7,7],</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" t="s">
@@ -2638,7 +2664,7 @@
     <row r="17" spans="1:25">
       <c r="A17" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Falcons', 0,1,2,3,4,4,4,5,6,6,6,7,7,8,9,10,11,11],</v>
+        <v>['Greg', 'Falcons', 0,1,2,3,4,4,4,5,6,6,6,7,7,8,9,10,11,11,12],</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" t="s">
@@ -2701,11 +2727,14 @@
       <c r="V17">
         <v>11</v>
       </c>
+      <c r="W17">
+        <v>12</v>
+      </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Giants', 1,2,2,2,2,3,4,4,5,6,7,8,8,9,10,10,11,11],</v>
+        <v>['Jeff', 'Giants', 1,2,2,2,2,3,4,4,5,6,7,8,8,9,10,10,11,11,11],</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" t="s">
@@ -2781,7 +2810,7 @@
     <row r="19" spans="1:25">
       <c r="A19" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Jaguars', 0,0,0,1,1,2,2,2,2,2,2,2,2,2,2,3,3,3],</v>
+        <v>['Tim', 'Jaguars', 0,0,0,1,1,2,2,2,2,2,2,2,2,2,2,3,3,3,3],</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" t="s">
@@ -2857,7 +2886,7 @@
     <row r="20" spans="1:25">
       <c r="A20" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Jets', 0,1,1,1,1,1,2,3,3,3,3,3,3,4,4,4,5,5],</v>
+        <v>['Tim', 'Jets', 0,1,1,1,1,1,2,3,3,3,3,3,3,4,4,4,5,5,5],</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" t="s">
@@ -2933,7 +2962,7 @@
     <row r="21" spans="1:25">
       <c r="A21" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Lions', 1,1,1,1,2,3,4,4,5,5,6,7,8,9,9,9,9,9],</v>
+        <v>['Jeff', 'Lions', 1,1,1,1,2,3,4,4,5,5,6,7,8,9,9,9,9,9,9],</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" t="s">
@@ -3009,7 +3038,7 @@
     <row r="22" spans="1:25">
       <c r="A22" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Packers', 1,1,2,2,3,3,4,4,4,4,4,5,6,7,8,9,10,11],</v>
+        <v>['Tim', 'Packers', 1,1,2,2,3,3,4,4,4,4,4,5,6,7,8,9,10,11,12],</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" t="s">
@@ -3072,11 +3101,14 @@
       <c r="V22">
         <v>11</v>
       </c>
+      <c r="W22">
+        <v>12</v>
+      </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Panthers', 0,1,1,1,1,1,1,2,3,3,4,4,4,5,6,6,6,6],</v>
+        <v>['Greg', 'Panthers', 0,1,1,1,1,1,1,2,3,3,4,4,4,5,6,6,6,6,6],</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" t="s">
@@ -3152,7 +3184,7 @@
     <row r="24" spans="1:25">
       <c r="A24" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Patriots', 1,2,3,3,4,5,6,7,7,7,8,9,10,11,12,13,14,14],</v>
+        <v>['Greg', 'Patriots', 1,2,3,3,4,5,6,7,7,7,8,9,10,11,12,13,14,14,15],</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" t="s">
@@ -3215,11 +3247,14 @@
       <c r="V24">
         <v>14</v>
       </c>
+      <c r="W24">
+        <v>15</v>
+      </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Raiders', 1,1,2,3,4,4,5,6,7,7,8,9,10,10,11,12,12,12],</v>
+        <v>['Tim', 'Raiders', 1,1,2,3,4,4,5,6,7,7,8,9,10,10,11,12,12,12,12],</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" t="s">
@@ -3295,7 +3330,7 @@
     <row r="26" spans="1:25">
       <c r="A26" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Rams', 0,1,2,3,3,3,3,3,3,4,4,4,4,4,4,4,4,4],</v>
+        <v>['Zach', 'Rams', 0,1,2,3,3,3,3,3,3,4,4,4,4,4,4,4,4,4,4],</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" t="s">
@@ -3371,7 +3406,7 @@
     <row r="27" spans="1:25">
       <c r="A27" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Ravens', 1,2,3,3,3,3,3,3,4,5,5,6,7,7,8,8,8,8],</v>
+        <v>['Jeff', 'Ravens', 1,2,3,3,3,3,3,3,4,5,5,6,7,7,8,8,8,8,8],</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" t="s">
@@ -3447,7 +3482,7 @@
     <row r="28" spans="1:25">
       <c r="A28" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Redskins', 0,0,1,2,3,4,4,4,4,5,6,6,6,7,7,8,8,8],</v>
+        <v>['Greg', 'Redskins', 0,0,1,2,3,4,4,4,4,5,6,6,6,7,7,8,8,8,8],</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" t="s">
@@ -3523,7 +3558,7 @@
     <row r="29" spans="1:25">
       <c r="A29" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Saints', 0,0,0,1,1,2,2,3,4,4,4,5,5,5,6,7,7,7],</v>
+        <v>['Zach', 'Saints', 0,0,0,1,1,2,2,3,4,4,4,5,5,5,6,7,7,7,7],</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" t="s">
@@ -3599,7 +3634,7 @@
     <row r="30" spans="1:25">
       <c r="A30" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Seahawks', 1,1,2,3,3,4,4,4,5,6,7,7,8,8,9,9,10,11],</v>
+        <v>['Zach', 'Seahawks', 1,1,2,3,3,4,4,4,5,6,7,7,8,8,9,9,10,11,11],</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" t="s">
@@ -3662,11 +3697,20 @@
       <c r="V30">
         <v>11</v>
       </c>
+      <c r="W30">
+        <v>11</v>
+      </c>
+      <c r="X30">
+        <v>11</v>
+      </c>
+      <c r="Y30">
+        <v>11</v>
+      </c>
     </row>
     <row r="31" spans="1:25">
       <c r="A31" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Steelers', 1,2,2,3,4,4,4,4,4,4,5,6,7,8,9,10,11,12],</v>
+        <v>['Tim', 'Steelers', 1,2,2,3,4,4,4,4,4,4,5,6,7,8,9,10,11,12,13],</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" t="s">
@@ -3729,11 +3773,14 @@
       <c r="V31">
         <v>12</v>
       </c>
+      <c r="W31">
+        <v>13</v>
+      </c>
     </row>
     <row r="32" spans="1:25">
       <c r="A32" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Texans', 1,2,2,3,3,4,4,5,5,6,6,6,6,7,8,9,9,10],</v>
+        <v>['Jeff', 'Texans', 1,2,2,3,3,4,4,5,5,6,6,6,6,7,8,9,9,10,10],</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" t="s">
@@ -3796,11 +3843,20 @@
       <c r="V32">
         <v>10</v>
       </c>
+      <c r="W32">
+        <v>10</v>
+      </c>
+      <c r="X32">
+        <v>10</v>
+      </c>
+      <c r="Y32">
+        <v>10</v>
+      </c>
     </row>
     <row r="33" spans="1:25">
       <c r="A33" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Titans', 0,1,1,1,2,3,3,4,4,5,5,6,6,7,8,8,9,9],</v>
+        <v>['Zach', 'Titans', 0,1,1,1,2,3,3,4,4,5,5,6,6,7,8,8,9,9,9],</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="9" t="s">
@@ -3876,7 +3932,7 @@
     <row r="34" spans="1:25">
       <c r="A34" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Vikings', 1,2,3,4,5,5,5,5,5,5,6,6,6,7,7,7,8,8],</v>
+        <v>['Tim', 'Vikings', 1,2,3,4,5,5,5,5,5,5,6,6,6,7,7,7,8,8,8],</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" t="s">
@@ -4032,15 +4088,15 @@
       </c>
       <c r="W36" s="2">
         <f t="shared" si="3"/>
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="X36" s="2">
         <f t="shared" si="3"/>
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="Y36" s="2">
         <f t="shared" si="3"/>
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:25">
@@ -4121,15 +4177,15 @@
       </c>
       <c r="W37" s="2">
         <f t="shared" si="3"/>
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="X37" s="2">
         <f t="shared" si="3"/>
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="Y37" s="2">
         <f t="shared" si="3"/>
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:25">
@@ -4210,7 +4266,7 @@
       </c>
       <c r="W38" s="2">
         <f t="shared" si="3"/>
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="X38" s="2">
         <f t="shared" si="3"/>
@@ -4299,15 +4355,15 @@
       </c>
       <c r="W39" s="2">
         <f t="shared" si="4"/>
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="X39" s="2">
         <f t="shared" si="4"/>
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="Y39" s="2">
         <f t="shared" si="4"/>
-        <v>45</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -4328,7 +4384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y36"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
       <pane xSplit="4" topLeftCell="M1" activePane="topRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="A2" sqref="A2:A31"/>
     </sheetView>
@@ -4387,56 +4443,55 @@
         <v>42728</v>
       </c>
       <c r="N1" s="8">
-        <v>42370</v>
+        <v>42736</v>
       </c>
       <c r="O1" s="8">
-        <v>42376</v>
+        <v>42742</v>
       </c>
       <c r="P1" s="8">
-        <f t="shared" si="0"/>
-        <v>42383</v>
+        <v>42750</v>
       </c>
       <c r="Q1" s="8">
         <f t="shared" si="0"/>
-        <v>42390</v>
+        <v>42757</v>
       </c>
       <c r="R1" s="8">
         <f>Q1+7</f>
-        <v>42397</v>
+        <v>42764</v>
       </c>
       <c r="S1" s="8">
         <f t="shared" si="0"/>
-        <v>42404</v>
+        <v>42771</v>
       </c>
       <c r="T1" s="8">
         <f t="shared" si="0"/>
-        <v>42411</v>
+        <v>42778</v>
       </c>
       <c r="U1" s="8">
         <f t="shared" si="0"/>
-        <v>42418</v>
+        <v>42785</v>
       </c>
       <c r="V1" s="8">
         <f t="shared" si="0"/>
-        <v>42425</v>
+        <v>42792</v>
       </c>
       <c r="W1" s="8">
         <f t="shared" si="0"/>
-        <v>42432</v>
+        <v>42799</v>
       </c>
       <c r="X1" s="8">
         <f t="shared" si="0"/>
-        <v>42439</v>
+        <v>42806</v>
       </c>
       <c r="Y1" s="8">
         <f t="shared" si="0"/>
-        <v>42446</v>
+        <v>42813</v>
       </c>
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="2" t="str">
-        <f>CONCATENATE("['",$C2,"', ","'",$D2,"' ,",$E2,",",$F2,",",$G2,",",$H2,",",$I2,",",$J2,",",$K2,",",$L2,",",$M2,",",$N2,",",$O2,"],")</f>
-        <v>['Zach', 'Atlanta' ,1,3,6,9,10,10,12,13,15,17,20],</v>
+        <f>CONCATENATE("['",$C2,"', ","'",$D2,"' ,",$E2,",",$F2,",",$G2,",",$H2,",",$I2,",",$J2,",",$K2,",",$L2,",",$M2,",",$N2,",",$O2,",",$P2,"],")</f>
+        <v>['Zach', 'Atlanta' ,1,3,6,9,10,10,12,13,15,17,20,23],</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" t="s">
@@ -4478,11 +4533,14 @@
       <c r="O2">
         <v>20</v>
       </c>
+      <c r="P2">
+        <v>23</v>
+      </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="2" t="str">
-        <f t="shared" ref="A3:A31" si="1">CONCATENATE("['",$C3,"', ","'",$D3,"' ,",$E3,",",$F3,",",$G3,",",$H3,",",$I3,",",$J3,",",$K3,",",$L3,",",$M3,",",$N3,",",$O3,"],")</f>
-        <v>['Jeff', 'Boston' ,1,3,4,6,9,11,13,14,17,20,22],</v>
+        <f t="shared" ref="A3:A31" si="1">CONCATENATE("['",$C3,"', ","'",$D3,"' ,",$E3,",",$F3,",",$G3,",",$H3,",",$I3,",",$J3,",",$K3,",",$L3,",",$M3,",",$N3,",",$O3,",",$P3,"],")</f>
+        <v>['Jeff', 'Boston' ,1,3,4,6,9,11,13,14,17,20,22,25],</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" t="s">
@@ -4524,11 +4582,14 @@
       <c r="O3">
         <v>22</v>
       </c>
+      <c r="P3">
+        <v>25</v>
+      </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Brooklyn' ,1,2,3,4,4,5,6,7,7,8,8],</v>
+        <v>['Zach', 'Brooklyn' ,1,2,3,4,4,5,6,7,7,8,8,8],</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" t="s">
@@ -4570,11 +4631,14 @@
       <c r="O4">
         <v>8</v>
       </c>
+      <c r="P4">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Charlotte' ,2,4,6,8,8,11,14,15,17,19,20],</v>
+        <v>['Jeff', 'Charlotte' ,2,4,6,8,8,11,14,15,17,19,20,20],</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" t="s">
@@ -4616,11 +4680,14 @@
       <c r="O5">
         <v>20</v>
       </c>
+      <c r="P5">
+        <v>20</v>
+      </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Chicago' ,1,3,5,8,10,11,12,13,14,16,18],</v>
+        <v>['Greg', 'Chicago' ,1,3,5,8,10,11,12,13,14,16,18,21],</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" t="s">
@@ -4662,11 +4729,14 @@
       <c r="O6">
         <v>18</v>
       </c>
+      <c r="P6">
+        <v>21</v>
+      </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Cleveland' ,2,5,7,10,12,13,16,19,22,25,27],</v>
+        <v>['Tim', 'Cleveland' ,2,5,7,10,12,13,16,19,22,25,27,29],</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" t="s">
@@ -4708,11 +4778,14 @@
       <c r="O7">
         <v>27</v>
       </c>
+      <c r="P7">
+        <v>29</v>
+      </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Dallas' ,0,0,2,2,2,3,5,6,9,10,11],</v>
+        <v>['Tim', 'Dallas' ,0,0,2,2,2,3,5,6,9,10,11,13],</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" t="s">
@@ -4754,11 +4827,14 @@
       <c r="O8">
         <v>11</v>
       </c>
+      <c r="P8">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Denver' ,1,2,3,4,6,7,8,11,12,14,14],</v>
+        <v>['Tim', 'Denver' ,1,2,3,4,6,7,8,11,12,14,14,15],</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" t="s">
@@ -4800,11 +4876,14 @@
       <c r="O9">
         <v>14</v>
       </c>
+      <c r="P9">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Detroit' ,1,3,4,6,8,11,13,14,14,15,17],</v>
+        <v>['Greg', 'Detroit' ,1,3,4,6,8,11,13,14,14,15,17,19],</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" t="s">
@@ -4846,11 +4925,14 @@
       <c r="O10">
         <v>17</v>
       </c>
+      <c r="P10">
+        <v>19</v>
+      </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Golden State' ,1,4,7,9,14,16,20,24,27,29,31],</v>
+        <v>['Zach', 'Golden State' ,1,4,7,9,14,16,20,24,27,29,31,34],</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" t="s">
@@ -4892,11 +4974,14 @@
       <c r="O11">
         <v>31</v>
       </c>
+      <c r="P11">
+        <v>34</v>
+      </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Houston' ,1,3,5,7,10,13,16,21,22,26,29],</v>
+        <v>['Jeff', 'Houston' ,1,3,5,7,10,13,16,21,22,26,29,32],</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" t="s">
@@ -4938,11 +5023,14 @@
       <c r="O12">
         <v>29</v>
       </c>
+      <c r="P12">
+        <v>32</v>
+      </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Indiana' ,1,2,4,6,8,9,11,14,15,16,19],</v>
+        <v>['Tim', 'Indiana' ,1,2,4,6,8,9,11,14,15,16,19,20],</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" t="s">
@@ -4984,11 +5072,14 @@
       <c r="O13">
         <v>19</v>
       </c>
+      <c r="P13">
+        <v>20</v>
+      </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'L.A. Lakers' ,1,3,5,7,8,10,10,11,11,12,14],</v>
+        <v>['Tim', 'L.A. Lakers' ,1,3,5,7,8,10,10,11,11,12,14,15],</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" t="s">
@@ -5030,11 +5121,14 @@
       <c r="O14">
         <v>14</v>
       </c>
+      <c r="P14">
+        <v>15</v>
+      </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'LA Clippers' ,1,4,8,11,14,16,16,20,22,22,25],</v>
+        <v>['Greg', 'LA Clippers' ,1,4,8,11,14,16,16,20,22,22,25,28],</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" t="s">
@@ -5076,11 +5170,14 @@
       <c r="O15">
         <v>25</v>
       </c>
+      <c r="P15">
+        <v>28</v>
+      </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Memphis' ,1,3,4,7,10,12,16,18,20,22,23],</v>
+        <v>['Tim', 'Memphis' ,1,3,4,7,10,12,16,18,20,22,23,25],</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" t="s">
@@ -5122,11 +5219,14 @@
       <c r="O16">
         <v>23</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Miami' ,1,2,2,3,5,7,7,9,10,10,11],</v>
+        <v>['Zach', 'Miami' ,1,2,2,3,5,7,7,9,10,10,11,11],</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" t="s">
@@ -5168,11 +5268,14 @@
       <c r="O17">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Milwaukee' ,0,3,4,5,6,9,11,13,14,16,18],</v>
+        <v>['Greg', 'Milwaukee' ,0,3,4,5,6,9,11,13,14,16,18,20],</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" t="s">
@@ -5214,11 +5317,14 @@
       <c r="O18">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Minnesota' ,0,1,2,4,5,5,6,7,9,11,11],</v>
+        <v>['Jeff', 'Minnesota' ,0,1,2,4,5,5,6,7,9,11,11,14],</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" t="s">
@@ -5260,11 +5366,14 @@
       <c r="O19">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'New Orleans' ,0,0,1,2,6,7,7,9,11,14,14],</v>
+        <v>['Zach', 'New Orleans' ,0,0,1,2,6,7,7,9,11,14,14,16],</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" t="s">
@@ -5306,11 +5415,14 @@
       <c r="O20">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'New York' ,0,2,3,5,8,10,13,14,16,16,17],</v>
+        <v>['Zach', 'New York' ,0,2,3,5,8,10,13,14,16,16,17,18],</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" t="s">
@@ -5352,11 +5464,14 @@
       <c r="O21">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Oklahoma City' ,2,4,6,7,9,12,14,16,18,21,21],</v>
+        <v>['Jeff', 'Oklahoma City' ,2,4,6,7,9,12,14,16,18,21,21,25],</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" t="s">
@@ -5398,11 +5513,14 @@
       <c r="O22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Orlando' ,0,2,3,5,6,8,10,12,14,15,16],</v>
+        <v>['Greg', 'Orlando' ,0,2,3,5,6,8,10,12,14,15,16,17],</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" t="s">
@@ -5444,11 +5562,14 @@
       <c r="O23">
         <v>16</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['', 'Philadelphia' ,0,0,1,2,4,4,5,6,7,8,9],</v>
+        <v>['', 'Philadelphia' ,0,0,1,2,4,4,5,6,7,8,9,12],</v>
       </c>
       <c r="B24" s="3"/>
       <c r="D24" t="s">
@@ -5487,11 +5608,14 @@
       <c r="O24">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['', 'Phoenix' ,0,2,3,3,5,6,7,8,9,10,12],</v>
+        <v>['', 'Phoenix' ,0,2,3,3,5,6,7,8,9,10,12,13],</v>
       </c>
       <c r="B25" s="3"/>
       <c r="D25" t="s">
@@ -5530,11 +5654,14 @@
       <c r="O25">
         <v>12</v>
       </c>
-    </row>
-    <row r="26" spans="1:15">
+      <c r="P25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Portland' ,1,3,6,7,9,10,12,13,13,14,16],</v>
+        <v>['Greg', 'Portland' ,1,3,6,7,9,10,12,13,13,14,16,18],</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" t="s">
@@ -5576,11 +5703,14 @@
       <c r="O26">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="1:15">
+      <c r="P26">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Sacramento' ,1,2,4,4,6,7,8,10,13,14,15],</v>
+        <v>['Jeff', 'Sacramento' ,1,2,4,4,6,7,8,10,13,14,15,16],</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" t="s">
@@ -5622,11 +5752,14 @@
       <c r="O27">
         <v>15</v>
       </c>
-    </row>
-    <row r="28" spans="1:15">
+      <c r="P27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'San Antonio' ,2,5,6,10,13,16,18,21,24,27,29],</v>
+        <v>['Jeff', 'San Antonio' ,2,5,6,10,13,16,18,21,24,27,29,31],</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" t="s">
@@ -5668,11 +5801,14 @@
       <c r="O28">
         <v>29</v>
       </c>
-    </row>
-    <row r="29" spans="1:15">
+      <c r="P28">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Toronto' ,1,4,6,8,10,13,16,18,21,22,24],</v>
+        <v>['Greg', 'Toronto' ,1,4,6,8,10,13,16,18,21,22,24,27],</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" t="s">
@@ -5714,11 +5850,14 @@
       <c r="O29">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="1:15">
+      <c r="P29">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Utah' ,1,3,6,7,9,11,14,17,18,21,22],</v>
+        <v>['Zach', 'Utah' ,1,3,6,7,9,11,14,17,18,21,22,26],</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" t="s">
@@ -5760,11 +5899,14 @@
       <c r="O30">
         <v>22</v>
       </c>
-    </row>
-    <row r="31" spans="1:15">
+      <c r="P30">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Washington' ,0,1,2,3,5,6,8,11,13,16,17],</v>
+        <v>['Tim', 'Washington' ,0,1,2,3,5,6,8,11,13,16,17,20],</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" t="s">
@@ -5806,18 +5948,21 @@
       <c r="O31">
         <v>17</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" s="4" customFormat="1" ht="4" customHeight="1">
+      <c r="P31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" s="4" customFormat="1" ht="4" customHeight="1">
       <c r="A32" s="2"/>
       <c r="B32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="4:15">
+    <row r="33" spans="4:16">
       <c r="D33" t="s">
         <v>32</v>
       </c>
       <c r="E33">
-        <f t="shared" ref="E33:O35" si="2">SUMIF($C$2:$C$31,$D33,E$2:E$31)</f>
+        <f t="shared" ref="E33:P35" si="2">SUMIF($C$2:$C$31,$D33,E$2:E$31)</f>
         <v>9</v>
       </c>
       <c r="F33" s="2">
@@ -5860,8 +6005,12 @@
         <f t="shared" si="2"/>
         <v>147</v>
       </c>
-    </row>
-    <row r="34" spans="4:15">
+      <c r="P33" s="2">
+        <f t="shared" si="2"/>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="34" spans="4:16">
       <c r="D34" t="s">
         <v>33</v>
       </c>
@@ -5909,8 +6058,12 @@
         <f t="shared" si="2"/>
         <v>134</v>
       </c>
-    </row>
-    <row r="35" spans="4:15">
+      <c r="P34" s="2">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="35" spans="4:16">
       <c r="D35" t="s">
         <v>34</v>
       </c>
@@ -5958,13 +6111,17 @@
         <f t="shared" si="2"/>
         <v>125</v>
       </c>
-    </row>
-    <row r="36" spans="4:15">
+      <c r="P35" s="2">
+        <f t="shared" si="2"/>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36" spans="4:16">
       <c r="D36" t="s">
         <v>35</v>
       </c>
       <c r="E36">
-        <f t="shared" ref="E36:O36" si="3">SUMIF($C$2:$C$31,$D$36,E$2:E$31)</f>
+        <f t="shared" ref="E36:P36" si="3">SUMIF($C$2:$C$31,$D$36,E$2:E$31)</f>
         <v>5</v>
       </c>
       <c r="F36" s="2">
@@ -6006,6 +6163,10 @@
       <c r="O36" s="2">
         <f t="shared" si="3"/>
         <v>123</v>
+      </c>
+      <c r="P36" s="2">
+        <f t="shared" si="3"/>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/NFL Wins.xlsx
+++ b/NFL Wins.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8980" windowHeight="16100" tabRatio="500" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8980" windowHeight="16100" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
@@ -479,7 +479,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="177">
+  <cellStyleXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -578,6 +578,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -676,7 +680,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="177">
+  <cellStyles count="181">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -767,6 +771,8 @@
     <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -853,6 +859,8 @@
     <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1471,11 +1479,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y39"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="W6" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A34" sqref="A3:A34"/>
+      <selection pane="bottomRight" activeCell="X17" sqref="X17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1599,8 +1607,8 @@
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="2" t="str">
-        <f>CONCATENATE("['",$C3,"', ","'",$D3,"', ",$E3,",",$F3,",",$G3,",",$H3,",",$I3,",",$J3,",",$K3,",",$L3,",",$M3,",",$N3,",",$O3,",",$P3,",",$Q3,",",$R3,",",$S3,",",$T3,",",$U3,",",$V3,",",$W3,"],")</f>
-        <v>['Greg', '49ers', 1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,2,2,2,2],</v>
+        <f>CONCATENATE("['",$C3,"', ","'",$D3,"', ",$E3,",",$F3,",",$G3,",",$H3,",",$I3,",",$J3,",",$K3,",",$L3,",",$M3,",",$N3,",",$O3,",",$P3,",",$Q3,",",$R3,",",$S3,",",$T3,",",$U3,",",$V3,",",$W3,",",$X3,"],")</f>
+        <v>['Greg', '49ers', 1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,2,2,2,2,2],</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" t="s">
@@ -1675,8 +1683,8 @@
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="2" t="str">
-        <f t="shared" ref="A4:A34" si="1">CONCATENATE("['",$C4,"', ","'",$D4,"', ",$E4,",",$F4,",",$G4,",",$H4,",",$I4,",",$J4,",",$K4,",",$L4,",",$M4,",",$N4,",",$O4,",",$P4,",",$Q4,",",$R4,",",$S4,",",$T4,",",$U4,",",$V4,",",$W4,"],")</f>
-        <v>['Jeff', 'Bears', 0,0,0,1,1,1,1,2,2,2,2,2,3,3,3,3,3,3,3],</v>
+        <f t="shared" ref="A4:A34" si="1">CONCATENATE("['",$C4,"', ","'",$D4,"', ",$E4,",",$F4,",",$G4,",",$H4,",",$I4,",",$J4,",",$K4,",",$L4,",",$M4,",",$N4,",",$O4,",",$P4,",",$Q4,",",$R4,",",$S4,",",$T4,",",$U4,",",$V4,",",$W4,",",$X4,"],")</f>
+        <v>['Jeff', 'Bears', 0,0,0,1,1,1,1,2,2,2,2,2,3,3,3,3,3,3,3,3],</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" t="s">
@@ -1752,7 +1760,7 @@
     <row r="5" spans="1:25">
       <c r="A5" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Bengals', 1,1,1,2,2,2,3,3,3,3,3,3,4,5,5,5,6,6,6],</v>
+        <v>['Tim', 'Bengals', 1,1,1,2,2,2,3,3,3,3,3,3,4,5,5,5,6,6,6,6],</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" t="s">
@@ -1828,7 +1836,7 @@
     <row r="6" spans="1:25">
       <c r="A6" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Bills', 0,0,1,2,3,4,4,4,4,4,5,6,6,6,7,7,7,7,7],</v>
+        <v>['Greg', 'Bills', 0,0,1,2,3,4,4,4,4,4,5,6,6,6,7,7,7,7,7,7],</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" t="s">
@@ -1904,7 +1912,7 @@
     <row r="7" spans="1:25">
       <c r="A7" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Broncos', 1,2,3,4,4,4,5,6,6,7,7,7,8,8,8,8,9,9,9],</v>
+        <v>['Zach', 'Broncos', 1,2,3,4,4,4,5,6,6,7,7,7,8,8,8,8,9,9,9,9],</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" t="s">
@@ -1980,7 +1988,7 @@
     <row r="8" spans="1:25">
       <c r="A8" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Browns', 0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,1,1,1,1],</v>
+        <v>['Jeff', 'Browns', 0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,1,1,1,1,1],</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" t="s">
@@ -2056,7 +2064,7 @@
     <row r="9" spans="1:25">
       <c r="A9" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Buccaneers', 1,1,1,1,2,2,3,3,3,4,5,6,7,8,8,8,9,9,9],</v>
+        <v>['Zach', 'Buccaneers', 1,1,1,1,2,2,3,3,3,4,5,6,7,8,8,8,9,9,9,9],</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" t="s">
@@ -2132,7 +2140,7 @@
     <row r="10" spans="1:25">
       <c r="A10" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Cardinals', 0,1,1,1,2,3,3,3,3,4,4,4,5,5,5,6,7,7,7],</v>
+        <v>['Jeff', 'Cardinals', 0,1,1,1,2,3,3,3,3,4,4,4,5,5,5,6,7,7,7,7],</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" t="s">
@@ -2208,7 +2216,7 @@
     <row r="11" spans="1:25">
       <c r="A11" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Chargers', 0,1,1,1,1,2,3,3,4,4,4,5,5,5,5,5,5,5,5],</v>
+        <v>['Jeff', 'Chargers', 0,1,1,1,1,2,3,3,4,4,4,5,5,5,5,5,5,5,5,5],</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" t="s">
@@ -2284,7 +2292,7 @@
     <row r="12" spans="1:25">
       <c r="A12" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Chiefs', 1,1,2,2,2,3,4,5,6,7,7,8,9,10,10,11,12,12,12],</v>
+        <v>['Zach', 'Chiefs', 1,1,2,2,2,3,4,5,6,7,7,8,9,10,10,11,12,12,12,12],</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" t="s">
@@ -2360,7 +2368,7 @@
     <row r="13" spans="1:25">
       <c r="A13" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Colts', 0,0,1,1,2,2,3,3,4,4,5,5,6,6,7,7,8,8,8],</v>
+        <v>['Greg', 'Colts', 0,0,1,1,2,2,3,3,4,4,5,5,6,6,7,7,8,8,8,8],</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" t="s">
@@ -2436,7 +2444,7 @@
     <row r="14" spans="1:25">
       <c r="A14" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Cowboys', 0,1,2,3,4,5,5,6,7,8,9,10,11,11,12,13,13,13,13],</v>
+        <v>['Greg', 'Cowboys', 0,1,2,3,4,5,5,6,7,8,9,10,11,11,12,13,13,13,13,13],</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" t="s">
@@ -2512,7 +2520,7 @@
     <row r="15" spans="1:25">
       <c r="A15" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Dolphins', 0,0,1,1,1,2,3,3,4,5,6,7,7,8,9,10,10,10,10],</v>
+        <v>['Tim', 'Dolphins', 0,0,1,1,1,2,3,3,4,5,6,7,7,8,9,10,10,10,10,10],</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" t="s">
@@ -2588,7 +2596,7 @@
     <row r="16" spans="1:25">
       <c r="A16" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Eagles', 1,2,3,3,3,3,4,4,4,5,5,5,5,5,5,6,7,7,7],</v>
+        <v>['Zach', 'Eagles', 1,2,3,3,3,3,4,4,4,5,5,5,5,5,5,6,7,7,7,7],</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" t="s">
@@ -2664,7 +2672,7 @@
     <row r="17" spans="1:25">
       <c r="A17" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Falcons', 0,1,2,3,4,4,4,5,6,6,6,7,7,8,9,10,11,11,12],</v>
+        <v>['Greg', 'Falcons', 0,1,2,3,4,4,4,5,6,6,6,7,7,8,9,10,11,11,12,13],</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" t="s">
@@ -2730,11 +2738,14 @@
       <c r="W17">
         <v>12</v>
       </c>
+      <c r="X17">
+        <v>13</v>
+      </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Giants', 1,2,2,2,2,3,4,4,5,6,7,8,8,9,10,10,11,11,11],</v>
+        <v>['Jeff', 'Giants', 1,2,2,2,2,3,4,4,5,6,7,8,8,9,10,10,11,11,11,11],</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" t="s">
@@ -2810,7 +2821,7 @@
     <row r="19" spans="1:25">
       <c r="A19" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Jaguars', 0,0,0,1,1,2,2,2,2,2,2,2,2,2,2,3,3,3,3],</v>
+        <v>['Tim', 'Jaguars', 0,0,0,1,1,2,2,2,2,2,2,2,2,2,2,3,3,3,3,3],</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" t="s">
@@ -2886,7 +2897,7 @@
     <row r="20" spans="1:25">
       <c r="A20" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Jets', 0,1,1,1,1,1,2,3,3,3,3,3,3,4,4,4,5,5,5],</v>
+        <v>['Tim', 'Jets', 0,1,1,1,1,1,2,3,3,3,3,3,3,4,4,4,5,5,5,5],</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" t="s">
@@ -2962,7 +2973,7 @@
     <row r="21" spans="1:25">
       <c r="A21" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Lions', 1,1,1,1,2,3,4,4,5,5,6,7,8,9,9,9,9,9,9],</v>
+        <v>['Jeff', 'Lions', 1,1,1,1,2,3,4,4,5,5,6,7,8,9,9,9,9,9,9,9],</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" t="s">
@@ -3038,7 +3049,7 @@
     <row r="22" spans="1:25">
       <c r="A22" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Packers', 1,1,2,2,3,3,4,4,4,4,4,5,6,7,8,9,10,11,12],</v>
+        <v>['Tim', 'Packers', 1,1,2,2,3,3,4,4,4,4,4,5,6,7,8,9,10,11,12,12],</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" t="s">
@@ -3104,11 +3115,17 @@
       <c r="W22">
         <v>12</v>
       </c>
+      <c r="X22">
+        <v>12</v>
+      </c>
+      <c r="Y22">
+        <v>12</v>
+      </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Panthers', 0,1,1,1,1,1,1,2,3,3,4,4,4,5,6,6,6,6,6],</v>
+        <v>['Greg', 'Panthers', 0,1,1,1,1,1,1,2,3,3,4,4,4,5,6,6,6,6,6,6],</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" t="s">
@@ -3184,7 +3201,7 @@
     <row r="24" spans="1:25">
       <c r="A24" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Patriots', 1,2,3,3,4,5,6,7,7,7,8,9,10,11,12,13,14,14,15],</v>
+        <v>['Greg', 'Patriots', 1,2,3,3,4,5,6,7,7,7,8,9,10,11,12,13,14,14,15,16],</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" t="s">
@@ -3250,11 +3267,14 @@
       <c r="W24">
         <v>15</v>
       </c>
+      <c r="X24">
+        <v>16</v>
+      </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Raiders', 1,1,2,3,4,4,5,6,7,7,8,9,10,10,11,12,12,12,12],</v>
+        <v>['Tim', 'Raiders', 1,1,2,3,4,4,5,6,7,7,8,9,10,10,11,12,12,12,12,12],</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" t="s">
@@ -3330,7 +3350,7 @@
     <row r="26" spans="1:25">
       <c r="A26" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Rams', 0,1,2,3,3,3,3,3,3,4,4,4,4,4,4,4,4,4,4],</v>
+        <v>['Zach', 'Rams', 0,1,2,3,3,3,3,3,3,4,4,4,4,4,4,4,4,4,4,4],</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" t="s">
@@ -3406,7 +3426,7 @@
     <row r="27" spans="1:25">
       <c r="A27" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Ravens', 1,2,3,3,3,3,3,3,4,5,5,6,7,7,8,8,8,8,8],</v>
+        <v>['Jeff', 'Ravens', 1,2,3,3,3,3,3,3,4,5,5,6,7,7,8,8,8,8,8,8],</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" t="s">
@@ -3482,7 +3502,7 @@
     <row r="28" spans="1:25">
       <c r="A28" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Redskins', 0,0,1,2,3,4,4,4,4,5,6,6,6,7,7,8,8,8,8],</v>
+        <v>['Greg', 'Redskins', 0,0,1,2,3,4,4,4,4,5,6,6,6,7,7,8,8,8,8,8],</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" t="s">
@@ -3558,7 +3578,7 @@
     <row r="29" spans="1:25">
       <c r="A29" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Saints', 0,0,0,1,1,2,2,3,4,4,4,5,5,5,6,7,7,7,7],</v>
+        <v>['Zach', 'Saints', 0,0,0,1,1,2,2,3,4,4,4,5,5,5,6,7,7,7,7,7],</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" t="s">
@@ -3634,7 +3654,7 @@
     <row r="30" spans="1:25">
       <c r="A30" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Seahawks', 1,1,2,3,3,4,4,4,5,6,7,7,8,8,9,9,10,11,11],</v>
+        <v>['Zach', 'Seahawks', 1,1,2,3,3,4,4,4,5,6,7,7,8,8,9,9,10,11,11,11],</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" t="s">
@@ -3710,7 +3730,7 @@
     <row r="31" spans="1:25">
       <c r="A31" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Steelers', 1,2,2,3,4,4,4,4,4,4,5,6,7,8,9,10,11,12,13],</v>
+        <v>['Tim', 'Steelers', 1,2,2,3,4,4,4,4,4,4,5,6,7,8,9,10,11,12,13,13],</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" t="s">
@@ -3776,11 +3796,17 @@
       <c r="W31">
         <v>13</v>
       </c>
+      <c r="X31">
+        <v>13</v>
+      </c>
+      <c r="Y31">
+        <v>13</v>
+      </c>
     </row>
     <row r="32" spans="1:25">
       <c r="A32" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Texans', 1,2,2,3,3,4,4,5,5,6,6,6,6,7,8,9,9,10,10],</v>
+        <v>['Jeff', 'Texans', 1,2,2,3,3,4,4,5,5,6,6,6,6,7,8,9,9,10,10,10],</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" t="s">
@@ -3856,7 +3882,7 @@
     <row r="33" spans="1:25">
       <c r="A33" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Titans', 0,1,1,1,2,3,3,4,4,5,5,6,6,7,8,8,9,9,9],</v>
+        <v>['Zach', 'Titans', 0,1,1,1,2,3,3,4,4,5,5,6,6,7,8,8,9,9,9,9],</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="9" t="s">
@@ -3932,7 +3958,7 @@
     <row r="34" spans="1:25">
       <c r="A34" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Vikings', 1,2,3,4,5,5,5,5,5,5,6,6,6,7,7,7,8,8,8],</v>
+        <v>['Tim', 'Vikings', 1,2,3,4,5,5,5,5,5,5,6,6,6,7,7,7,8,8,8,8],</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" t="s">
@@ -4181,7 +4207,7 @@
       </c>
       <c r="X37" s="2">
         <f t="shared" si="3"/>
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="Y37" s="2">
         <f t="shared" si="3"/>
@@ -4270,11 +4296,11 @@
       </c>
       <c r="X38" s="2">
         <f t="shared" si="3"/>
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="Y38" s="2">
         <f t="shared" si="3"/>
-        <v>44</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:25">
@@ -4384,8 +4410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y36"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="M1" activePane="topRight" state="frozenSplit"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="O1" activePane="topRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="A2" sqref="A2:A31"/>
     </sheetView>
   </sheetViews>
@@ -4452,46 +4478,45 @@
         <v>42750</v>
       </c>
       <c r="Q1" s="8">
-        <f t="shared" si="0"/>
-        <v>42757</v>
+        <v>42756</v>
       </c>
       <c r="R1" s="8">
         <f>Q1+7</f>
-        <v>42764</v>
+        <v>42763</v>
       </c>
       <c r="S1" s="8">
         <f t="shared" si="0"/>
-        <v>42771</v>
+        <v>42770</v>
       </c>
       <c r="T1" s="8">
         <f t="shared" si="0"/>
-        <v>42778</v>
+        <v>42777</v>
       </c>
       <c r="U1" s="8">
         <f t="shared" si="0"/>
-        <v>42785</v>
+        <v>42784</v>
       </c>
       <c r="V1" s="8">
         <f t="shared" si="0"/>
-        <v>42792</v>
+        <v>42791</v>
       </c>
       <c r="W1" s="8">
         <f t="shared" si="0"/>
-        <v>42799</v>
+        <v>42798</v>
       </c>
       <c r="X1" s="8">
         <f t="shared" si="0"/>
-        <v>42806</v>
+        <v>42805</v>
       </c>
       <c r="Y1" s="8">
         <f t="shared" si="0"/>
-        <v>42813</v>
+        <v>42812</v>
       </c>
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="2" t="str">
-        <f>CONCATENATE("['",$C2,"', ","'",$D2,"' ,",$E2,",",$F2,",",$G2,",",$H2,",",$I2,",",$J2,",",$K2,",",$L2,",",$M2,",",$N2,",",$O2,",",$P2,"],")</f>
-        <v>['Zach', 'Atlanta' ,1,3,6,9,10,10,12,13,15,17,20,23],</v>
+        <f>CONCATENATE("['",$C2,"', ","'",$D2,"' ,",$E2,",",$F2,",",$G2,",",$H2,",",$I2,",",$J2,",",$K2,",",$L2,",",$M2,",",$N2,",",$O2,",",$P2,",",$Q2,"],")</f>
+        <v>['Zach', 'Atlanta' ,1,3,6,9,10,10,12,13,15,17,20,23,25],</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" t="s">
@@ -4536,11 +4561,14 @@
       <c r="P2">
         <v>23</v>
       </c>
+      <c r="Q2">
+        <v>25</v>
+      </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="2" t="str">
-        <f t="shared" ref="A3:A31" si="1">CONCATENATE("['",$C3,"', ","'",$D3,"' ,",$E3,",",$F3,",",$G3,",",$H3,",",$I3,",",$J3,",",$K3,",",$L3,",",$M3,",",$N3,",",$O3,",",$P3,"],")</f>
-        <v>['Jeff', 'Boston' ,1,3,4,6,9,11,13,14,17,20,22,25],</v>
+        <f t="shared" ref="A3:A31" si="1">CONCATENATE("['",$C3,"', ","'",$D3,"' ,",$E3,",",$F3,",",$G3,",",$H3,",",$I3,",",$J3,",",$K3,",",$L3,",",$M3,",",$N3,",",$O3,",",$P3,",",$Q3,"],")</f>
+        <v>['Jeff', 'Boston' ,1,3,4,6,9,11,13,14,17,20,22,25,26],</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" t="s">
@@ -4585,11 +4613,14 @@
       <c r="P3">
         <v>25</v>
       </c>
+      <c r="Q3">
+        <v>26</v>
+      </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Brooklyn' ,1,2,3,4,4,5,6,7,7,8,8,8],</v>
+        <v>['Zach', 'Brooklyn' ,1,2,3,4,4,5,6,7,7,8,8,8,9],</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" t="s">
@@ -4634,11 +4665,14 @@
       <c r="P4">
         <v>8</v>
       </c>
+      <c r="Q4">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Charlotte' ,2,4,6,8,8,11,14,15,17,19,20,20],</v>
+        <v>['Jeff', 'Charlotte' ,2,4,6,8,8,11,14,15,17,19,20,20,22],</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" t="s">
@@ -4683,11 +4717,14 @@
       <c r="P5">
         <v>20</v>
       </c>
+      <c r="Q5">
+        <v>22</v>
+      </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Chicago' ,1,3,5,8,10,11,12,13,14,16,18,21],</v>
+        <v>['Greg', 'Chicago' ,1,3,5,8,10,11,12,13,14,16,18,21,21],</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" t="s">
@@ -4732,11 +4769,14 @@
       <c r="P6">
         <v>21</v>
       </c>
+      <c r="Q6">
+        <v>21</v>
+      </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Cleveland' ,2,5,7,10,12,13,16,19,22,25,27,29],</v>
+        <v>['Tim', 'Cleveland' ,2,5,7,10,12,13,16,19,22,25,27,29,30],</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" t="s">
@@ -4781,11 +4821,14 @@
       <c r="P7">
         <v>29</v>
       </c>
+      <c r="Q7">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Dallas' ,0,0,2,2,2,3,5,6,9,10,11,13],</v>
+        <v>['Tim', 'Dallas' ,0,0,2,2,2,3,5,6,9,10,11,13,14],</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" t="s">
@@ -4830,11 +4873,14 @@
       <c r="P8">
         <v>13</v>
       </c>
+      <c r="Q8">
+        <v>14</v>
+      </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Denver' ,1,2,3,4,6,7,8,11,12,14,14,15],</v>
+        <v>['Tim', 'Denver' ,1,2,3,4,6,7,8,11,12,14,14,15,17],</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" t="s">
@@ -4879,11 +4925,14 @@
       <c r="P9">
         <v>15</v>
       </c>
+      <c r="Q9">
+        <v>17</v>
+      </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Detroit' ,1,3,4,6,8,11,13,14,14,15,17,19],</v>
+        <v>['Greg', 'Detroit' ,1,3,4,6,8,11,13,14,14,15,17,19,20],</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" t="s">
@@ -4928,11 +4977,14 @@
       <c r="P10">
         <v>19</v>
       </c>
+      <c r="Q10">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Golden State' ,1,4,7,9,14,16,20,24,27,29,31,34],</v>
+        <v>['Zach', 'Golden State' ,1,4,7,9,14,16,20,24,27,29,31,34,37],</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" t="s">
@@ -4977,11 +5029,14 @@
       <c r="P11">
         <v>34</v>
       </c>
+      <c r="Q11">
+        <v>37</v>
+      </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Houston' ,1,3,5,7,10,13,16,21,22,26,29,32],</v>
+        <v>['Jeff', 'Houston' ,1,3,5,7,10,13,16,21,22,26,29,32,33],</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" t="s">
@@ -5026,11 +5081,14 @@
       <c r="P12">
         <v>32</v>
       </c>
+      <c r="Q12">
+        <v>33</v>
+      </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Indiana' ,1,2,4,6,8,9,11,14,15,16,19,20],</v>
+        <v>['Tim', 'Indiana' ,1,2,4,6,8,9,11,14,15,16,19,20,22],</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" t="s">
@@ -5075,11 +5133,14 @@
       <c r="P13">
         <v>20</v>
       </c>
+      <c r="Q13">
+        <v>22</v>
+      </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'L.A. Lakers' ,1,3,5,7,8,10,10,11,11,12,14,15],</v>
+        <v>['Tim', 'L.A. Lakers' ,1,3,5,7,8,10,10,11,11,12,14,15,16],</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" t="s">
@@ -5124,11 +5185,14 @@
       <c r="P14">
         <v>15</v>
       </c>
+      <c r="Q14">
+        <v>16</v>
+      </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'LA Clippers' ,1,4,8,11,14,16,16,20,22,22,25,28],</v>
+        <v>['Greg', 'LA Clippers' ,1,4,8,11,14,16,16,20,22,22,25,28,29],</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" t="s">
@@ -5173,11 +5237,14 @@
       <c r="P15">
         <v>28</v>
       </c>
+      <c r="Q15">
+        <v>29</v>
+      </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Memphis' ,1,3,4,7,10,12,16,18,20,22,23,25],</v>
+        <v>['Tim', 'Memphis' ,1,3,4,7,10,12,16,18,20,22,23,25,26],</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" t="s">
@@ -5222,11 +5289,14 @@
       <c r="P16">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:16">
+      <c r="Q16">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Miami' ,1,2,2,3,5,7,7,9,10,10,11,11],</v>
+        <v>['Zach', 'Miami' ,1,2,2,3,5,7,7,9,10,10,11,11,13],</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" t="s">
@@ -5271,11 +5341,14 @@
       <c r="P17">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:16">
+      <c r="Q17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Milwaukee' ,0,3,4,5,6,9,11,13,14,16,18,20],</v>
+        <v>['Greg', 'Milwaukee' ,0,3,4,5,6,9,11,13,14,16,18,20,20],</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" t="s">
@@ -5320,11 +5393,14 @@
       <c r="P18">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:16">
+      <c r="Q18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Minnesota' ,0,1,2,4,5,5,6,7,9,11,11,14],</v>
+        <v>['Jeff', 'Minnesota' ,0,1,2,4,5,5,6,7,9,11,11,14,15],</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" t="s">
@@ -5369,11 +5445,14 @@
       <c r="P19">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:16">
+      <c r="Q19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'New Orleans' ,0,0,1,2,6,7,7,9,11,14,14,16],</v>
+        <v>['Zach', 'New Orleans' ,0,0,1,2,6,7,7,9,11,14,14,16,17],</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" t="s">
@@ -5418,11 +5497,14 @@
       <c r="P20">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:16">
+      <c r="Q20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'New York' ,0,2,3,5,8,10,13,14,16,16,17,18],</v>
+        <v>['Zach', 'New York' ,0,2,3,5,8,10,13,14,16,16,17,18,19],</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" t="s">
@@ -5467,11 +5549,14 @@
       <c r="P21">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="1:16">
+      <c r="Q21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Oklahoma City' ,2,4,6,7,9,12,14,16,18,21,21,25],</v>
+        <v>['Jeff', 'Oklahoma City' ,2,4,6,7,9,12,14,16,18,21,21,25,25],</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" t="s">
@@ -5516,11 +5601,14 @@
       <c r="P22">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="1:16">
+      <c r="Q22">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Orlando' ,0,2,3,5,6,8,10,12,14,15,16,17],</v>
+        <v>['Greg', 'Orlando' ,0,2,3,5,6,8,10,12,14,15,16,17,18],</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" t="s">
@@ -5565,11 +5653,14 @@
       <c r="P23">
         <v>17</v>
       </c>
-    </row>
-    <row r="24" spans="1:16">
+      <c r="Q23">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['', 'Philadelphia' ,0,0,1,2,4,4,5,6,7,8,9,12],</v>
+        <v>['', 'Philadelphia' ,0,0,1,2,4,4,5,6,7,8,9,12,15],</v>
       </c>
       <c r="B24" s="3"/>
       <c r="D24" t="s">
@@ -5611,11 +5702,14 @@
       <c r="P24">
         <v>12</v>
       </c>
-    </row>
-    <row r="25" spans="1:16">
+      <c r="Q24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['', 'Phoenix' ,0,2,3,3,5,6,7,8,9,10,12,13],</v>
+        <v>['', 'Phoenix' ,0,2,3,3,5,6,7,8,9,10,12,13,13],</v>
       </c>
       <c r="B25" s="3"/>
       <c r="D25" t="s">
@@ -5657,11 +5751,14 @@
       <c r="P25">
         <v>13</v>
       </c>
-    </row>
-    <row r="26" spans="1:16">
+      <c r="Q25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Portland' ,1,3,6,7,9,10,12,13,13,14,16,18],</v>
+        <v>['Greg', 'Portland' ,1,3,6,7,9,10,12,13,13,14,16,18,18],</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" t="s">
@@ -5706,11 +5803,14 @@
       <c r="P26">
         <v>18</v>
       </c>
-    </row>
-    <row r="27" spans="1:16">
+      <c r="Q26">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'Sacramento' ,1,2,4,4,6,7,8,10,13,14,15,16],</v>
+        <v>['Jeff', 'Sacramento' ,1,2,4,4,6,7,8,10,13,14,15,16,16],</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" t="s">
@@ -5755,11 +5855,14 @@
       <c r="P27">
         <v>16</v>
       </c>
-    </row>
-    <row r="28" spans="1:16">
+      <c r="Q27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Jeff', 'San Antonio' ,2,5,6,10,13,16,18,21,24,27,29,31],</v>
+        <v>['Jeff', 'San Antonio' ,2,5,6,10,13,16,18,21,24,27,29,31,33],</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" t="s">
@@ -5804,11 +5907,14 @@
       <c r="P28">
         <v>31</v>
       </c>
-    </row>
-    <row r="29" spans="1:16">
+      <c r="Q28">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Greg', 'Toronto' ,1,4,6,8,10,13,16,18,21,22,24,27],</v>
+        <v>['Greg', 'Toronto' ,1,4,6,8,10,13,16,18,21,22,24,27,28],</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" t="s">
@@ -5853,11 +5959,14 @@
       <c r="P29">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:16">
+      <c r="Q29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Zach', 'Utah' ,1,3,6,7,9,11,14,17,18,21,22,26],</v>
+        <v>['Zach', 'Utah' ,1,3,6,7,9,11,14,17,18,21,22,26,28],</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" t="s">
@@ -5902,11 +6011,14 @@
       <c r="P30">
         <v>26</v>
       </c>
-    </row>
-    <row r="31" spans="1:16">
+      <c r="Q30">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>['Tim', 'Washington' ,0,1,2,3,5,6,8,11,13,16,17,20],</v>
+        <v>['Tim', 'Washington' ,0,1,2,3,5,6,8,11,13,16,17,20,23],</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" t="s">
@@ -5951,18 +6063,21 @@
       <c r="P31">
         <v>20</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" s="4" customFormat="1" ht="4" customHeight="1">
+      <c r="Q31">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" s="4" customFormat="1" ht="4" customHeight="1">
       <c r="A32" s="2"/>
       <c r="B32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="4:16">
+    <row r="33" spans="4:17">
       <c r="D33" t="s">
         <v>32</v>
       </c>
       <c r="E33">
-        <f t="shared" ref="E33:P35" si="2">SUMIF($C$2:$C$31,$D33,E$2:E$31)</f>
+        <f t="shared" ref="E33:Q35" si="2">SUMIF($C$2:$C$31,$D33,E$2:E$31)</f>
         <v>9</v>
       </c>
       <c r="F33" s="2">
@@ -6009,8 +6124,12 @@
         <f t="shared" si="2"/>
         <v>163</v>
       </c>
-    </row>
-    <row r="34" spans="4:16">
+      <c r="Q33" s="2">
+        <f t="shared" si="2"/>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="34" spans="4:17">
       <c r="D34" t="s">
         <v>33</v>
       </c>
@@ -6062,8 +6181,12 @@
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-    </row>
-    <row r="35" spans="4:16">
+      <c r="Q34" s="2">
+        <f t="shared" si="2"/>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="35" spans="4:17">
       <c r="D35" t="s">
         <v>34</v>
       </c>
@@ -6115,13 +6238,17 @@
         <f t="shared" si="2"/>
         <v>137</v>
       </c>
-    </row>
-    <row r="36" spans="4:16">
+      <c r="Q35" s="2">
+        <f t="shared" si="2"/>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="36" spans="4:17">
       <c r="D36" t="s">
         <v>35</v>
       </c>
       <c r="E36">
-        <f t="shared" ref="E36:P36" si="3">SUMIF($C$2:$C$31,$D$36,E$2:E$31)</f>
+        <f t="shared" ref="E36:Q36" si="3">SUMIF($C$2:$C$31,$D$36,E$2:E$31)</f>
         <v>5</v>
       </c>
       <c r="F36" s="2">
@@ -6167,6 +6294,10 @@
       <c r="P36" s="2">
         <f t="shared" si="3"/>
         <v>136</v>
+      </c>
+      <c r="Q36" s="2">
+        <f t="shared" si="3"/>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
